--- a/Exple-mouvements-BDD-Grands-Mécènes2.xlsx
+++ b/Exple-mouvements-BDD-Grands-Mécènes2.xlsx
@@ -1,20 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26124"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gonzo/Google_Drive/Master/S2/TER/Projet/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="51200" windowHeight="26660" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="20170828-20170903" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="20170828-20170903" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">'20170828-20170903'!$A$1:$AK$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'20170828-20170903'!$A$1:$AK$1</definedName>
   </definedNames>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="0" iterateDelta="1E-4" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
     </ext>
@@ -23,603 +30,612 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="460" uniqueCount="192">
-  <si>
-    <t xml:space="preserve">Code délégué</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Libellé délégué</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fonction Donateur</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Situation donateur</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NUMCLI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIVILITE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NOM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PRENOM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">COMPAGNIE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DEPT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VILLE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PAYS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TEL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TEL_MOB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EMAIL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Montant de la dernière annulation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Date de la dernière annulation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Montant du dernier don</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Date du dernier don</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mode de paiement du dernier don</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Code origine du dernier don</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Libellé origine du dernier don</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Montant du 1er don
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="196">
+  <si>
+    <t>Code délégué</t>
+  </si>
+  <si>
+    <t>Libellé délégué</t>
+  </si>
+  <si>
+    <t>Fonction Donateur</t>
+  </si>
+  <si>
+    <t>Situation donateur</t>
+  </si>
+  <si>
+    <t>NUMCLI</t>
+  </si>
+  <si>
+    <t>CIVILITE</t>
+  </si>
+  <si>
+    <t>NOM</t>
+  </si>
+  <si>
+    <t>PRENOM</t>
+  </si>
+  <si>
+    <t>COMPAGNIE</t>
+  </si>
+  <si>
+    <t>DEPT</t>
+  </si>
+  <si>
+    <t>CP</t>
+  </si>
+  <si>
+    <t>VILLE</t>
+  </si>
+  <si>
+    <t>PAYS</t>
+  </si>
+  <si>
+    <t>TEL</t>
+  </si>
+  <si>
+    <t>TEL_MOB</t>
+  </si>
+  <si>
+    <t>EMAIL</t>
+  </si>
+  <si>
+    <t>Montant de la dernière annulation</t>
+  </si>
+  <si>
+    <t>Date de la dernière annulation</t>
+  </si>
+  <si>
+    <t>Montant du dernier don</t>
+  </si>
+  <si>
+    <t>Date du dernier don</t>
+  </si>
+  <si>
+    <t>Mode de paiement du dernier don</t>
+  </si>
+  <si>
+    <t>Code origine du dernier don</t>
+  </si>
+  <si>
+    <t>Libellé origine du dernier don</t>
+  </si>
+  <si>
+    <t>Montant du 1er don
 (347P)</t>
   </si>
   <si>
-    <t xml:space="preserve">Date du premier don
+    <t>Date du premier don
 (347P)</t>
   </si>
   <si>
-    <t xml:space="preserve">Cumul montant des dons
+    <t>Cumul montant des dons
 (347P)</t>
   </si>
   <si>
-    <t xml:space="preserve">Nombre de dons
+    <t>Nombre de dons
 (347P)</t>
   </si>
   <si>
-    <t xml:space="preserve">Cumul montant des dons dans l'année
+    <t>Cumul montant des dons dans l'année
 (347P)</t>
   </si>
   <si>
-    <t xml:space="preserve">Nombre de dons dans l'année
+    <t>Nombre de dons dans l'année
 (347P)</t>
   </si>
   <si>
-    <t xml:space="preserve">Cumul Montant des dons N-1
+    <t>Cumul Montant des dons N-1
 (347P)</t>
   </si>
   <si>
-    <t xml:space="preserve">Nombre de dons N-1
+    <t>Nombre de dons N-1
 (347P)</t>
   </si>
   <si>
-    <t xml:space="preserve">KAVIAR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Who's WHO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Score ISF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Score Legs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Décédé</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NPAI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Arrêt PA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Date de changement d'adresse</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Christelle NIMESKERN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Grand donateur</t>
-  </si>
-  <si>
-    <t xml:space="preserve">01611234</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MME</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sophie</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vachon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MARSEILLE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FRANCE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0400000000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0600000000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">xx@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CHEQUE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PFZZ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Petits anciens donateurs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">O</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40</t>
-  </si>
-  <si>
-    <t xml:space="preserve">N</t>
-  </si>
-  <si>
-    <t xml:space="preserve">02860008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Villette</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Méthot</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34090</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MONTPELLIER</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PRELEVEMENT AUTOMATIQUE - RIB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PF5M311CZ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MAILING CANCER FID 1 MARS CL1 13-24 M</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Personne Num1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00000001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Christien</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lacharité</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AIX-EN-PROVENCE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0400000001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Personne Num2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00000002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tabor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Petit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ARLES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0400000002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Personne Num3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00000003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Robinette</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chaussée</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CASSIS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0400000003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Personne Num4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00000004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Laurent</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sanschagrin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VITROLLES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0400000004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Personne Num5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00000005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sumner</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sorel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MARIGNANE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0400000005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Personne Num6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00000006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Audrey</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Beaudouin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GEMENOS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0400000006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Personne Num7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00000007</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fantina</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LeBatelier</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AUBAGNE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0400000007</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Personne Num8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00000008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">William</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Séguin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LA CIOTAT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0400000008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Personne Num9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00000009</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Parfait</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pouchard</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PERTUIS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0400000009</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Personne Num10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00000010</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tearlach</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lacombe</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NICE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0400000010</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Personne Num11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00000011</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Normand</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mireault</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TOULON</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0400000011</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Personne Num12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00000012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Julien</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Laprise</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CADENET</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0400000012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Personne Num13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00000013</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Heloise</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fortier</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BRIGNOLES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0400000013</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Personne Num14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00000014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Zoé</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bazinet</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ISTRES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0400000014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Personne Num15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00000015</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brunella</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Viens</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MARTIGUES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0400000015</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Personne Num16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00000016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Élisabeth</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bordeleau</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CAVAILLON</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0400000016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Personne Num17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00000017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Martine</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Saindon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">APT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0400000017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Personne Num18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00000018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hilaire</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Heureux</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MANOSQUE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0400000018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Personne Num19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00000019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Emmanuelle</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Faucher</t>
-  </si>
-  <si>
-    <t xml:space="preserve">COGOLIN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0400000019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Personne Num20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00000020</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Blondelle</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Primeau</t>
-  </si>
-  <si>
-    <t xml:space="preserve">REVEST-DU-BION</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0400000020</t>
+    <t>KAVIAR</t>
+  </si>
+  <si>
+    <t>Who's WHO</t>
+  </si>
+  <si>
+    <t>Score ISF</t>
+  </si>
+  <si>
+    <t>Score Legs</t>
+  </si>
+  <si>
+    <t>Décédé</t>
+  </si>
+  <si>
+    <t>NPAI</t>
+  </si>
+  <si>
+    <t>Arrêt PA</t>
+  </si>
+  <si>
+    <t>Date de changement d'adresse</t>
+  </si>
+  <si>
+    <t>CN</t>
+  </si>
+  <si>
+    <t>Christelle NIMESKERN</t>
+  </si>
+  <si>
+    <t>Grand donateur</t>
+  </si>
+  <si>
+    <t>01611234</t>
+  </si>
+  <si>
+    <t>MME</t>
+  </si>
+  <si>
+    <t>Sophie</t>
+  </si>
+  <si>
+    <t>Vachon</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>13000</t>
+  </si>
+  <si>
+    <t>MARSEILLE</t>
+  </si>
+  <si>
+    <t>FRANCE</t>
+  </si>
+  <si>
+    <t>0400000000</t>
+  </si>
+  <si>
+    <t>0600000000</t>
+  </si>
+  <si>
+    <t>xx@gmail.com</t>
+  </si>
+  <si>
+    <t>CHEQUE</t>
+  </si>
+  <si>
+    <t>PFZZ</t>
+  </si>
+  <si>
+    <t>Petits anciens donateurs</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>O</t>
+  </si>
+  <si>
+    <t>37</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>02860008</t>
+  </si>
+  <si>
+    <t>Villette</t>
+  </si>
+  <si>
+    <t>Méthot</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>34090</t>
+  </si>
+  <si>
+    <t>MONTPELLIER</t>
+  </si>
+  <si>
+    <t>PRELEVEMENT AUTOMATIQUE - RIB</t>
+  </si>
+  <si>
+    <t>PF5M311CZ</t>
+  </si>
+  <si>
+    <t>MAILING CANCER FID 1 MARS CL1 13-24 M</t>
+  </si>
+  <si>
+    <t>38</t>
+  </si>
+  <si>
+    <t>Personne Num1</t>
+  </si>
+  <si>
+    <t>00000001</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>Christien</t>
+  </si>
+  <si>
+    <t>Lacharité</t>
+  </si>
+  <si>
+    <t>AIX-EN-PROVENCE</t>
+  </si>
+  <si>
+    <t>0400000001</t>
+  </si>
+  <si>
+    <t>Personne Num2</t>
+  </si>
+  <si>
+    <t>00000002</t>
+  </si>
+  <si>
+    <t>Tabor</t>
+  </si>
+  <si>
+    <t>Petit</t>
+  </si>
+  <si>
+    <t>ARLES</t>
+  </si>
+  <si>
+    <t>0400000002</t>
+  </si>
+  <si>
+    <t>Personne Num3</t>
+  </si>
+  <si>
+    <t>00000003</t>
+  </si>
+  <si>
+    <t>Robinette</t>
+  </si>
+  <si>
+    <t>Chaussée</t>
+  </si>
+  <si>
+    <t>CASSIS</t>
+  </si>
+  <si>
+    <t>0400000003</t>
+  </si>
+  <si>
+    <t>Personne Num4</t>
+  </si>
+  <si>
+    <t>00000004</t>
+  </si>
+  <si>
+    <t>Laurent</t>
+  </si>
+  <si>
+    <t>Sanschagrin</t>
+  </si>
+  <si>
+    <t>VITROLLES</t>
+  </si>
+  <si>
+    <t>0400000004</t>
+  </si>
+  <si>
+    <t>Personne Num5</t>
+  </si>
+  <si>
+    <t>00000005</t>
+  </si>
+  <si>
+    <t>Sumner</t>
+  </si>
+  <si>
+    <t>Sorel</t>
+  </si>
+  <si>
+    <t>MARIGNANE</t>
+  </si>
+  <si>
+    <t>0400000005</t>
+  </si>
+  <si>
+    <t>Personne Num6</t>
+  </si>
+  <si>
+    <t>00000006</t>
+  </si>
+  <si>
+    <t>Audrey</t>
+  </si>
+  <si>
+    <t>Beaudouin</t>
+  </si>
+  <si>
+    <t>GEMENOS</t>
+  </si>
+  <si>
+    <t>0400000006</t>
+  </si>
+  <si>
+    <t>Personne Num7</t>
+  </si>
+  <si>
+    <t>00000007</t>
+  </si>
+  <si>
+    <t>Fantina</t>
+  </si>
+  <si>
+    <t>LeBatelier</t>
+  </si>
+  <si>
+    <t>AUBAGNE</t>
+  </si>
+  <si>
+    <t>0400000007</t>
+  </si>
+  <si>
+    <t>Personne Num8</t>
+  </si>
+  <si>
+    <t>00000008</t>
+  </si>
+  <si>
+    <t>William</t>
+  </si>
+  <si>
+    <t>Séguin</t>
+  </si>
+  <si>
+    <t>LA CIOTAT</t>
+  </si>
+  <si>
+    <t>0400000008</t>
+  </si>
+  <si>
+    <t>Personne Num9</t>
+  </si>
+  <si>
+    <t>00000009</t>
+  </si>
+  <si>
+    <t>Parfait</t>
+  </si>
+  <si>
+    <t>Pouchard</t>
+  </si>
+  <si>
+    <t>PERTUIS</t>
+  </si>
+  <si>
+    <t>0400000009</t>
+  </si>
+  <si>
+    <t>Personne Num10</t>
+  </si>
+  <si>
+    <t>00000010</t>
+  </si>
+  <si>
+    <t>Tearlach</t>
+  </si>
+  <si>
+    <t>Lacombe</t>
+  </si>
+  <si>
+    <t>NICE</t>
+  </si>
+  <si>
+    <t>0400000010</t>
+  </si>
+  <si>
+    <t>Personne Num11</t>
+  </si>
+  <si>
+    <t>00000011</t>
+  </si>
+  <si>
+    <t>Normand</t>
+  </si>
+  <si>
+    <t>Mireault</t>
+  </si>
+  <si>
+    <t>TOULON</t>
+  </si>
+  <si>
+    <t>0400000011</t>
+  </si>
+  <si>
+    <t>Personne Num12</t>
+  </si>
+  <si>
+    <t>00000012</t>
+  </si>
+  <si>
+    <t>Julien</t>
+  </si>
+  <si>
+    <t>Laprise</t>
+  </si>
+  <si>
+    <t>CADENET</t>
+  </si>
+  <si>
+    <t>0400000012</t>
+  </si>
+  <si>
+    <t>Personne Num13</t>
+  </si>
+  <si>
+    <t>00000013</t>
+  </si>
+  <si>
+    <t>Heloise</t>
+  </si>
+  <si>
+    <t>Fortier</t>
+  </si>
+  <si>
+    <t>BRIGNOLES</t>
+  </si>
+  <si>
+    <t>0400000013</t>
+  </si>
+  <si>
+    <t>Personne Num14</t>
+  </si>
+  <si>
+    <t>00000014</t>
+  </si>
+  <si>
+    <t>Zoé</t>
+  </si>
+  <si>
+    <t>Bazinet</t>
+  </si>
+  <si>
+    <t>ISTRES</t>
+  </si>
+  <si>
+    <t>0400000014</t>
+  </si>
+  <si>
+    <t>Personne Num15</t>
+  </si>
+  <si>
+    <t>00000015</t>
+  </si>
+  <si>
+    <t>Brunella</t>
+  </si>
+  <si>
+    <t>Viens</t>
+  </si>
+  <si>
+    <t>MARTIGUES</t>
+  </si>
+  <si>
+    <t>0400000015</t>
+  </si>
+  <si>
+    <t>Personne Num16</t>
+  </si>
+  <si>
+    <t>00000016</t>
+  </si>
+  <si>
+    <t>Élisabeth</t>
+  </si>
+  <si>
+    <t>Bordeleau</t>
+  </si>
+  <si>
+    <t>CAVAILLON</t>
+  </si>
+  <si>
+    <t>0400000016</t>
+  </si>
+  <si>
+    <t>Personne Num17</t>
+  </si>
+  <si>
+    <t>00000017</t>
+  </si>
+  <si>
+    <t>Martine</t>
+  </si>
+  <si>
+    <t>Saindon</t>
+  </si>
+  <si>
+    <t>APT</t>
+  </si>
+  <si>
+    <t>0400000017</t>
+  </si>
+  <si>
+    <t>Personne Num18</t>
+  </si>
+  <si>
+    <t>00000018</t>
+  </si>
+  <si>
+    <t>Hilaire</t>
+  </si>
+  <si>
+    <t>Heureux</t>
+  </si>
+  <si>
+    <t>MANOSQUE</t>
+  </si>
+  <si>
+    <t>0400000018</t>
+  </si>
+  <si>
+    <t>Personne Num19</t>
+  </si>
+  <si>
+    <t>00000019</t>
+  </si>
+  <si>
+    <t>Emmanuelle</t>
+  </si>
+  <si>
+    <t>Faucher</t>
+  </si>
+  <si>
+    <t>COGOLIN</t>
+  </si>
+  <si>
+    <t>0400000019</t>
+  </si>
+  <si>
+    <t>Personne Num20</t>
+  </si>
+  <si>
+    <t>00000020</t>
+  </si>
+  <si>
+    <t>Blondelle</t>
+  </si>
+  <si>
+    <t>Primeau</t>
+  </si>
+  <si>
+    <t>REVEST-DU-BION</t>
+  </si>
+  <si>
+    <t>0400000020</t>
+  </si>
+  <si>
+    <t>jack</t>
+  </si>
+  <si>
+    <t>01611233</t>
+  </si>
+  <si>
+    <t>Christophe</t>
+  </si>
+  <si>
+    <t>Fabien</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="@"/>
-    <numFmt numFmtId="166" formatCode="#,##0.00&quot; €&quot;"/>
-    <numFmt numFmtId="167" formatCode="DD/MM/YYYY"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="#,##0.00&quot; €&quot;"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -628,22 +644,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <b val="true"/>
+      <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -651,9 +652,17 @@
       <charset val="1"/>
     </font>
     <font>
-      <u val="single"/>
+      <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
@@ -668,7 +677,7 @@
     </fill>
   </fills>
   <borders count="1">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
@@ -676,135 +685,347 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="21">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+  <cellStyleXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+  </cellStyleXfs>
+  <cellXfs count="11">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-  </cellStyleXfs>
-  <cellXfs count="10">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="7">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
-    <cellStyle name="*unknown*" xfId="20" builtinId="8" customBuiltin="false"/>
+  <cellStyles count="3">
+    <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
+    <cellStyle name="Lien hypertexte visité" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
+  <a:themeElements>
+    <a:clrScheme name="Bureau">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4472C4"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Bureau">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Bureau">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:AM23"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AMK25"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
       <pane xSplit="5" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="F1" activeCellId="0" sqref="F1"/>
-      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H23" activeCellId="0" sqref="H23"/>
+      <selection pane="topRight" activeCell="F1" sqref="F1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="H45" sqref="H45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="12.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="21"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="12.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="19"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="5" style="1" width="12.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="19.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="13" style="1" width="12.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="2" width="12.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="3" width="12.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="2" width="12.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="3" width="12.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="21" style="1" width="12.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="24" style="2" width="12.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="25" style="3" width="12.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="26" style="2" width="12.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="27" style="4" width="12.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="28" min="28" style="2" width="12.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="29" min="29" style="4" width="12.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="30" min="30" style="2" width="12.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="31" min="31" style="4" width="12.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="38" min="32" style="1" width="12.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="39" min="39" style="3" width="12.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="40" style="4" width="12.85"/>
+    <col min="1" max="1" width="12.83203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="21" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.83203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="19" style="1" customWidth="1"/>
+    <col min="5" max="11" width="12.83203125" style="1" customWidth="1"/>
+    <col min="12" max="12" width="19.5" style="1" customWidth="1"/>
+    <col min="13" max="16" width="12.83203125" style="1" customWidth="1"/>
+    <col min="17" max="17" width="12.83203125" style="2" customWidth="1"/>
+    <col min="18" max="18" width="12.83203125" style="3" customWidth="1"/>
+    <col min="19" max="19" width="12.83203125" style="2" customWidth="1"/>
+    <col min="20" max="20" width="12.83203125" style="3" customWidth="1"/>
+    <col min="21" max="23" width="12.83203125" style="1" customWidth="1"/>
+    <col min="24" max="24" width="12.83203125" style="2" customWidth="1"/>
+    <col min="25" max="25" width="12.83203125" style="3" customWidth="1"/>
+    <col min="26" max="26" width="12.83203125" style="2" customWidth="1"/>
+    <col min="27" max="27" width="12.83203125" style="4" customWidth="1"/>
+    <col min="28" max="28" width="12.83203125" style="2" customWidth="1"/>
+    <col min="29" max="29" width="12.83203125" style="4" customWidth="1"/>
+    <col min="30" max="30" width="12.83203125" style="2" customWidth="1"/>
+    <col min="31" max="31" width="12.83203125" style="4" customWidth="1"/>
+    <col min="32" max="38" width="12.83203125" style="1" customWidth="1"/>
+    <col min="39" max="39" width="12.83203125" style="3" customWidth="1"/>
+    <col min="40" max="1025" width="12.83203125" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:1025" ht="75" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -923,28 +1144,30 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:1025" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>39</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>40</v>
-      </c>
+        <v>192</v>
+      </c>
+      <c r="C2" s="1"/>
       <c r="D2" s="1" t="s">
         <v>41</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>42</v>
+        <v>193</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>43</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>44</v>
+        <v>195</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>45</v>
       </c>
+      <c r="I2" s="1"/>
       <c r="J2" s="1" t="s">
         <v>46</v>
       </c>
@@ -963,13 +1186,15 @@
       <c r="O2" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="P2" s="9" t="s">
+      <c r="P2" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="S2" s="2" t="n">
+      <c r="Q2" s="2"/>
+      <c r="R2" s="3"/>
+      <c r="S2" s="2">
         <v>150</v>
       </c>
-      <c r="T2" s="3" t="n">
+      <c r="T2" s="3">
         <v>42951</v>
       </c>
       <c r="U2" s="1" t="s">
@@ -981,28 +1206,28 @@
       <c r="W2" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="X2" s="2" t="n">
+      <c r="X2" s="2">
         <v>30.49</v>
       </c>
-      <c r="Y2" s="3" t="n">
+      <c r="Y2" s="3">
         <v>35993</v>
       </c>
-      <c r="Z2" s="2" t="n">
+      <c r="Z2" s="2">
         <v>6706.47</v>
       </c>
-      <c r="AA2" s="4" t="n">
+      <c r="AA2">
         <v>18</v>
       </c>
-      <c r="AB2" s="2" t="n">
+      <c r="AB2" s="2">
         <v>5150</v>
       </c>
-      <c r="AC2" s="4" t="n">
+      <c r="AC2">
         <v>3</v>
       </c>
-      <c r="AD2" s="2" t="n">
+      <c r="AD2" s="2">
         <v>300</v>
       </c>
-      <c r="AE2" s="4" t="n">
+      <c r="AE2">
         <v>2</v>
       </c>
       <c r="AF2" s="1" t="s">
@@ -1020,37 +1245,1028 @@
       <c r="AJ2" s="1" t="s">
         <v>60</v>
       </c>
+      <c r="AK2" s="1"/>
+      <c r="AL2" s="1"/>
+      <c r="AM2" s="3"/>
+      <c r="AN2"/>
+      <c r="AO2"/>
+      <c r="AP2"/>
+      <c r="AQ2"/>
+      <c r="AR2"/>
+      <c r="AS2"/>
+      <c r="AT2"/>
+      <c r="AU2"/>
+      <c r="AV2"/>
+      <c r="AW2"/>
+      <c r="AX2"/>
+      <c r="AY2"/>
+      <c r="AZ2"/>
+      <c r="BA2"/>
+      <c r="BB2"/>
+      <c r="BC2"/>
+      <c r="BD2"/>
+      <c r="BE2"/>
+      <c r="BF2"/>
+      <c r="BG2"/>
+      <c r="BH2"/>
+      <c r="BI2"/>
+      <c r="BJ2"/>
+      <c r="BK2"/>
+      <c r="BL2"/>
+      <c r="BM2"/>
+      <c r="BN2"/>
+      <c r="BO2"/>
+      <c r="BP2"/>
+      <c r="BQ2"/>
+      <c r="BR2"/>
+      <c r="BS2"/>
+      <c r="BT2"/>
+      <c r="BU2"/>
+      <c r="BV2"/>
+      <c r="BW2"/>
+      <c r="BX2"/>
+      <c r="BY2"/>
+      <c r="BZ2"/>
+      <c r="CA2"/>
+      <c r="CB2"/>
+      <c r="CC2"/>
+      <c r="CD2"/>
+      <c r="CE2"/>
+      <c r="CF2"/>
+      <c r="CG2"/>
+      <c r="CH2"/>
+      <c r="CI2"/>
+      <c r="CJ2"/>
+      <c r="CK2"/>
+      <c r="CL2"/>
+      <c r="CM2"/>
+      <c r="CN2"/>
+      <c r="CO2"/>
+      <c r="CP2"/>
+      <c r="CQ2"/>
+      <c r="CR2"/>
+      <c r="CS2"/>
+      <c r="CT2"/>
+      <c r="CU2"/>
+      <c r="CV2"/>
+      <c r="CW2"/>
+      <c r="CX2"/>
+      <c r="CY2"/>
+      <c r="CZ2"/>
+      <c r="DA2"/>
+      <c r="DB2"/>
+      <c r="DC2"/>
+      <c r="DD2"/>
+      <c r="DE2"/>
+      <c r="DF2"/>
+      <c r="DG2"/>
+      <c r="DH2"/>
+      <c r="DI2"/>
+      <c r="DJ2"/>
+      <c r="DK2"/>
+      <c r="DL2"/>
+      <c r="DM2"/>
+      <c r="DN2"/>
+      <c r="DO2"/>
+      <c r="DP2"/>
+      <c r="DQ2"/>
+      <c r="DR2"/>
+      <c r="DS2"/>
+      <c r="DT2"/>
+      <c r="DU2"/>
+      <c r="DV2"/>
+      <c r="DW2"/>
+      <c r="DX2"/>
+      <c r="DY2"/>
+      <c r="DZ2"/>
+      <c r="EA2"/>
+      <c r="EB2"/>
+      <c r="EC2"/>
+      <c r="ED2"/>
+      <c r="EE2"/>
+      <c r="EF2"/>
+      <c r="EG2"/>
+      <c r="EH2"/>
+      <c r="EI2"/>
+      <c r="EJ2"/>
+      <c r="EK2"/>
+      <c r="EL2"/>
+      <c r="EM2"/>
+      <c r="EN2"/>
+      <c r="EO2"/>
+      <c r="EP2"/>
+      <c r="EQ2"/>
+      <c r="ER2"/>
+      <c r="ES2"/>
+      <c r="ET2"/>
+      <c r="EU2"/>
+      <c r="EV2"/>
+      <c r="EW2"/>
+      <c r="EX2"/>
+      <c r="EY2"/>
+      <c r="EZ2"/>
+      <c r="FA2"/>
+      <c r="FB2"/>
+      <c r="FC2"/>
+      <c r="FD2"/>
+      <c r="FE2"/>
+      <c r="FF2"/>
+      <c r="FG2"/>
+      <c r="FH2"/>
+      <c r="FI2"/>
+      <c r="FJ2"/>
+      <c r="FK2"/>
+      <c r="FL2"/>
+      <c r="FM2"/>
+      <c r="FN2"/>
+      <c r="FO2"/>
+      <c r="FP2"/>
+      <c r="FQ2"/>
+      <c r="FR2"/>
+      <c r="FS2"/>
+      <c r="FT2"/>
+      <c r="FU2"/>
+      <c r="FV2"/>
+      <c r="FW2"/>
+      <c r="FX2"/>
+      <c r="FY2"/>
+      <c r="FZ2"/>
+      <c r="GA2"/>
+      <c r="GB2"/>
+      <c r="GC2"/>
+      <c r="GD2"/>
+      <c r="GE2"/>
+      <c r="GF2"/>
+      <c r="GG2"/>
+      <c r="GH2"/>
+      <c r="GI2"/>
+      <c r="GJ2"/>
+      <c r="GK2"/>
+      <c r="GL2"/>
+      <c r="GM2"/>
+      <c r="GN2"/>
+      <c r="GO2"/>
+      <c r="GP2"/>
+      <c r="GQ2"/>
+      <c r="GR2"/>
+      <c r="GS2"/>
+      <c r="GT2"/>
+      <c r="GU2"/>
+      <c r="GV2"/>
+      <c r="GW2"/>
+      <c r="GX2"/>
+      <c r="GY2"/>
+      <c r="GZ2"/>
+      <c r="HA2"/>
+      <c r="HB2"/>
+      <c r="HC2"/>
+      <c r="HD2"/>
+      <c r="HE2"/>
+      <c r="HF2"/>
+      <c r="HG2"/>
+      <c r="HH2"/>
+      <c r="HI2"/>
+      <c r="HJ2"/>
+      <c r="HK2"/>
+      <c r="HL2"/>
+      <c r="HM2"/>
+      <c r="HN2"/>
+      <c r="HO2"/>
+      <c r="HP2"/>
+      <c r="HQ2"/>
+      <c r="HR2"/>
+      <c r="HS2"/>
+      <c r="HT2"/>
+      <c r="HU2"/>
+      <c r="HV2"/>
+      <c r="HW2"/>
+      <c r="HX2"/>
+      <c r="HY2"/>
+      <c r="HZ2"/>
+      <c r="IA2"/>
+      <c r="IB2"/>
+      <c r="IC2"/>
+      <c r="ID2"/>
+      <c r="IE2"/>
+      <c r="IF2"/>
+      <c r="IG2"/>
+      <c r="IH2"/>
+      <c r="II2"/>
+      <c r="IJ2"/>
+      <c r="IK2"/>
+      <c r="IL2"/>
+      <c r="IM2"/>
+      <c r="IN2"/>
+      <c r="IO2"/>
+      <c r="IP2"/>
+      <c r="IQ2"/>
+      <c r="IR2"/>
+      <c r="IS2"/>
+      <c r="IT2"/>
+      <c r="IU2"/>
+      <c r="IV2"/>
+      <c r="IW2"/>
+      <c r="IX2"/>
+      <c r="IY2"/>
+      <c r="IZ2"/>
+      <c r="JA2"/>
+      <c r="JB2"/>
+      <c r="JC2"/>
+      <c r="JD2"/>
+      <c r="JE2"/>
+      <c r="JF2"/>
+      <c r="JG2"/>
+      <c r="JH2"/>
+      <c r="JI2"/>
+      <c r="JJ2"/>
+      <c r="JK2"/>
+      <c r="JL2"/>
+      <c r="JM2"/>
+      <c r="JN2"/>
+      <c r="JO2"/>
+      <c r="JP2"/>
+      <c r="JQ2"/>
+      <c r="JR2"/>
+      <c r="JS2"/>
+      <c r="JT2"/>
+      <c r="JU2"/>
+      <c r="JV2"/>
+      <c r="JW2"/>
+      <c r="JX2"/>
+      <c r="JY2"/>
+      <c r="JZ2"/>
+      <c r="KA2"/>
+      <c r="KB2"/>
+      <c r="KC2"/>
+      <c r="KD2"/>
+      <c r="KE2"/>
+      <c r="KF2"/>
+      <c r="KG2"/>
+      <c r="KH2"/>
+      <c r="KI2"/>
+      <c r="KJ2"/>
+      <c r="KK2"/>
+      <c r="KL2"/>
+      <c r="KM2"/>
+      <c r="KN2"/>
+      <c r="KO2"/>
+      <c r="KP2"/>
+      <c r="KQ2"/>
+      <c r="KR2"/>
+      <c r="KS2"/>
+      <c r="KT2"/>
+      <c r="KU2"/>
+      <c r="KV2"/>
+      <c r="KW2"/>
+      <c r="KX2"/>
+      <c r="KY2"/>
+      <c r="KZ2"/>
+      <c r="LA2"/>
+      <c r="LB2"/>
+      <c r="LC2"/>
+      <c r="LD2"/>
+      <c r="LE2"/>
+      <c r="LF2"/>
+      <c r="LG2"/>
+      <c r="LH2"/>
+      <c r="LI2"/>
+      <c r="LJ2"/>
+      <c r="LK2"/>
+      <c r="LL2"/>
+      <c r="LM2"/>
+      <c r="LN2"/>
+      <c r="LO2"/>
+      <c r="LP2"/>
+      <c r="LQ2"/>
+      <c r="LR2"/>
+      <c r="LS2"/>
+      <c r="LT2"/>
+      <c r="LU2"/>
+      <c r="LV2"/>
+      <c r="LW2"/>
+      <c r="LX2"/>
+      <c r="LY2"/>
+      <c r="LZ2"/>
+      <c r="MA2"/>
+      <c r="MB2"/>
+      <c r="MC2"/>
+      <c r="MD2"/>
+      <c r="ME2"/>
+      <c r="MF2"/>
+      <c r="MG2"/>
+      <c r="MH2"/>
+      <c r="MI2"/>
+      <c r="MJ2"/>
+      <c r="MK2"/>
+      <c r="ML2"/>
+      <c r="MM2"/>
+      <c r="MN2"/>
+      <c r="MO2"/>
+      <c r="MP2"/>
+      <c r="MQ2"/>
+      <c r="MR2"/>
+      <c r="MS2"/>
+      <c r="MT2"/>
+      <c r="MU2"/>
+      <c r="MV2"/>
+      <c r="MW2"/>
+      <c r="MX2"/>
+      <c r="MY2"/>
+      <c r="MZ2"/>
+      <c r="NA2"/>
+      <c r="NB2"/>
+      <c r="NC2"/>
+      <c r="ND2"/>
+      <c r="NE2"/>
+      <c r="NF2"/>
+      <c r="NG2"/>
+      <c r="NH2"/>
+      <c r="NI2"/>
+      <c r="NJ2"/>
+      <c r="NK2"/>
+      <c r="NL2"/>
+      <c r="NM2"/>
+      <c r="NN2"/>
+      <c r="NO2"/>
+      <c r="NP2"/>
+      <c r="NQ2"/>
+      <c r="NR2"/>
+      <c r="NS2"/>
+      <c r="NT2"/>
+      <c r="NU2"/>
+      <c r="NV2"/>
+      <c r="NW2"/>
+      <c r="NX2"/>
+      <c r="NY2"/>
+      <c r="NZ2"/>
+      <c r="OA2"/>
+      <c r="OB2"/>
+      <c r="OC2"/>
+      <c r="OD2"/>
+      <c r="OE2"/>
+      <c r="OF2"/>
+      <c r="OG2"/>
+      <c r="OH2"/>
+      <c r="OI2"/>
+      <c r="OJ2"/>
+      <c r="OK2"/>
+      <c r="OL2"/>
+      <c r="OM2"/>
+      <c r="ON2"/>
+      <c r="OO2"/>
+      <c r="OP2"/>
+      <c r="OQ2"/>
+      <c r="OR2"/>
+      <c r="OS2"/>
+      <c r="OT2"/>
+      <c r="OU2"/>
+      <c r="OV2"/>
+      <c r="OW2"/>
+      <c r="OX2"/>
+      <c r="OY2"/>
+      <c r="OZ2"/>
+      <c r="PA2"/>
+      <c r="PB2"/>
+      <c r="PC2"/>
+      <c r="PD2"/>
+      <c r="PE2"/>
+      <c r="PF2"/>
+      <c r="PG2"/>
+      <c r="PH2"/>
+      <c r="PI2"/>
+      <c r="PJ2"/>
+      <c r="PK2"/>
+      <c r="PL2"/>
+      <c r="PM2"/>
+      <c r="PN2"/>
+      <c r="PO2"/>
+      <c r="PP2"/>
+      <c r="PQ2"/>
+      <c r="PR2"/>
+      <c r="PS2"/>
+      <c r="PT2"/>
+      <c r="PU2"/>
+      <c r="PV2"/>
+      <c r="PW2"/>
+      <c r="PX2"/>
+      <c r="PY2"/>
+      <c r="PZ2"/>
+      <c r="QA2"/>
+      <c r="QB2"/>
+      <c r="QC2"/>
+      <c r="QD2"/>
+      <c r="QE2"/>
+      <c r="QF2"/>
+      <c r="QG2"/>
+      <c r="QH2"/>
+      <c r="QI2"/>
+      <c r="QJ2"/>
+      <c r="QK2"/>
+      <c r="QL2"/>
+      <c r="QM2"/>
+      <c r="QN2"/>
+      <c r="QO2"/>
+      <c r="QP2"/>
+      <c r="QQ2"/>
+      <c r="QR2"/>
+      <c r="QS2"/>
+      <c r="QT2"/>
+      <c r="QU2"/>
+      <c r="QV2"/>
+      <c r="QW2"/>
+      <c r="QX2"/>
+      <c r="QY2"/>
+      <c r="QZ2"/>
+      <c r="RA2"/>
+      <c r="RB2"/>
+      <c r="RC2"/>
+      <c r="RD2"/>
+      <c r="RE2"/>
+      <c r="RF2"/>
+      <c r="RG2"/>
+      <c r="RH2"/>
+      <c r="RI2"/>
+      <c r="RJ2"/>
+      <c r="RK2"/>
+      <c r="RL2"/>
+      <c r="RM2"/>
+      <c r="RN2"/>
+      <c r="RO2"/>
+      <c r="RP2"/>
+      <c r="RQ2"/>
+      <c r="RR2"/>
+      <c r="RS2"/>
+      <c r="RT2"/>
+      <c r="RU2"/>
+      <c r="RV2"/>
+      <c r="RW2"/>
+      <c r="RX2"/>
+      <c r="RY2"/>
+      <c r="RZ2"/>
+      <c r="SA2"/>
+      <c r="SB2"/>
+      <c r="SC2"/>
+      <c r="SD2"/>
+      <c r="SE2"/>
+      <c r="SF2"/>
+      <c r="SG2"/>
+      <c r="SH2"/>
+      <c r="SI2"/>
+      <c r="SJ2"/>
+      <c r="SK2"/>
+      <c r="SL2"/>
+      <c r="SM2"/>
+      <c r="SN2"/>
+      <c r="SO2"/>
+      <c r="SP2"/>
+      <c r="SQ2"/>
+      <c r="SR2"/>
+      <c r="SS2"/>
+      <c r="ST2"/>
+      <c r="SU2"/>
+      <c r="SV2"/>
+      <c r="SW2"/>
+      <c r="SX2"/>
+      <c r="SY2"/>
+      <c r="SZ2"/>
+      <c r="TA2"/>
+      <c r="TB2"/>
+      <c r="TC2"/>
+      <c r="TD2"/>
+      <c r="TE2"/>
+      <c r="TF2"/>
+      <c r="TG2"/>
+      <c r="TH2"/>
+      <c r="TI2"/>
+      <c r="TJ2"/>
+      <c r="TK2"/>
+      <c r="TL2"/>
+      <c r="TM2"/>
+      <c r="TN2"/>
+      <c r="TO2"/>
+      <c r="TP2"/>
+      <c r="TQ2"/>
+      <c r="TR2"/>
+      <c r="TS2"/>
+      <c r="TT2"/>
+      <c r="TU2"/>
+      <c r="TV2"/>
+      <c r="TW2"/>
+      <c r="TX2"/>
+      <c r="TY2"/>
+      <c r="TZ2"/>
+      <c r="UA2"/>
+      <c r="UB2"/>
+      <c r="UC2"/>
+      <c r="UD2"/>
+      <c r="UE2"/>
+      <c r="UF2"/>
+      <c r="UG2"/>
+      <c r="UH2"/>
+      <c r="UI2"/>
+      <c r="UJ2"/>
+      <c r="UK2"/>
+      <c r="UL2"/>
+      <c r="UM2"/>
+      <c r="UN2"/>
+      <c r="UO2"/>
+      <c r="UP2"/>
+      <c r="UQ2"/>
+      <c r="UR2"/>
+      <c r="US2"/>
+      <c r="UT2"/>
+      <c r="UU2"/>
+      <c r="UV2"/>
+      <c r="UW2"/>
+      <c r="UX2"/>
+      <c r="UY2"/>
+      <c r="UZ2"/>
+      <c r="VA2"/>
+      <c r="VB2"/>
+      <c r="VC2"/>
+      <c r="VD2"/>
+      <c r="VE2"/>
+      <c r="VF2"/>
+      <c r="VG2"/>
+      <c r="VH2"/>
+      <c r="VI2"/>
+      <c r="VJ2"/>
+      <c r="VK2"/>
+      <c r="VL2"/>
+      <c r="VM2"/>
+      <c r="VN2"/>
+      <c r="VO2"/>
+      <c r="VP2"/>
+      <c r="VQ2"/>
+      <c r="VR2"/>
+      <c r="VS2"/>
+      <c r="VT2"/>
+      <c r="VU2"/>
+      <c r="VV2"/>
+      <c r="VW2"/>
+      <c r="VX2"/>
+      <c r="VY2"/>
+      <c r="VZ2"/>
+      <c r="WA2"/>
+      <c r="WB2"/>
+      <c r="WC2"/>
+      <c r="WD2"/>
+      <c r="WE2"/>
+      <c r="WF2"/>
+      <c r="WG2"/>
+      <c r="WH2"/>
+      <c r="WI2"/>
+      <c r="WJ2"/>
+      <c r="WK2"/>
+      <c r="WL2"/>
+      <c r="WM2"/>
+      <c r="WN2"/>
+      <c r="WO2"/>
+      <c r="WP2"/>
+      <c r="WQ2"/>
+      <c r="WR2"/>
+      <c r="WS2"/>
+      <c r="WT2"/>
+      <c r="WU2"/>
+      <c r="WV2"/>
+      <c r="WW2"/>
+      <c r="WX2"/>
+      <c r="WY2"/>
+      <c r="WZ2"/>
+      <c r="XA2"/>
+      <c r="XB2"/>
+      <c r="XC2"/>
+      <c r="XD2"/>
+      <c r="XE2"/>
+      <c r="XF2"/>
+      <c r="XG2"/>
+      <c r="XH2"/>
+      <c r="XI2"/>
+      <c r="XJ2"/>
+      <c r="XK2"/>
+      <c r="XL2"/>
+      <c r="XM2"/>
+      <c r="XN2"/>
+      <c r="XO2"/>
+      <c r="XP2"/>
+      <c r="XQ2"/>
+      <c r="XR2"/>
+      <c r="XS2"/>
+      <c r="XT2"/>
+      <c r="XU2"/>
+      <c r="XV2"/>
+      <c r="XW2"/>
+      <c r="XX2"/>
+      <c r="XY2"/>
+      <c r="XZ2"/>
+      <c r="YA2"/>
+      <c r="YB2"/>
+      <c r="YC2"/>
+      <c r="YD2"/>
+      <c r="YE2"/>
+      <c r="YF2"/>
+      <c r="YG2"/>
+      <c r="YH2"/>
+      <c r="YI2"/>
+      <c r="YJ2"/>
+      <c r="YK2"/>
+      <c r="YL2"/>
+      <c r="YM2"/>
+      <c r="YN2"/>
+      <c r="YO2"/>
+      <c r="YP2"/>
+      <c r="YQ2"/>
+      <c r="YR2"/>
+      <c r="YS2"/>
+      <c r="YT2"/>
+      <c r="YU2"/>
+      <c r="YV2"/>
+      <c r="YW2"/>
+      <c r="YX2"/>
+      <c r="YY2"/>
+      <c r="YZ2"/>
+      <c r="ZA2"/>
+      <c r="ZB2"/>
+      <c r="ZC2"/>
+      <c r="ZD2"/>
+      <c r="ZE2"/>
+      <c r="ZF2"/>
+      <c r="ZG2"/>
+      <c r="ZH2"/>
+      <c r="ZI2"/>
+      <c r="ZJ2"/>
+      <c r="ZK2"/>
+      <c r="ZL2"/>
+      <c r="ZM2"/>
+      <c r="ZN2"/>
+      <c r="ZO2"/>
+      <c r="ZP2"/>
+      <c r="ZQ2"/>
+      <c r="ZR2"/>
+      <c r="ZS2"/>
+      <c r="ZT2"/>
+      <c r="ZU2"/>
+      <c r="ZV2"/>
+      <c r="ZW2"/>
+      <c r="ZX2"/>
+      <c r="ZY2"/>
+      <c r="ZZ2"/>
+      <c r="AAA2"/>
+      <c r="AAB2"/>
+      <c r="AAC2"/>
+      <c r="AAD2"/>
+      <c r="AAE2"/>
+      <c r="AAF2"/>
+      <c r="AAG2"/>
+      <c r="AAH2"/>
+      <c r="AAI2"/>
+      <c r="AAJ2"/>
+      <c r="AAK2"/>
+      <c r="AAL2"/>
+      <c r="AAM2"/>
+      <c r="AAN2"/>
+      <c r="AAO2"/>
+      <c r="AAP2"/>
+      <c r="AAQ2"/>
+      <c r="AAR2"/>
+      <c r="AAS2"/>
+      <c r="AAT2"/>
+      <c r="AAU2"/>
+      <c r="AAV2"/>
+      <c r="AAW2"/>
+      <c r="AAX2"/>
+      <c r="AAY2"/>
+      <c r="AAZ2"/>
+      <c r="ABA2"/>
+      <c r="ABB2"/>
+      <c r="ABC2"/>
+      <c r="ABD2"/>
+      <c r="ABE2"/>
+      <c r="ABF2"/>
+      <c r="ABG2"/>
+      <c r="ABH2"/>
+      <c r="ABI2"/>
+      <c r="ABJ2"/>
+      <c r="ABK2"/>
+      <c r="ABL2"/>
+      <c r="ABM2"/>
+      <c r="ABN2"/>
+      <c r="ABO2"/>
+      <c r="ABP2"/>
+      <c r="ABQ2"/>
+      <c r="ABR2"/>
+      <c r="ABS2"/>
+      <c r="ABT2"/>
+      <c r="ABU2"/>
+      <c r="ABV2"/>
+      <c r="ABW2"/>
+      <c r="ABX2"/>
+      <c r="ABY2"/>
+      <c r="ABZ2"/>
+      <c r="ACA2"/>
+      <c r="ACB2"/>
+      <c r="ACC2"/>
+      <c r="ACD2"/>
+      <c r="ACE2"/>
+      <c r="ACF2"/>
+      <c r="ACG2"/>
+      <c r="ACH2"/>
+      <c r="ACI2"/>
+      <c r="ACJ2"/>
+      <c r="ACK2"/>
+      <c r="ACL2"/>
+      <c r="ACM2"/>
+      <c r="ACN2"/>
+      <c r="ACO2"/>
+      <c r="ACP2"/>
+      <c r="ACQ2"/>
+      <c r="ACR2"/>
+      <c r="ACS2"/>
+      <c r="ACT2"/>
+      <c r="ACU2"/>
+      <c r="ACV2"/>
+      <c r="ACW2"/>
+      <c r="ACX2"/>
+      <c r="ACY2"/>
+      <c r="ACZ2"/>
+      <c r="ADA2"/>
+      <c r="ADB2"/>
+      <c r="ADC2"/>
+      <c r="ADD2"/>
+      <c r="ADE2"/>
+      <c r="ADF2"/>
+      <c r="ADG2"/>
+      <c r="ADH2"/>
+      <c r="ADI2"/>
+      <c r="ADJ2"/>
+      <c r="ADK2"/>
+      <c r="ADL2"/>
+      <c r="ADM2"/>
+      <c r="ADN2"/>
+      <c r="ADO2"/>
+      <c r="ADP2"/>
+      <c r="ADQ2"/>
+      <c r="ADR2"/>
+      <c r="ADS2"/>
+      <c r="ADT2"/>
+      <c r="ADU2"/>
+      <c r="ADV2"/>
+      <c r="ADW2"/>
+      <c r="ADX2"/>
+      <c r="ADY2"/>
+      <c r="ADZ2"/>
+      <c r="AEA2"/>
+      <c r="AEB2"/>
+      <c r="AEC2"/>
+      <c r="AED2"/>
+      <c r="AEE2"/>
+      <c r="AEF2"/>
+      <c r="AEG2"/>
+      <c r="AEH2"/>
+      <c r="AEI2"/>
+      <c r="AEJ2"/>
+      <c r="AEK2"/>
+      <c r="AEL2"/>
+      <c r="AEM2"/>
+      <c r="AEN2"/>
+      <c r="AEO2"/>
+      <c r="AEP2"/>
+      <c r="AEQ2"/>
+      <c r="AER2"/>
+      <c r="AES2"/>
+      <c r="AET2"/>
+      <c r="AEU2"/>
+      <c r="AEV2"/>
+      <c r="AEW2"/>
+      <c r="AEX2"/>
+      <c r="AEY2"/>
+      <c r="AEZ2"/>
+      <c r="AFA2"/>
+      <c r="AFB2"/>
+      <c r="AFC2"/>
+      <c r="AFD2"/>
+      <c r="AFE2"/>
+      <c r="AFF2"/>
+      <c r="AFG2"/>
+      <c r="AFH2"/>
+      <c r="AFI2"/>
+      <c r="AFJ2"/>
+      <c r="AFK2"/>
+      <c r="AFL2"/>
+      <c r="AFM2"/>
+      <c r="AFN2"/>
+      <c r="AFO2"/>
+      <c r="AFP2"/>
+      <c r="AFQ2"/>
+      <c r="AFR2"/>
+      <c r="AFS2"/>
+      <c r="AFT2"/>
+      <c r="AFU2"/>
+      <c r="AFV2"/>
+      <c r="AFW2"/>
+      <c r="AFX2"/>
+      <c r="AFY2"/>
+      <c r="AFZ2"/>
+      <c r="AGA2"/>
+      <c r="AGB2"/>
+      <c r="AGC2"/>
+      <c r="AGD2"/>
+      <c r="AGE2"/>
+      <c r="AGF2"/>
+      <c r="AGG2"/>
+      <c r="AGH2"/>
+      <c r="AGI2"/>
+      <c r="AGJ2"/>
+      <c r="AGK2"/>
+      <c r="AGL2"/>
+      <c r="AGM2"/>
+      <c r="AGN2"/>
+      <c r="AGO2"/>
+      <c r="AGP2"/>
+      <c r="AGQ2"/>
+      <c r="AGR2"/>
+      <c r="AGS2"/>
+      <c r="AGT2"/>
+      <c r="AGU2"/>
+      <c r="AGV2"/>
+      <c r="AGW2"/>
+      <c r="AGX2"/>
+      <c r="AGY2"/>
+      <c r="AGZ2"/>
+      <c r="AHA2"/>
+      <c r="AHB2"/>
+      <c r="AHC2"/>
+      <c r="AHD2"/>
+      <c r="AHE2"/>
+      <c r="AHF2"/>
+      <c r="AHG2"/>
+      <c r="AHH2"/>
+      <c r="AHI2"/>
+      <c r="AHJ2"/>
+      <c r="AHK2"/>
+      <c r="AHL2"/>
+      <c r="AHM2"/>
+      <c r="AHN2"/>
+      <c r="AHO2"/>
+      <c r="AHP2"/>
+      <c r="AHQ2"/>
+      <c r="AHR2"/>
+      <c r="AHS2"/>
+      <c r="AHT2"/>
+      <c r="AHU2"/>
+      <c r="AHV2"/>
+      <c r="AHW2"/>
+      <c r="AHX2"/>
+      <c r="AHY2"/>
+      <c r="AHZ2"/>
+      <c r="AIA2"/>
+      <c r="AIB2"/>
+      <c r="AIC2"/>
+      <c r="AID2"/>
+      <c r="AIE2"/>
+      <c r="AIF2"/>
+      <c r="AIG2"/>
+      <c r="AIH2"/>
+      <c r="AII2"/>
+      <c r="AIJ2"/>
+      <c r="AIK2"/>
+      <c r="AIL2"/>
+      <c r="AIM2"/>
+      <c r="AIN2"/>
+      <c r="AIO2"/>
+      <c r="AIP2"/>
+      <c r="AIQ2"/>
+      <c r="AIR2"/>
+      <c r="AIS2"/>
+      <c r="AIT2"/>
+      <c r="AIU2"/>
+      <c r="AIV2"/>
+      <c r="AIW2"/>
+      <c r="AIX2"/>
+      <c r="AIY2"/>
+      <c r="AIZ2"/>
+      <c r="AJA2"/>
+      <c r="AJB2"/>
+      <c r="AJC2"/>
+      <c r="AJD2"/>
+      <c r="AJE2"/>
+      <c r="AJF2"/>
+      <c r="AJG2"/>
+      <c r="AJH2"/>
+      <c r="AJI2"/>
+      <c r="AJJ2"/>
+      <c r="AJK2"/>
+      <c r="AJL2"/>
+      <c r="AJM2"/>
+      <c r="AJN2"/>
+      <c r="AJO2"/>
+      <c r="AJP2"/>
+      <c r="AJQ2"/>
+      <c r="AJR2"/>
+      <c r="AJS2"/>
+      <c r="AJT2"/>
+      <c r="AJU2"/>
+      <c r="AJV2"/>
+      <c r="AJW2"/>
+      <c r="AJX2"/>
+      <c r="AJY2"/>
+      <c r="AJZ2"/>
+      <c r="AKA2"/>
+      <c r="AKB2"/>
+      <c r="AKC2"/>
+      <c r="AKD2"/>
+      <c r="AKE2"/>
+      <c r="AKF2"/>
+      <c r="AKG2"/>
+      <c r="AKH2"/>
+      <c r="AKI2"/>
+      <c r="AKJ2"/>
+      <c r="AKK2"/>
+      <c r="AKL2"/>
+      <c r="AKM2"/>
+      <c r="AKN2"/>
+      <c r="AKO2"/>
+      <c r="AKP2"/>
+      <c r="AKQ2"/>
+      <c r="AKR2"/>
+      <c r="AKS2"/>
+      <c r="AKT2"/>
+      <c r="AKU2"/>
+      <c r="AKV2"/>
+      <c r="AKW2"/>
+      <c r="AKX2"/>
+      <c r="AKY2"/>
+      <c r="AKZ2"/>
+      <c r="ALA2"/>
+      <c r="ALB2"/>
+      <c r="ALC2"/>
+      <c r="ALD2"/>
+      <c r="ALE2"/>
+      <c r="ALF2"/>
+      <c r="ALG2"/>
+      <c r="ALH2"/>
+      <c r="ALI2"/>
+      <c r="ALJ2"/>
+      <c r="ALK2"/>
+      <c r="ALL2"/>
+      <c r="ALM2"/>
+      <c r="ALN2"/>
+      <c r="ALO2"/>
+      <c r="ALP2"/>
+      <c r="ALQ2"/>
+      <c r="ALR2"/>
+      <c r="ALS2"/>
+      <c r="ALT2"/>
+      <c r="ALU2"/>
+      <c r="ALV2"/>
+      <c r="ALW2"/>
+      <c r="ALX2"/>
+      <c r="ALY2"/>
+      <c r="ALZ2"/>
+      <c r="AMA2"/>
+      <c r="AMB2"/>
+      <c r="AMC2"/>
+      <c r="AMD2"/>
+      <c r="AME2"/>
+      <c r="AMF2"/>
+      <c r="AMG2"/>
+      <c r="AMH2"/>
+      <c r="AMI2"/>
+      <c r="AMJ2"/>
+      <c r="AMK2"/>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:1025" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>39</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>40</v>
-      </c>
+        <v>192</v>
+      </c>
+      <c r="C3" s="1"/>
       <c r="D3" s="1" t="s">
         <v>41</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>61</v>
+        <v>193</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>43</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>62</v>
+        <v>194</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>63</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="I3" s="1"/>
       <c r="J3" s="1" t="s">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>65</v>
+        <v>47</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>66</v>
+        <v>48</v>
       </c>
       <c r="M3" s="1" t="s">
         <v>49</v>
@@ -1058,168 +2274,191 @@
       <c r="N3" s="1" t="s">
         <v>50</v>
       </c>
+      <c r="O3" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="P3" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="S3" s="2" t="n">
-        <v>1500</v>
-      </c>
-      <c r="T3" s="3" t="n">
-        <v>42781</v>
+      <c r="Q3" s="2"/>
+      <c r="R3" s="3"/>
+      <c r="S3" s="2">
+        <v>150</v>
+      </c>
+      <c r="T3" s="3">
+        <v>42951</v>
       </c>
       <c r="U3" s="1" t="s">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="V3" s="1" t="s">
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="W3" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="X3" s="2" t="n">
-        <v>60</v>
-      </c>
-      <c r="Y3" s="3" t="n">
-        <v>38345</v>
-      </c>
-      <c r="Z3" s="2" t="n">
-        <v>3510</v>
-      </c>
-      <c r="AA3" s="4" t="n">
-        <v>5</v>
-      </c>
-      <c r="AB3" s="2" t="n">
-        <v>2500</v>
-      </c>
-      <c r="AC3" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="AD3" s="2" t="n">
-        <v>1375</v>
-      </c>
-      <c r="AE3" s="4" t="n">
-        <v>2</v>
+        <v>55</v>
+      </c>
+      <c r="X3" s="2">
+        <v>30.49</v>
+      </c>
+      <c r="Y3" s="3">
+        <v>35993</v>
+      </c>
+      <c r="Z3" s="2">
+        <v>6706.47</v>
+      </c>
+      <c r="AA3" s="4">
+        <v>18</v>
+      </c>
+      <c r="AB3" s="2">
+        <v>5150</v>
+      </c>
+      <c r="AC3" s="4">
+        <v>3</v>
+      </c>
+      <c r="AD3" s="2">
+        <v>300</v>
+      </c>
+      <c r="AE3" s="4">
+        <v>2</v>
+      </c>
+      <c r="AF3" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG3" s="1" t="s">
+        <v>57</v>
       </c>
       <c r="AH3" s="1" t="s">
         <v>58</v>
       </c>
       <c r="AI3" s="1" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="AJ3" s="1" t="s">
         <v>60</v>
       </c>
+      <c r="AK3" s="1"/>
+      <c r="AL3" s="1"/>
+      <c r="AM3" s="3"/>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:1025" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>39</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>71</v>
+        <v>40</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>41</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>73</v>
+        <v>43</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>74</v>
+        <v>44</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>75</v>
+        <v>45</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>65</v>
+        <v>47</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>76</v>
+        <v>48</v>
       </c>
       <c r="M4" s="1" t="s">
         <v>49</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>77</v>
+        <v>50</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="P4" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="S4" s="2" t="n">
-        <v>1501</v>
-      </c>
-      <c r="T4" s="3" t="n">
-        <v>42782</v>
+      <c r="S4" s="2">
+        <v>150</v>
+      </c>
+      <c r="T4" s="3">
+        <v>42951</v>
       </c>
       <c r="U4" s="1" t="s">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="V4" s="1" t="s">
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="W4" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="X4" s="2" t="n">
-        <v>61</v>
-      </c>
-      <c r="Y4" s="3" t="n">
-        <v>38346</v>
-      </c>
-      <c r="Z4" s="2" t="n">
-        <v>3510</v>
-      </c>
-      <c r="AA4" s="4" t="n">
-        <v>5</v>
-      </c>
-      <c r="AB4" s="2" t="n">
-        <v>2500</v>
-      </c>
-      <c r="AC4" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="AD4" s="2" t="n">
-        <v>1375</v>
-      </c>
-      <c r="AE4" s="4" t="n">
-        <v>2</v>
+        <v>55</v>
+      </c>
+      <c r="X4" s="2">
+        <v>30.49</v>
+      </c>
+      <c r="Y4" s="3">
+        <v>35993</v>
+      </c>
+      <c r="Z4" s="2">
+        <v>6706.47</v>
+      </c>
+      <c r="AA4" s="4">
+        <v>18</v>
+      </c>
+      <c r="AB4" s="2">
+        <v>5150</v>
+      </c>
+      <c r="AC4" s="4">
+        <v>3</v>
+      </c>
+      <c r="AD4" s="2">
+        <v>300</v>
+      </c>
+      <c r="AE4" s="4">
+        <v>2</v>
+      </c>
+      <c r="AF4" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG4" s="1" t="s">
+        <v>57</v>
       </c>
       <c r="AH4" s="1" t="s">
         <v>58</v>
       </c>
       <c r="AI4" s="1" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="AJ4" s="1" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:1025" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>39</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>78</v>
+        <v>40</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>41</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>79</v>
+        <v>61</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>73</v>
+        <v>43</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>80</v>
+        <v>62</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>81</v>
+        <v>63</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>64</v>
@@ -1228,22 +2467,22 @@
         <v>65</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>82</v>
+        <v>66</v>
       </c>
       <c r="M5" s="1" t="s">
         <v>49</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>83</v>
+        <v>50</v>
       </c>
       <c r="P5" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="S5" s="2" t="n">
-        <v>1502</v>
-      </c>
-      <c r="T5" s="3" t="n">
-        <v>42783</v>
+      <c r="S5" s="2">
+        <v>1500</v>
+      </c>
+      <c r="T5" s="3">
+        <v>42781</v>
       </c>
       <c r="U5" s="1" t="s">
         <v>67</v>
@@ -1254,28 +2493,28 @@
       <c r="W5" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="X5" s="2" t="n">
-        <v>62</v>
-      </c>
-      <c r="Y5" s="3" t="n">
-        <v>38347</v>
-      </c>
-      <c r="Z5" s="2" t="n">
+      <c r="X5" s="2">
+        <v>60</v>
+      </c>
+      <c r="Y5" s="3">
+        <v>38345</v>
+      </c>
+      <c r="Z5" s="2">
         <v>3510</v>
       </c>
-      <c r="AA5" s="4" t="n">
+      <c r="AA5" s="4">
         <v>5</v>
       </c>
-      <c r="AB5" s="2" t="n">
+      <c r="AB5" s="2">
         <v>2500</v>
       </c>
-      <c r="AC5" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="AD5" s="2" t="n">
+      <c r="AC5" s="4">
+        <v>2</v>
+      </c>
+      <c r="AD5" s="2">
         <v>1375</v>
       </c>
-      <c r="AE5" s="4" t="n">
+      <c r="AE5" s="4">
         <v>2</v>
       </c>
       <c r="AH5" s="1" t="s">
@@ -1288,27 +2527,27 @@
         <v>60</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:1025" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>39</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>41</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>43</v>
+        <v>73</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>64</v>
@@ -1317,22 +2556,22 @@
         <v>65</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="M6" s="1" t="s">
         <v>49</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="P6" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="S6" s="2" t="n">
-        <v>1503</v>
-      </c>
-      <c r="T6" s="3" t="n">
-        <v>42784</v>
+      <c r="S6" s="2">
+        <v>1501</v>
+      </c>
+      <c r="T6" s="3">
+        <v>42782</v>
       </c>
       <c r="U6" s="1" t="s">
         <v>67</v>
@@ -1343,28 +2582,28 @@
       <c r="W6" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="X6" s="2" t="n">
-        <v>63</v>
-      </c>
-      <c r="Y6" s="3" t="n">
-        <v>38348</v>
-      </c>
-      <c r="Z6" s="2" t="n">
+      <c r="X6" s="2">
+        <v>61</v>
+      </c>
+      <c r="Y6" s="3">
+        <v>38346</v>
+      </c>
+      <c r="Z6" s="2">
         <v>3510</v>
       </c>
-      <c r="AA6" s="4" t="n">
+      <c r="AA6" s="4">
         <v>5</v>
       </c>
-      <c r="AB6" s="2" t="n">
+      <c r="AB6" s="2">
         <v>2500</v>
       </c>
-      <c r="AC6" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="AD6" s="2" t="n">
+      <c r="AC6" s="4">
+        <v>2</v>
+      </c>
+      <c r="AD6" s="2">
         <v>1375</v>
       </c>
-      <c r="AE6" s="4" t="n">
+      <c r="AE6" s="4">
         <v>2</v>
       </c>
       <c r="AH6" s="1" t="s">
@@ -1377,27 +2616,27 @@
         <v>60</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:1025" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>39</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>41</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>73</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>64</v>
@@ -1406,22 +2645,22 @@
         <v>65</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="M7" s="1" t="s">
         <v>49</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="P7" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="S7" s="2" t="n">
-        <v>1504</v>
-      </c>
-      <c r="T7" s="3" t="n">
-        <v>42785</v>
+      <c r="S7" s="2">
+        <v>1502</v>
+      </c>
+      <c r="T7" s="3">
+        <v>42783</v>
       </c>
       <c r="U7" s="1" t="s">
         <v>67</v>
@@ -1432,28 +2671,28 @@
       <c r="W7" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="X7" s="2" t="n">
-        <v>64</v>
-      </c>
-      <c r="Y7" s="3" t="n">
-        <v>38349</v>
-      </c>
-      <c r="Z7" s="2" t="n">
+      <c r="X7" s="2">
+        <v>62</v>
+      </c>
+      <c r="Y7" s="3">
+        <v>38347</v>
+      </c>
+      <c r="Z7" s="2">
         <v>3510</v>
       </c>
-      <c r="AA7" s="4" t="n">
+      <c r="AA7" s="4">
         <v>5</v>
       </c>
-      <c r="AB7" s="2" t="n">
+      <c r="AB7" s="2">
         <v>2500</v>
       </c>
-      <c r="AC7" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="AD7" s="2" t="n">
+      <c r="AC7" s="4">
+        <v>2</v>
+      </c>
+      <c r="AD7" s="2">
         <v>1375</v>
       </c>
-      <c r="AE7" s="4" t="n">
+      <c r="AE7" s="4">
         <v>2</v>
       </c>
       <c r="AH7" s="1" t="s">
@@ -1466,27 +2705,27 @@
         <v>60</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:1025" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>39</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>41</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>43</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>64</v>
@@ -1495,22 +2734,22 @@
         <v>65</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="M8" s="1" t="s">
         <v>49</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="P8" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="S8" s="2" t="n">
-        <v>1505</v>
-      </c>
-      <c r="T8" s="3" t="n">
-        <v>42786</v>
+      <c r="S8" s="2">
+        <v>1503</v>
+      </c>
+      <c r="T8" s="3">
+        <v>42784</v>
       </c>
       <c r="U8" s="1" t="s">
         <v>67</v>
@@ -1521,28 +2760,28 @@
       <c r="W8" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="X8" s="2" t="n">
-        <v>65</v>
-      </c>
-      <c r="Y8" s="3" t="n">
-        <v>38350</v>
-      </c>
-      <c r="Z8" s="2" t="n">
+      <c r="X8" s="2">
+        <v>63</v>
+      </c>
+      <c r="Y8" s="3">
+        <v>38348</v>
+      </c>
+      <c r="Z8" s="2">
         <v>3510</v>
       </c>
-      <c r="AA8" s="4" t="n">
+      <c r="AA8" s="4">
         <v>5</v>
       </c>
-      <c r="AB8" s="2" t="n">
+      <c r="AB8" s="2">
         <v>2500</v>
       </c>
-      <c r="AC8" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="AD8" s="2" t="n">
+      <c r="AC8" s="4">
+        <v>2</v>
+      </c>
+      <c r="AD8" s="2">
         <v>1375</v>
       </c>
-      <c r="AE8" s="4" t="n">
+      <c r="AE8" s="4">
         <v>2</v>
       </c>
       <c r="AH8" s="1" t="s">
@@ -1555,27 +2794,27 @@
         <v>60</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:1025" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>39</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>41</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>43</v>
+        <v>73</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>64</v>
@@ -1584,22 +2823,22 @@
         <v>65</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="M9" s="1" t="s">
         <v>49</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="P9" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="S9" s="2" t="n">
-        <v>1506</v>
-      </c>
-      <c r="T9" s="3" t="n">
-        <v>42787</v>
+      <c r="S9" s="2">
+        <v>1504</v>
+      </c>
+      <c r="T9" s="3">
+        <v>42785</v>
       </c>
       <c r="U9" s="1" t="s">
         <v>67</v>
@@ -1610,28 +2849,28 @@
       <c r="W9" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="X9" s="2" t="n">
-        <v>66</v>
-      </c>
-      <c r="Y9" s="3" t="n">
-        <v>38351</v>
-      </c>
-      <c r="Z9" s="2" t="n">
+      <c r="X9" s="2">
+        <v>64</v>
+      </c>
+      <c r="Y9" s="3">
+        <v>38349</v>
+      </c>
+      <c r="Z9" s="2">
         <v>3510</v>
       </c>
-      <c r="AA9" s="4" t="n">
+      <c r="AA9" s="4">
         <v>5</v>
       </c>
-      <c r="AB9" s="2" t="n">
+      <c r="AB9" s="2">
         <v>2500</v>
       </c>
-      <c r="AC9" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="AD9" s="2" t="n">
+      <c r="AC9" s="4">
+        <v>2</v>
+      </c>
+      <c r="AD9" s="2">
         <v>1375</v>
       </c>
-      <c r="AE9" s="4" t="n">
+      <c r="AE9" s="4">
         <v>2</v>
       </c>
       <c r="AH9" s="1" t="s">
@@ -1644,27 +2883,27 @@
         <v>60</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:1025" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>39</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>41</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>43</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="J10" s="1" t="s">
         <v>64</v>
@@ -1673,22 +2912,22 @@
         <v>65</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="M10" s="1" t="s">
         <v>49</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="P10" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="S10" s="2" t="n">
-        <v>1507</v>
-      </c>
-      <c r="T10" s="3" t="n">
-        <v>42788</v>
+      <c r="S10" s="2">
+        <v>1505</v>
+      </c>
+      <c r="T10" s="3">
+        <v>42786</v>
       </c>
       <c r="U10" s="1" t="s">
         <v>67</v>
@@ -1699,28 +2938,28 @@
       <c r="W10" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="X10" s="2" t="n">
-        <v>67</v>
-      </c>
-      <c r="Y10" s="3" t="n">
-        <v>38352</v>
-      </c>
-      <c r="Z10" s="2" t="n">
+      <c r="X10" s="2">
+        <v>65</v>
+      </c>
+      <c r="Y10" s="3">
+        <v>38350</v>
+      </c>
+      <c r="Z10" s="2">
         <v>3510</v>
       </c>
-      <c r="AA10" s="4" t="n">
+      <c r="AA10" s="4">
         <v>5</v>
       </c>
-      <c r="AB10" s="2" t="n">
+      <c r="AB10" s="2">
         <v>2500</v>
       </c>
-      <c r="AC10" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="AD10" s="2" t="n">
+      <c r="AC10" s="4">
+        <v>2</v>
+      </c>
+      <c r="AD10" s="2">
         <v>1375</v>
       </c>
-      <c r="AE10" s="4" t="n">
+      <c r="AE10" s="4">
         <v>2</v>
       </c>
       <c r="AH10" s="1" t="s">
@@ -1733,27 +2972,27 @@
         <v>60</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:1025" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>39</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>41</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>73</v>
+        <v>43</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="J11" s="1" t="s">
         <v>64</v>
@@ -1762,22 +3001,22 @@
         <v>65</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>118</v>
+        <v>106</v>
       </c>
       <c r="M11" s="1" t="s">
         <v>49</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="P11" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="S11" s="2" t="n">
-        <v>1508</v>
-      </c>
-      <c r="T11" s="3" t="n">
-        <v>42789</v>
+      <c r="S11" s="2">
+        <v>1506</v>
+      </c>
+      <c r="T11" s="3">
+        <v>42787</v>
       </c>
       <c r="U11" s="1" t="s">
         <v>67</v>
@@ -1788,28 +3027,28 @@
       <c r="W11" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="X11" s="2" t="n">
-        <v>68</v>
-      </c>
-      <c r="Y11" s="3" t="n">
-        <v>38353</v>
-      </c>
-      <c r="Z11" s="2" t="n">
+      <c r="X11" s="2">
+        <v>66</v>
+      </c>
+      <c r="Y11" s="3">
+        <v>38351</v>
+      </c>
+      <c r="Z11" s="2">
         <v>3510</v>
       </c>
-      <c r="AA11" s="4" t="n">
+      <c r="AA11" s="4">
         <v>5</v>
       </c>
-      <c r="AB11" s="2" t="n">
+      <c r="AB11" s="2">
         <v>2500</v>
       </c>
-      <c r="AC11" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="AD11" s="2" t="n">
+      <c r="AC11" s="4">
+        <v>2</v>
+      </c>
+      <c r="AD11" s="2">
         <v>1375</v>
       </c>
-      <c r="AE11" s="4" t="n">
+      <c r="AE11" s="4">
         <v>2</v>
       </c>
       <c r="AH11" s="1" t="s">
@@ -1822,27 +3061,27 @@
         <v>60</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:1025" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>39</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>41</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>73</v>
+        <v>43</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="J12" s="1" t="s">
         <v>64</v>
@@ -1851,22 +3090,22 @@
         <v>65</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="M12" s="1" t="s">
         <v>49</v>
       </c>
       <c r="N12" s="1" t="s">
-        <v>125</v>
+        <v>113</v>
       </c>
       <c r="P12" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="S12" s="2" t="n">
-        <v>1509</v>
-      </c>
-      <c r="T12" s="3" t="n">
-        <v>42790</v>
+      <c r="S12" s="2">
+        <v>1507</v>
+      </c>
+      <c r="T12" s="3">
+        <v>42788</v>
       </c>
       <c r="U12" s="1" t="s">
         <v>67</v>
@@ -1877,28 +3116,28 @@
       <c r="W12" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="X12" s="2" t="n">
-        <v>69</v>
-      </c>
-      <c r="Y12" s="3" t="n">
-        <v>38354</v>
-      </c>
-      <c r="Z12" s="2" t="n">
+      <c r="X12" s="2">
+        <v>67</v>
+      </c>
+      <c r="Y12" s="3">
+        <v>38352</v>
+      </c>
+      <c r="Z12" s="2">
         <v>3510</v>
       </c>
-      <c r="AA12" s="4" t="n">
+      <c r="AA12" s="4">
         <v>5</v>
       </c>
-      <c r="AB12" s="2" t="n">
+      <c r="AB12" s="2">
         <v>2500</v>
       </c>
-      <c r="AC12" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="AD12" s="2" t="n">
+      <c r="AC12" s="4">
+        <v>2</v>
+      </c>
+      <c r="AD12" s="2">
         <v>1375</v>
       </c>
-      <c r="AE12" s="4" t="n">
+      <c r="AE12" s="4">
         <v>2</v>
       </c>
       <c r="AH12" s="1" t="s">
@@ -1911,27 +3150,27 @@
         <v>60</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" spans="1:1025" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>39</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>41</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>127</v>
+        <v>115</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>43</v>
+        <v>73</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>128</v>
+        <v>116</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
       <c r="J13" s="1" t="s">
         <v>64</v>
@@ -1940,22 +3179,22 @@
         <v>65</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
       <c r="M13" s="1" t="s">
         <v>49</v>
       </c>
       <c r="N13" s="1" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="P13" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="S13" s="2" t="n">
-        <v>1510</v>
-      </c>
-      <c r="T13" s="3" t="n">
-        <v>42791</v>
+      <c r="S13" s="2">
+        <v>1508</v>
+      </c>
+      <c r="T13" s="3">
+        <v>42789</v>
       </c>
       <c r="U13" s="1" t="s">
         <v>67</v>
@@ -1966,28 +3205,28 @@
       <c r="W13" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="X13" s="2" t="n">
-        <v>70</v>
-      </c>
-      <c r="Y13" s="3" t="n">
-        <v>38355</v>
-      </c>
-      <c r="Z13" s="2" t="n">
+      <c r="X13" s="2">
+        <v>68</v>
+      </c>
+      <c r="Y13" s="3">
+        <v>38353</v>
+      </c>
+      <c r="Z13" s="2">
         <v>3510</v>
       </c>
-      <c r="AA13" s="4" t="n">
+      <c r="AA13" s="4">
         <v>5</v>
       </c>
-      <c r="AB13" s="2" t="n">
+      <c r="AB13" s="2">
         <v>2500</v>
       </c>
-      <c r="AC13" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="AD13" s="2" t="n">
+      <c r="AC13" s="4">
+        <v>2</v>
+      </c>
+      <c r="AD13" s="2">
         <v>1375</v>
       </c>
-      <c r="AE13" s="4" t="n">
+      <c r="AE13" s="4">
         <v>2</v>
       </c>
       <c r="AH13" s="1" t="s">
@@ -2000,27 +3239,27 @@
         <v>60</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" spans="1:1025" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>39</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>41</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>73</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="J14" s="1" t="s">
         <v>64</v>
@@ -2029,22 +3268,22 @@
         <v>65</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="M14" s="1" t="s">
         <v>49</v>
       </c>
       <c r="N14" s="1" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="P14" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="S14" s="2" t="n">
-        <v>1511</v>
-      </c>
-      <c r="T14" s="3" t="n">
-        <v>42792</v>
+      <c r="S14" s="2">
+        <v>1509</v>
+      </c>
+      <c r="T14" s="3">
+        <v>42790</v>
       </c>
       <c r="U14" s="1" t="s">
         <v>67</v>
@@ -2055,28 +3294,28 @@
       <c r="W14" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="X14" s="2" t="n">
-        <v>71</v>
-      </c>
-      <c r="Y14" s="3" t="n">
-        <v>38356</v>
-      </c>
-      <c r="Z14" s="2" t="n">
+      <c r="X14" s="2">
+        <v>69</v>
+      </c>
+      <c r="Y14" s="3">
+        <v>38354</v>
+      </c>
+      <c r="Z14" s="2">
         <v>3510</v>
       </c>
-      <c r="AA14" s="4" t="n">
+      <c r="AA14" s="4">
         <v>5</v>
       </c>
-      <c r="AB14" s="2" t="n">
+      <c r="AB14" s="2">
         <v>2500</v>
       </c>
-      <c r="AC14" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="AD14" s="2" t="n">
+      <c r="AC14" s="4">
+        <v>2</v>
+      </c>
+      <c r="AD14" s="2">
         <v>1375</v>
       </c>
-      <c r="AE14" s="4" t="n">
+      <c r="AE14" s="4">
         <v>2</v>
       </c>
       <c r="AH14" s="1" t="s">
@@ -2089,27 +3328,27 @@
         <v>60</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" spans="1:1025" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>39</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>41</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>73</v>
+        <v>43</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
       <c r="J15" s="1" t="s">
         <v>64</v>
@@ -2118,22 +3357,22 @@
         <v>65</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="M15" s="1" t="s">
         <v>49</v>
       </c>
       <c r="N15" s="1" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
       <c r="P15" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="S15" s="2" t="n">
-        <v>1512</v>
-      </c>
-      <c r="T15" s="3" t="n">
-        <v>42793</v>
+      <c r="S15" s="2">
+        <v>1510</v>
+      </c>
+      <c r="T15" s="3">
+        <v>42791</v>
       </c>
       <c r="U15" s="1" t="s">
         <v>67</v>
@@ -2144,28 +3383,28 @@
       <c r="W15" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="X15" s="2" t="n">
-        <v>72</v>
-      </c>
-      <c r="Y15" s="3" t="n">
-        <v>38357</v>
-      </c>
-      <c r="Z15" s="2" t="n">
+      <c r="X15" s="2">
+        <v>70</v>
+      </c>
+      <c r="Y15" s="3">
+        <v>38355</v>
+      </c>
+      <c r="Z15" s="2">
         <v>3510</v>
       </c>
-      <c r="AA15" s="4" t="n">
+      <c r="AA15" s="4">
         <v>5</v>
       </c>
-      <c r="AB15" s="2" t="n">
+      <c r="AB15" s="2">
         <v>2500</v>
       </c>
-      <c r="AC15" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="AD15" s="2" t="n">
+      <c r="AC15" s="4">
+        <v>2</v>
+      </c>
+      <c r="AD15" s="2">
         <v>1375</v>
       </c>
-      <c r="AE15" s="4" t="n">
+      <c r="AE15" s="4">
         <v>2</v>
       </c>
       <c r="AH15" s="1" t="s">
@@ -2178,27 +3417,27 @@
         <v>60</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" spans="1:1025" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>39</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>41</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>43</v>
+        <v>73</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>147</v>
+        <v>135</v>
       </c>
       <c r="J16" s="1" t="s">
         <v>64</v>
@@ -2207,22 +3446,22 @@
         <v>65</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
       <c r="M16" s="1" t="s">
         <v>49</v>
       </c>
       <c r="N16" s="1" t="s">
-        <v>149</v>
+        <v>137</v>
       </c>
       <c r="P16" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="S16" s="2" t="n">
-        <v>1513</v>
-      </c>
-      <c r="T16" s="3" t="n">
-        <v>42794</v>
+      <c r="S16" s="2">
+        <v>1511</v>
+      </c>
+      <c r="T16" s="3">
+        <v>42792</v>
       </c>
       <c r="U16" s="1" t="s">
         <v>67</v>
@@ -2233,28 +3472,28 @@
       <c r="W16" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="X16" s="2" t="n">
-        <v>73</v>
-      </c>
-      <c r="Y16" s="3" t="n">
-        <v>38358</v>
-      </c>
-      <c r="Z16" s="2" t="n">
+      <c r="X16" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y16" s="3">
+        <v>38356</v>
+      </c>
+      <c r="Z16" s="2">
         <v>3510</v>
       </c>
-      <c r="AA16" s="4" t="n">
+      <c r="AA16" s="4">
         <v>5</v>
       </c>
-      <c r="AB16" s="2" t="n">
+      <c r="AB16" s="2">
         <v>2500</v>
       </c>
-      <c r="AC16" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="AD16" s="2" t="n">
+      <c r="AC16" s="4">
+        <v>2</v>
+      </c>
+      <c r="AD16" s="2">
         <v>1375</v>
       </c>
-      <c r="AE16" s="4" t="n">
+      <c r="AE16" s="4">
         <v>2</v>
       </c>
       <c r="AH16" s="1" t="s">
@@ -2267,27 +3506,27 @@
         <v>60</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>39</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>41</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>43</v>
+        <v>73</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>152</v>
+        <v>140</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>153</v>
+        <v>141</v>
       </c>
       <c r="J17" s="1" t="s">
         <v>64</v>
@@ -2296,22 +3535,22 @@
         <v>65</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>154</v>
+        <v>142</v>
       </c>
       <c r="M17" s="1" t="s">
         <v>49</v>
       </c>
       <c r="N17" s="1" t="s">
-        <v>155</v>
+        <v>143</v>
       </c>
       <c r="P17" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="S17" s="2" t="n">
-        <v>1514</v>
-      </c>
-      <c r="T17" s="3" t="n">
-        <v>42795</v>
+      <c r="S17" s="2">
+        <v>1512</v>
+      </c>
+      <c r="T17" s="3">
+        <v>42793</v>
       </c>
       <c r="U17" s="1" t="s">
         <v>67</v>
@@ -2322,28 +3561,28 @@
       <c r="W17" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="X17" s="2" t="n">
-        <v>74</v>
-      </c>
-      <c r="Y17" s="3" t="n">
-        <v>38359</v>
-      </c>
-      <c r="Z17" s="2" t="n">
+      <c r="X17" s="2">
+        <v>72</v>
+      </c>
+      <c r="Y17" s="3">
+        <v>38357</v>
+      </c>
+      <c r="Z17" s="2">
         <v>3510</v>
       </c>
-      <c r="AA17" s="4" t="n">
+      <c r="AA17" s="4">
         <v>5</v>
       </c>
-      <c r="AB17" s="2" t="n">
+      <c r="AB17" s="2">
         <v>2500</v>
       </c>
-      <c r="AC17" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="AD17" s="2" t="n">
+      <c r="AC17" s="4">
+        <v>2</v>
+      </c>
+      <c r="AD17" s="2">
         <v>1375</v>
       </c>
-      <c r="AE17" s="4" t="n">
+      <c r="AE17" s="4">
         <v>2</v>
       </c>
       <c r="AH17" s="1" t="s">
@@ -2356,27 +3595,27 @@
         <v>60</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>39</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>156</v>
+        <v>144</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>41</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>43</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
       <c r="J18" s="1" t="s">
         <v>64</v>
@@ -2385,22 +3624,22 @@
         <v>65</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
       <c r="M18" s="1" t="s">
         <v>49</v>
       </c>
       <c r="N18" s="1" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
       <c r="P18" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="S18" s="2" t="n">
-        <v>1515</v>
-      </c>
-      <c r="T18" s="3" t="n">
-        <v>42796</v>
+      <c r="S18" s="2">
+        <v>1513</v>
+      </c>
+      <c r="T18" s="3">
+        <v>42794</v>
       </c>
       <c r="U18" s="1" t="s">
         <v>67</v>
@@ -2411,28 +3650,28 @@
       <c r="W18" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="X18" s="2" t="n">
-        <v>75</v>
-      </c>
-      <c r="Y18" s="3" t="n">
-        <v>38360</v>
-      </c>
-      <c r="Z18" s="2" t="n">
+      <c r="X18" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y18" s="3">
+        <v>38358</v>
+      </c>
+      <c r="Z18" s="2">
         <v>3510</v>
       </c>
-      <c r="AA18" s="4" t="n">
+      <c r="AA18" s="4">
         <v>5</v>
       </c>
-      <c r="AB18" s="2" t="n">
+      <c r="AB18" s="2">
         <v>2500</v>
       </c>
-      <c r="AC18" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="AD18" s="2" t="n">
+      <c r="AC18" s="4">
+        <v>2</v>
+      </c>
+      <c r="AD18" s="2">
         <v>1375</v>
       </c>
-      <c r="AE18" s="4" t="n">
+      <c r="AE18" s="4">
         <v>2</v>
       </c>
       <c r="AH18" s="1" t="s">
@@ -2445,27 +3684,27 @@
         <v>60</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>39</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>162</v>
+        <v>150</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>41</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>43</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>164</v>
+        <v>152</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>165</v>
+        <v>153</v>
       </c>
       <c r="J19" s="1" t="s">
         <v>64</v>
@@ -2474,22 +3713,22 @@
         <v>65</v>
       </c>
       <c r="L19" s="1" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
       <c r="M19" s="1" t="s">
         <v>49</v>
       </c>
       <c r="N19" s="1" t="s">
-        <v>167</v>
+        <v>155</v>
       </c>
       <c r="P19" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="S19" s="2" t="n">
-        <v>1516</v>
-      </c>
-      <c r="T19" s="3" t="n">
-        <v>42797</v>
+      <c r="S19" s="2">
+        <v>1514</v>
+      </c>
+      <c r="T19" s="3">
+        <v>42795</v>
       </c>
       <c r="U19" s="1" t="s">
         <v>67</v>
@@ -2500,28 +3739,28 @@
       <c r="W19" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="X19" s="2" t="n">
-        <v>76</v>
-      </c>
-      <c r="Y19" s="3" t="n">
-        <v>38361</v>
-      </c>
-      <c r="Z19" s="2" t="n">
+      <c r="X19" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y19" s="3">
+        <v>38359</v>
+      </c>
+      <c r="Z19" s="2">
         <v>3510</v>
       </c>
-      <c r="AA19" s="4" t="n">
+      <c r="AA19" s="4">
         <v>5</v>
       </c>
-      <c r="AB19" s="2" t="n">
+      <c r="AB19" s="2">
         <v>2500</v>
       </c>
-      <c r="AC19" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="AD19" s="2" t="n">
+      <c r="AC19" s="4">
+        <v>2</v>
+      </c>
+      <c r="AD19" s="2">
         <v>1375</v>
       </c>
-      <c r="AE19" s="4" t="n">
+      <c r="AE19" s="4">
         <v>2</v>
       </c>
       <c r="AH19" s="1" t="s">
@@ -2534,27 +3773,27 @@
         <v>60</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>39</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>168</v>
+        <v>156</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>41</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>169</v>
+        <v>157</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>43</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>170</v>
+        <v>158</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>171</v>
+        <v>159</v>
       </c>
       <c r="J20" s="1" t="s">
         <v>64</v>
@@ -2563,22 +3802,22 @@
         <v>65</v>
       </c>
       <c r="L20" s="1" t="s">
-        <v>172</v>
+        <v>160</v>
       </c>
       <c r="M20" s="1" t="s">
         <v>49</v>
       </c>
       <c r="N20" s="1" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="P20" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="S20" s="2" t="n">
-        <v>1517</v>
-      </c>
-      <c r="T20" s="3" t="n">
-        <v>42798</v>
+      <c r="S20" s="2">
+        <v>1515</v>
+      </c>
+      <c r="T20" s="3">
+        <v>42796</v>
       </c>
       <c r="U20" s="1" t="s">
         <v>67</v>
@@ -2589,28 +3828,28 @@
       <c r="W20" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="X20" s="2" t="n">
-        <v>77</v>
-      </c>
-      <c r="Y20" s="3" t="n">
-        <v>38362</v>
-      </c>
-      <c r="Z20" s="2" t="n">
+      <c r="X20" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y20" s="3">
+        <v>38360</v>
+      </c>
+      <c r="Z20" s="2">
         <v>3510</v>
       </c>
-      <c r="AA20" s="4" t="n">
+      <c r="AA20" s="4">
         <v>5</v>
       </c>
-      <c r="AB20" s="2" t="n">
+      <c r="AB20" s="2">
         <v>2500</v>
       </c>
-      <c r="AC20" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="AD20" s="2" t="n">
+      <c r="AC20" s="4">
+        <v>2</v>
+      </c>
+      <c r="AD20" s="2">
         <v>1375</v>
       </c>
-      <c r="AE20" s="4" t="n">
+      <c r="AE20" s="4">
         <v>2</v>
       </c>
       <c r="AH20" s="1" t="s">
@@ -2623,27 +3862,27 @@
         <v>60</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>39</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>41</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>73</v>
+        <v>43</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>176</v>
+        <v>164</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>177</v>
+        <v>165</v>
       </c>
       <c r="J21" s="1" t="s">
         <v>64</v>
@@ -2652,22 +3891,22 @@
         <v>65</v>
       </c>
       <c r="L21" s="1" t="s">
-        <v>178</v>
+        <v>166</v>
       </c>
       <c r="M21" s="1" t="s">
         <v>49</v>
       </c>
       <c r="N21" s="1" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
       <c r="P21" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="S21" s="2" t="n">
-        <v>1518</v>
-      </c>
-      <c r="T21" s="3" t="n">
-        <v>42799</v>
+      <c r="S21" s="2">
+        <v>1516</v>
+      </c>
+      <c r="T21" s="3">
+        <v>42797</v>
       </c>
       <c r="U21" s="1" t="s">
         <v>67</v>
@@ -2678,28 +3917,28 @@
       <c r="W21" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="X21" s="2" t="n">
-        <v>78</v>
-      </c>
-      <c r="Y21" s="3" t="n">
-        <v>38363</v>
-      </c>
-      <c r="Z21" s="2" t="n">
+      <c r="X21" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y21" s="3">
+        <v>38361</v>
+      </c>
+      <c r="Z21" s="2">
         <v>3510</v>
       </c>
-      <c r="AA21" s="4" t="n">
+      <c r="AA21" s="4">
         <v>5</v>
       </c>
-      <c r="AB21" s="2" t="n">
+      <c r="AB21" s="2">
         <v>2500</v>
       </c>
-      <c r="AC21" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="AD21" s="2" t="n">
+      <c r="AC21" s="4">
+        <v>2</v>
+      </c>
+      <c r="AD21" s="2">
         <v>1375</v>
       </c>
-      <c r="AE21" s="4" t="n">
+      <c r="AE21" s="4">
         <v>2</v>
       </c>
       <c r="AH21" s="1" t="s">
@@ -2712,27 +3951,27 @@
         <v>60</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>39</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>180</v>
+        <v>168</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>41</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>43</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>183</v>
+        <v>171</v>
       </c>
       <c r="J22" s="1" t="s">
         <v>64</v>
@@ -2741,22 +3980,22 @@
         <v>65</v>
       </c>
       <c r="L22" s="1" t="s">
-        <v>184</v>
+        <v>172</v>
       </c>
       <c r="M22" s="1" t="s">
         <v>49</v>
       </c>
       <c r="N22" s="1" t="s">
-        <v>185</v>
+        <v>173</v>
       </c>
       <c r="P22" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="S22" s="2" t="n">
-        <v>1519</v>
-      </c>
-      <c r="T22" s="3" t="n">
-        <v>42800</v>
+      <c r="S22" s="2">
+        <v>1517</v>
+      </c>
+      <c r="T22" s="3">
+        <v>42798</v>
       </c>
       <c r="U22" s="1" t="s">
         <v>67</v>
@@ -2767,28 +4006,28 @@
       <c r="W22" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="X22" s="2" t="n">
-        <v>79</v>
-      </c>
-      <c r="Y22" s="3" t="n">
-        <v>38364</v>
-      </c>
-      <c r="Z22" s="2" t="n">
+      <c r="X22" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y22" s="3">
+        <v>38362</v>
+      </c>
+      <c r="Z22" s="2">
         <v>3510</v>
       </c>
-      <c r="AA22" s="4" t="n">
+      <c r="AA22" s="4">
         <v>5</v>
       </c>
-      <c r="AB22" s="2" t="n">
+      <c r="AB22" s="2">
         <v>2500</v>
       </c>
-      <c r="AC22" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="AD22" s="2" t="n">
+      <c r="AC22" s="4">
+        <v>2</v>
+      </c>
+      <c r="AD22" s="2">
         <v>1375</v>
       </c>
-      <c r="AE22" s="4" t="n">
+      <c r="AE22" s="4">
         <v>2</v>
       </c>
       <c r="AH22" s="1" t="s">
@@ -2801,27 +4040,27 @@
         <v>60</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>39</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>186</v>
+        <v>174</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>41</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>187</v>
+        <v>175</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>43</v>
+        <v>73</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>188</v>
+        <v>176</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
       <c r="J23" s="1" t="s">
         <v>64</v>
@@ -2830,22 +4069,22 @@
         <v>65</v>
       </c>
       <c r="L23" s="1" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="M23" s="1" t="s">
         <v>49</v>
       </c>
       <c r="N23" s="1" t="s">
-        <v>191</v>
+        <v>179</v>
       </c>
       <c r="P23" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="S23" s="2" t="n">
-        <v>1520</v>
-      </c>
-      <c r="T23" s="3" t="n">
-        <v>42801</v>
+      <c r="S23" s="2">
+        <v>1518</v>
+      </c>
+      <c r="T23" s="3">
+        <v>42799</v>
       </c>
       <c r="U23" s="1" t="s">
         <v>67</v>
@@ -2856,28 +4095,28 @@
       <c r="W23" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="X23" s="2" t="n">
-        <v>80</v>
-      </c>
-      <c r="Y23" s="3" t="n">
-        <v>38365</v>
-      </c>
-      <c r="Z23" s="2" t="n">
+      <c r="X23" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y23" s="3">
+        <v>38363</v>
+      </c>
+      <c r="Z23" s="2">
         <v>3510</v>
       </c>
-      <c r="AA23" s="4" t="n">
+      <c r="AA23" s="4">
         <v>5</v>
       </c>
-      <c r="AB23" s="2" t="n">
+      <c r="AB23" s="2">
         <v>2500</v>
       </c>
-      <c r="AC23" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="AD23" s="2" t="n">
+      <c r="AC23" s="4">
+        <v>2</v>
+      </c>
+      <c r="AD23" s="2">
         <v>1375</v>
       </c>
-      <c r="AE23" s="4" t="n">
+      <c r="AE23" s="4">
         <v>2</v>
       </c>
       <c r="AH23" s="1" t="s">
@@ -2887,42 +4126,216 @@
         <v>70</v>
       </c>
       <c r="AJ23" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="24" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="K24" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="L24" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="M24" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="N24" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="P24" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="S24" s="2">
+        <v>1519</v>
+      </c>
+      <c r="T24" s="3">
+        <v>42800</v>
+      </c>
+      <c r="U24" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="V24" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="W24" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="X24" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y24" s="3">
+        <v>38364</v>
+      </c>
+      <c r="Z24" s="2">
+        <v>3510</v>
+      </c>
+      <c r="AA24" s="4">
+        <v>5</v>
+      </c>
+      <c r="AB24" s="2">
+        <v>2500</v>
+      </c>
+      <c r="AC24" s="4">
+        <v>2</v>
+      </c>
+      <c r="AD24" s="2">
+        <v>1375</v>
+      </c>
+      <c r="AE24" s="4">
+        <v>2</v>
+      </c>
+      <c r="AH24" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AI24" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AJ24" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="25" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="K25" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="L25" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="M25" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="N25" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="P25" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="S25" s="2">
+        <v>1520</v>
+      </c>
+      <c r="T25" s="3">
+        <v>42801</v>
+      </c>
+      <c r="U25" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="V25" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="W25" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="X25" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y25" s="3">
+        <v>38365</v>
+      </c>
+      <c r="Z25" s="2">
+        <v>3510</v>
+      </c>
+      <c r="AA25" s="4">
+        <v>5</v>
+      </c>
+      <c r="AB25" s="2">
+        <v>2500</v>
+      </c>
+      <c r="AC25" s="4">
+        <v>2</v>
+      </c>
+      <c r="AD25" s="2">
+        <v>1375</v>
+      </c>
+      <c r="AE25" s="4">
+        <v>2</v>
+      </c>
+      <c r="AH25" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AI25" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AJ25" s="1" t="s">
         <v>60</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:AK1"/>
   <hyperlinks>
-    <hyperlink ref="P2" r:id="rId1" display="xx@gmail.com"/>
-    <hyperlink ref="P3" r:id="rId2" display="xx@gmail.com"/>
-    <hyperlink ref="P4" r:id="rId3" display="xx@gmail.com"/>
-    <hyperlink ref="P5" r:id="rId4" display="xx@gmail.com"/>
-    <hyperlink ref="P6" r:id="rId5" display="xx@gmail.com"/>
-    <hyperlink ref="P7" r:id="rId6" display="xx@gmail.com"/>
-    <hyperlink ref="P8" r:id="rId7" display="xx@gmail.com"/>
-    <hyperlink ref="P9" r:id="rId8" display="xx@gmail.com"/>
-    <hyperlink ref="P10" r:id="rId9" display="xx@gmail.com"/>
-    <hyperlink ref="P11" r:id="rId10" display="xx@gmail.com"/>
-    <hyperlink ref="P12" r:id="rId11" display="xx@gmail.com"/>
-    <hyperlink ref="P13" r:id="rId12" display="xx@gmail.com"/>
-    <hyperlink ref="P14" r:id="rId13" display="xx@gmail.com"/>
-    <hyperlink ref="P15" r:id="rId14" display="xx@gmail.com"/>
-    <hyperlink ref="P16" r:id="rId15" display="xx@gmail.com"/>
-    <hyperlink ref="P17" r:id="rId16" display="xx@gmail.com"/>
-    <hyperlink ref="P18" r:id="rId17" display="xx@gmail.com"/>
-    <hyperlink ref="P19" r:id="rId18" display="xx@gmail.com"/>
-    <hyperlink ref="P20" r:id="rId19" display="xx@gmail.com"/>
-    <hyperlink ref="P21" r:id="rId20" display="xx@gmail.com"/>
-    <hyperlink ref="P22" r:id="rId21" display="xx@gmail.com"/>
-    <hyperlink ref="P23" r:id="rId22" display="xx@gmail.com"/>
+    <hyperlink ref="P4" r:id="rId1"/>
+    <hyperlink ref="P5" r:id="rId2"/>
+    <hyperlink ref="P6" r:id="rId3"/>
+    <hyperlink ref="P7" r:id="rId4"/>
+    <hyperlink ref="P8" r:id="rId5"/>
+    <hyperlink ref="P9" r:id="rId6"/>
+    <hyperlink ref="P10" r:id="rId7"/>
+    <hyperlink ref="P11" r:id="rId8"/>
+    <hyperlink ref="P12" r:id="rId9"/>
+    <hyperlink ref="P13" r:id="rId10"/>
+    <hyperlink ref="P14" r:id="rId11"/>
+    <hyperlink ref="P15" r:id="rId12"/>
+    <hyperlink ref="P16" r:id="rId13"/>
+    <hyperlink ref="P17" r:id="rId14"/>
+    <hyperlink ref="P18" r:id="rId15"/>
+    <hyperlink ref="P19" r:id="rId16"/>
+    <hyperlink ref="P20" r:id="rId17"/>
+    <hyperlink ref="P21" r:id="rId18"/>
+    <hyperlink ref="P22" r:id="rId19"/>
+    <hyperlink ref="P23" r:id="rId20"/>
+    <hyperlink ref="P24" r:id="rId21"/>
+    <hyperlink ref="P25" r:id="rId22"/>
+    <hyperlink ref="P3" r:id="rId23"/>
+    <hyperlink ref="P2" r:id="rId24"/>
   </hyperlinks>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
-  <drawing r:id="rId23"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
--- a/Exple-mouvements-BDD-Grands-Mécènes2.xlsx
+++ b/Exple-mouvements-BDD-Grands-Mécènes2.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="724" uniqueCount="207">
   <si>
     <t>Code délégué</t>
   </si>
@@ -626,6 +626,39 @@
   </si>
   <si>
     <t>Fabien</t>
+  </si>
+  <si>
+    <t>01611236</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>01611237</t>
+  </si>
+  <si>
+    <t>01611238</t>
+  </si>
+  <si>
+    <t>01611239</t>
+  </si>
+  <si>
+    <t>01611240</t>
+  </si>
+  <si>
+    <t>01611241</t>
+  </si>
+  <si>
+    <t>01611242</t>
+  </si>
+  <si>
+    <t>01611243</t>
+  </si>
+  <si>
+    <t>01611244</t>
+  </si>
+  <si>
+    <t>01611245</t>
   </si>
 </sst>
 </file>
@@ -989,13 +1022,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AMK25"/>
+  <dimension ref="A1:AMK35"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
       <pane xSplit="5" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H45" sqref="H45"/>
+      <selection pane="bottomRight" activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1156,7 +1189,7 @@
         <v>41</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>43</v>
@@ -1215,19 +1248,19 @@
       <c r="Z2" s="2">
         <v>6706.47</v>
       </c>
-      <c r="AA2">
+      <c r="AA2" s="4">
         <v>18</v>
       </c>
       <c r="AB2" s="2">
         <v>5150</v>
       </c>
-      <c r="AC2">
+      <c r="AC2" s="4">
         <v>3</v>
       </c>
       <c r="AD2" s="2">
         <v>300</v>
       </c>
-      <c r="AE2">
+      <c r="AE2" s="4">
         <v>2</v>
       </c>
       <c r="AF2" s="1" t="s">
@@ -1248,992 +1281,6 @@
       <c r="AK2" s="1"/>
       <c r="AL2" s="1"/>
       <c r="AM2" s="3"/>
-      <c r="AN2"/>
-      <c r="AO2"/>
-      <c r="AP2"/>
-      <c r="AQ2"/>
-      <c r="AR2"/>
-      <c r="AS2"/>
-      <c r="AT2"/>
-      <c r="AU2"/>
-      <c r="AV2"/>
-      <c r="AW2"/>
-      <c r="AX2"/>
-      <c r="AY2"/>
-      <c r="AZ2"/>
-      <c r="BA2"/>
-      <c r="BB2"/>
-      <c r="BC2"/>
-      <c r="BD2"/>
-      <c r="BE2"/>
-      <c r="BF2"/>
-      <c r="BG2"/>
-      <c r="BH2"/>
-      <c r="BI2"/>
-      <c r="BJ2"/>
-      <c r="BK2"/>
-      <c r="BL2"/>
-      <c r="BM2"/>
-      <c r="BN2"/>
-      <c r="BO2"/>
-      <c r="BP2"/>
-      <c r="BQ2"/>
-      <c r="BR2"/>
-      <c r="BS2"/>
-      <c r="BT2"/>
-      <c r="BU2"/>
-      <c r="BV2"/>
-      <c r="BW2"/>
-      <c r="BX2"/>
-      <c r="BY2"/>
-      <c r="BZ2"/>
-      <c r="CA2"/>
-      <c r="CB2"/>
-      <c r="CC2"/>
-      <c r="CD2"/>
-      <c r="CE2"/>
-      <c r="CF2"/>
-      <c r="CG2"/>
-      <c r="CH2"/>
-      <c r="CI2"/>
-      <c r="CJ2"/>
-      <c r="CK2"/>
-      <c r="CL2"/>
-      <c r="CM2"/>
-      <c r="CN2"/>
-      <c r="CO2"/>
-      <c r="CP2"/>
-      <c r="CQ2"/>
-      <c r="CR2"/>
-      <c r="CS2"/>
-      <c r="CT2"/>
-      <c r="CU2"/>
-      <c r="CV2"/>
-      <c r="CW2"/>
-      <c r="CX2"/>
-      <c r="CY2"/>
-      <c r="CZ2"/>
-      <c r="DA2"/>
-      <c r="DB2"/>
-      <c r="DC2"/>
-      <c r="DD2"/>
-      <c r="DE2"/>
-      <c r="DF2"/>
-      <c r="DG2"/>
-      <c r="DH2"/>
-      <c r="DI2"/>
-      <c r="DJ2"/>
-      <c r="DK2"/>
-      <c r="DL2"/>
-      <c r="DM2"/>
-      <c r="DN2"/>
-      <c r="DO2"/>
-      <c r="DP2"/>
-      <c r="DQ2"/>
-      <c r="DR2"/>
-      <c r="DS2"/>
-      <c r="DT2"/>
-      <c r="DU2"/>
-      <c r="DV2"/>
-      <c r="DW2"/>
-      <c r="DX2"/>
-      <c r="DY2"/>
-      <c r="DZ2"/>
-      <c r="EA2"/>
-      <c r="EB2"/>
-      <c r="EC2"/>
-      <c r="ED2"/>
-      <c r="EE2"/>
-      <c r="EF2"/>
-      <c r="EG2"/>
-      <c r="EH2"/>
-      <c r="EI2"/>
-      <c r="EJ2"/>
-      <c r="EK2"/>
-      <c r="EL2"/>
-      <c r="EM2"/>
-      <c r="EN2"/>
-      <c r="EO2"/>
-      <c r="EP2"/>
-      <c r="EQ2"/>
-      <c r="ER2"/>
-      <c r="ES2"/>
-      <c r="ET2"/>
-      <c r="EU2"/>
-      <c r="EV2"/>
-      <c r="EW2"/>
-      <c r="EX2"/>
-      <c r="EY2"/>
-      <c r="EZ2"/>
-      <c r="FA2"/>
-      <c r="FB2"/>
-      <c r="FC2"/>
-      <c r="FD2"/>
-      <c r="FE2"/>
-      <c r="FF2"/>
-      <c r="FG2"/>
-      <c r="FH2"/>
-      <c r="FI2"/>
-      <c r="FJ2"/>
-      <c r="FK2"/>
-      <c r="FL2"/>
-      <c r="FM2"/>
-      <c r="FN2"/>
-      <c r="FO2"/>
-      <c r="FP2"/>
-      <c r="FQ2"/>
-      <c r="FR2"/>
-      <c r="FS2"/>
-      <c r="FT2"/>
-      <c r="FU2"/>
-      <c r="FV2"/>
-      <c r="FW2"/>
-      <c r="FX2"/>
-      <c r="FY2"/>
-      <c r="FZ2"/>
-      <c r="GA2"/>
-      <c r="GB2"/>
-      <c r="GC2"/>
-      <c r="GD2"/>
-      <c r="GE2"/>
-      <c r="GF2"/>
-      <c r="GG2"/>
-      <c r="GH2"/>
-      <c r="GI2"/>
-      <c r="GJ2"/>
-      <c r="GK2"/>
-      <c r="GL2"/>
-      <c r="GM2"/>
-      <c r="GN2"/>
-      <c r="GO2"/>
-      <c r="GP2"/>
-      <c r="GQ2"/>
-      <c r="GR2"/>
-      <c r="GS2"/>
-      <c r="GT2"/>
-      <c r="GU2"/>
-      <c r="GV2"/>
-      <c r="GW2"/>
-      <c r="GX2"/>
-      <c r="GY2"/>
-      <c r="GZ2"/>
-      <c r="HA2"/>
-      <c r="HB2"/>
-      <c r="HC2"/>
-      <c r="HD2"/>
-      <c r="HE2"/>
-      <c r="HF2"/>
-      <c r="HG2"/>
-      <c r="HH2"/>
-      <c r="HI2"/>
-      <c r="HJ2"/>
-      <c r="HK2"/>
-      <c r="HL2"/>
-      <c r="HM2"/>
-      <c r="HN2"/>
-      <c r="HO2"/>
-      <c r="HP2"/>
-      <c r="HQ2"/>
-      <c r="HR2"/>
-      <c r="HS2"/>
-      <c r="HT2"/>
-      <c r="HU2"/>
-      <c r="HV2"/>
-      <c r="HW2"/>
-      <c r="HX2"/>
-      <c r="HY2"/>
-      <c r="HZ2"/>
-      <c r="IA2"/>
-      <c r="IB2"/>
-      <c r="IC2"/>
-      <c r="ID2"/>
-      <c r="IE2"/>
-      <c r="IF2"/>
-      <c r="IG2"/>
-      <c r="IH2"/>
-      <c r="II2"/>
-      <c r="IJ2"/>
-      <c r="IK2"/>
-      <c r="IL2"/>
-      <c r="IM2"/>
-      <c r="IN2"/>
-      <c r="IO2"/>
-      <c r="IP2"/>
-      <c r="IQ2"/>
-      <c r="IR2"/>
-      <c r="IS2"/>
-      <c r="IT2"/>
-      <c r="IU2"/>
-      <c r="IV2"/>
-      <c r="IW2"/>
-      <c r="IX2"/>
-      <c r="IY2"/>
-      <c r="IZ2"/>
-      <c r="JA2"/>
-      <c r="JB2"/>
-      <c r="JC2"/>
-      <c r="JD2"/>
-      <c r="JE2"/>
-      <c r="JF2"/>
-      <c r="JG2"/>
-      <c r="JH2"/>
-      <c r="JI2"/>
-      <c r="JJ2"/>
-      <c r="JK2"/>
-      <c r="JL2"/>
-      <c r="JM2"/>
-      <c r="JN2"/>
-      <c r="JO2"/>
-      <c r="JP2"/>
-      <c r="JQ2"/>
-      <c r="JR2"/>
-      <c r="JS2"/>
-      <c r="JT2"/>
-      <c r="JU2"/>
-      <c r="JV2"/>
-      <c r="JW2"/>
-      <c r="JX2"/>
-      <c r="JY2"/>
-      <c r="JZ2"/>
-      <c r="KA2"/>
-      <c r="KB2"/>
-      <c r="KC2"/>
-      <c r="KD2"/>
-      <c r="KE2"/>
-      <c r="KF2"/>
-      <c r="KG2"/>
-      <c r="KH2"/>
-      <c r="KI2"/>
-      <c r="KJ2"/>
-      <c r="KK2"/>
-      <c r="KL2"/>
-      <c r="KM2"/>
-      <c r="KN2"/>
-      <c r="KO2"/>
-      <c r="KP2"/>
-      <c r="KQ2"/>
-      <c r="KR2"/>
-      <c r="KS2"/>
-      <c r="KT2"/>
-      <c r="KU2"/>
-      <c r="KV2"/>
-      <c r="KW2"/>
-      <c r="KX2"/>
-      <c r="KY2"/>
-      <c r="KZ2"/>
-      <c r="LA2"/>
-      <c r="LB2"/>
-      <c r="LC2"/>
-      <c r="LD2"/>
-      <c r="LE2"/>
-      <c r="LF2"/>
-      <c r="LG2"/>
-      <c r="LH2"/>
-      <c r="LI2"/>
-      <c r="LJ2"/>
-      <c r="LK2"/>
-      <c r="LL2"/>
-      <c r="LM2"/>
-      <c r="LN2"/>
-      <c r="LO2"/>
-      <c r="LP2"/>
-      <c r="LQ2"/>
-      <c r="LR2"/>
-      <c r="LS2"/>
-      <c r="LT2"/>
-      <c r="LU2"/>
-      <c r="LV2"/>
-      <c r="LW2"/>
-      <c r="LX2"/>
-      <c r="LY2"/>
-      <c r="LZ2"/>
-      <c r="MA2"/>
-      <c r="MB2"/>
-      <c r="MC2"/>
-      <c r="MD2"/>
-      <c r="ME2"/>
-      <c r="MF2"/>
-      <c r="MG2"/>
-      <c r="MH2"/>
-      <c r="MI2"/>
-      <c r="MJ2"/>
-      <c r="MK2"/>
-      <c r="ML2"/>
-      <c r="MM2"/>
-      <c r="MN2"/>
-      <c r="MO2"/>
-      <c r="MP2"/>
-      <c r="MQ2"/>
-      <c r="MR2"/>
-      <c r="MS2"/>
-      <c r="MT2"/>
-      <c r="MU2"/>
-      <c r="MV2"/>
-      <c r="MW2"/>
-      <c r="MX2"/>
-      <c r="MY2"/>
-      <c r="MZ2"/>
-      <c r="NA2"/>
-      <c r="NB2"/>
-      <c r="NC2"/>
-      <c r="ND2"/>
-      <c r="NE2"/>
-      <c r="NF2"/>
-      <c r="NG2"/>
-      <c r="NH2"/>
-      <c r="NI2"/>
-      <c r="NJ2"/>
-      <c r="NK2"/>
-      <c r="NL2"/>
-      <c r="NM2"/>
-      <c r="NN2"/>
-      <c r="NO2"/>
-      <c r="NP2"/>
-      <c r="NQ2"/>
-      <c r="NR2"/>
-      <c r="NS2"/>
-      <c r="NT2"/>
-      <c r="NU2"/>
-      <c r="NV2"/>
-      <c r="NW2"/>
-      <c r="NX2"/>
-      <c r="NY2"/>
-      <c r="NZ2"/>
-      <c r="OA2"/>
-      <c r="OB2"/>
-      <c r="OC2"/>
-      <c r="OD2"/>
-      <c r="OE2"/>
-      <c r="OF2"/>
-      <c r="OG2"/>
-      <c r="OH2"/>
-      <c r="OI2"/>
-      <c r="OJ2"/>
-      <c r="OK2"/>
-      <c r="OL2"/>
-      <c r="OM2"/>
-      <c r="ON2"/>
-      <c r="OO2"/>
-      <c r="OP2"/>
-      <c r="OQ2"/>
-      <c r="OR2"/>
-      <c r="OS2"/>
-      <c r="OT2"/>
-      <c r="OU2"/>
-      <c r="OV2"/>
-      <c r="OW2"/>
-      <c r="OX2"/>
-      <c r="OY2"/>
-      <c r="OZ2"/>
-      <c r="PA2"/>
-      <c r="PB2"/>
-      <c r="PC2"/>
-      <c r="PD2"/>
-      <c r="PE2"/>
-      <c r="PF2"/>
-      <c r="PG2"/>
-      <c r="PH2"/>
-      <c r="PI2"/>
-      <c r="PJ2"/>
-      <c r="PK2"/>
-      <c r="PL2"/>
-      <c r="PM2"/>
-      <c r="PN2"/>
-      <c r="PO2"/>
-      <c r="PP2"/>
-      <c r="PQ2"/>
-      <c r="PR2"/>
-      <c r="PS2"/>
-      <c r="PT2"/>
-      <c r="PU2"/>
-      <c r="PV2"/>
-      <c r="PW2"/>
-      <c r="PX2"/>
-      <c r="PY2"/>
-      <c r="PZ2"/>
-      <c r="QA2"/>
-      <c r="QB2"/>
-      <c r="QC2"/>
-      <c r="QD2"/>
-      <c r="QE2"/>
-      <c r="QF2"/>
-      <c r="QG2"/>
-      <c r="QH2"/>
-      <c r="QI2"/>
-      <c r="QJ2"/>
-      <c r="QK2"/>
-      <c r="QL2"/>
-      <c r="QM2"/>
-      <c r="QN2"/>
-      <c r="QO2"/>
-      <c r="QP2"/>
-      <c r="QQ2"/>
-      <c r="QR2"/>
-      <c r="QS2"/>
-      <c r="QT2"/>
-      <c r="QU2"/>
-      <c r="QV2"/>
-      <c r="QW2"/>
-      <c r="QX2"/>
-      <c r="QY2"/>
-      <c r="QZ2"/>
-      <c r="RA2"/>
-      <c r="RB2"/>
-      <c r="RC2"/>
-      <c r="RD2"/>
-      <c r="RE2"/>
-      <c r="RF2"/>
-      <c r="RG2"/>
-      <c r="RH2"/>
-      <c r="RI2"/>
-      <c r="RJ2"/>
-      <c r="RK2"/>
-      <c r="RL2"/>
-      <c r="RM2"/>
-      <c r="RN2"/>
-      <c r="RO2"/>
-      <c r="RP2"/>
-      <c r="RQ2"/>
-      <c r="RR2"/>
-      <c r="RS2"/>
-      <c r="RT2"/>
-      <c r="RU2"/>
-      <c r="RV2"/>
-      <c r="RW2"/>
-      <c r="RX2"/>
-      <c r="RY2"/>
-      <c r="RZ2"/>
-      <c r="SA2"/>
-      <c r="SB2"/>
-      <c r="SC2"/>
-      <c r="SD2"/>
-      <c r="SE2"/>
-      <c r="SF2"/>
-      <c r="SG2"/>
-      <c r="SH2"/>
-      <c r="SI2"/>
-      <c r="SJ2"/>
-      <c r="SK2"/>
-      <c r="SL2"/>
-      <c r="SM2"/>
-      <c r="SN2"/>
-      <c r="SO2"/>
-      <c r="SP2"/>
-      <c r="SQ2"/>
-      <c r="SR2"/>
-      <c r="SS2"/>
-      <c r="ST2"/>
-      <c r="SU2"/>
-      <c r="SV2"/>
-      <c r="SW2"/>
-      <c r="SX2"/>
-      <c r="SY2"/>
-      <c r="SZ2"/>
-      <c r="TA2"/>
-      <c r="TB2"/>
-      <c r="TC2"/>
-      <c r="TD2"/>
-      <c r="TE2"/>
-      <c r="TF2"/>
-      <c r="TG2"/>
-      <c r="TH2"/>
-      <c r="TI2"/>
-      <c r="TJ2"/>
-      <c r="TK2"/>
-      <c r="TL2"/>
-      <c r="TM2"/>
-      <c r="TN2"/>
-      <c r="TO2"/>
-      <c r="TP2"/>
-      <c r="TQ2"/>
-      <c r="TR2"/>
-      <c r="TS2"/>
-      <c r="TT2"/>
-      <c r="TU2"/>
-      <c r="TV2"/>
-      <c r="TW2"/>
-      <c r="TX2"/>
-      <c r="TY2"/>
-      <c r="TZ2"/>
-      <c r="UA2"/>
-      <c r="UB2"/>
-      <c r="UC2"/>
-      <c r="UD2"/>
-      <c r="UE2"/>
-      <c r="UF2"/>
-      <c r="UG2"/>
-      <c r="UH2"/>
-      <c r="UI2"/>
-      <c r="UJ2"/>
-      <c r="UK2"/>
-      <c r="UL2"/>
-      <c r="UM2"/>
-      <c r="UN2"/>
-      <c r="UO2"/>
-      <c r="UP2"/>
-      <c r="UQ2"/>
-      <c r="UR2"/>
-      <c r="US2"/>
-      <c r="UT2"/>
-      <c r="UU2"/>
-      <c r="UV2"/>
-      <c r="UW2"/>
-      <c r="UX2"/>
-      <c r="UY2"/>
-      <c r="UZ2"/>
-      <c r="VA2"/>
-      <c r="VB2"/>
-      <c r="VC2"/>
-      <c r="VD2"/>
-      <c r="VE2"/>
-      <c r="VF2"/>
-      <c r="VG2"/>
-      <c r="VH2"/>
-      <c r="VI2"/>
-      <c r="VJ2"/>
-      <c r="VK2"/>
-      <c r="VL2"/>
-      <c r="VM2"/>
-      <c r="VN2"/>
-      <c r="VO2"/>
-      <c r="VP2"/>
-      <c r="VQ2"/>
-      <c r="VR2"/>
-      <c r="VS2"/>
-      <c r="VT2"/>
-      <c r="VU2"/>
-      <c r="VV2"/>
-      <c r="VW2"/>
-      <c r="VX2"/>
-      <c r="VY2"/>
-      <c r="VZ2"/>
-      <c r="WA2"/>
-      <c r="WB2"/>
-      <c r="WC2"/>
-      <c r="WD2"/>
-      <c r="WE2"/>
-      <c r="WF2"/>
-      <c r="WG2"/>
-      <c r="WH2"/>
-      <c r="WI2"/>
-      <c r="WJ2"/>
-      <c r="WK2"/>
-      <c r="WL2"/>
-      <c r="WM2"/>
-      <c r="WN2"/>
-      <c r="WO2"/>
-      <c r="WP2"/>
-      <c r="WQ2"/>
-      <c r="WR2"/>
-      <c r="WS2"/>
-      <c r="WT2"/>
-      <c r="WU2"/>
-      <c r="WV2"/>
-      <c r="WW2"/>
-      <c r="WX2"/>
-      <c r="WY2"/>
-      <c r="WZ2"/>
-      <c r="XA2"/>
-      <c r="XB2"/>
-      <c r="XC2"/>
-      <c r="XD2"/>
-      <c r="XE2"/>
-      <c r="XF2"/>
-      <c r="XG2"/>
-      <c r="XH2"/>
-      <c r="XI2"/>
-      <c r="XJ2"/>
-      <c r="XK2"/>
-      <c r="XL2"/>
-      <c r="XM2"/>
-      <c r="XN2"/>
-      <c r="XO2"/>
-      <c r="XP2"/>
-      <c r="XQ2"/>
-      <c r="XR2"/>
-      <c r="XS2"/>
-      <c r="XT2"/>
-      <c r="XU2"/>
-      <c r="XV2"/>
-      <c r="XW2"/>
-      <c r="XX2"/>
-      <c r="XY2"/>
-      <c r="XZ2"/>
-      <c r="YA2"/>
-      <c r="YB2"/>
-      <c r="YC2"/>
-      <c r="YD2"/>
-      <c r="YE2"/>
-      <c r="YF2"/>
-      <c r="YG2"/>
-      <c r="YH2"/>
-      <c r="YI2"/>
-      <c r="YJ2"/>
-      <c r="YK2"/>
-      <c r="YL2"/>
-      <c r="YM2"/>
-      <c r="YN2"/>
-      <c r="YO2"/>
-      <c r="YP2"/>
-      <c r="YQ2"/>
-      <c r="YR2"/>
-      <c r="YS2"/>
-      <c r="YT2"/>
-      <c r="YU2"/>
-      <c r="YV2"/>
-      <c r="YW2"/>
-      <c r="YX2"/>
-      <c r="YY2"/>
-      <c r="YZ2"/>
-      <c r="ZA2"/>
-      <c r="ZB2"/>
-      <c r="ZC2"/>
-      <c r="ZD2"/>
-      <c r="ZE2"/>
-      <c r="ZF2"/>
-      <c r="ZG2"/>
-      <c r="ZH2"/>
-      <c r="ZI2"/>
-      <c r="ZJ2"/>
-      <c r="ZK2"/>
-      <c r="ZL2"/>
-      <c r="ZM2"/>
-      <c r="ZN2"/>
-      <c r="ZO2"/>
-      <c r="ZP2"/>
-      <c r="ZQ2"/>
-      <c r="ZR2"/>
-      <c r="ZS2"/>
-      <c r="ZT2"/>
-      <c r="ZU2"/>
-      <c r="ZV2"/>
-      <c r="ZW2"/>
-      <c r="ZX2"/>
-      <c r="ZY2"/>
-      <c r="ZZ2"/>
-      <c r="AAA2"/>
-      <c r="AAB2"/>
-      <c r="AAC2"/>
-      <c r="AAD2"/>
-      <c r="AAE2"/>
-      <c r="AAF2"/>
-      <c r="AAG2"/>
-      <c r="AAH2"/>
-      <c r="AAI2"/>
-      <c r="AAJ2"/>
-      <c r="AAK2"/>
-      <c r="AAL2"/>
-      <c r="AAM2"/>
-      <c r="AAN2"/>
-      <c r="AAO2"/>
-      <c r="AAP2"/>
-      <c r="AAQ2"/>
-      <c r="AAR2"/>
-      <c r="AAS2"/>
-      <c r="AAT2"/>
-      <c r="AAU2"/>
-      <c r="AAV2"/>
-      <c r="AAW2"/>
-      <c r="AAX2"/>
-      <c r="AAY2"/>
-      <c r="AAZ2"/>
-      <c r="ABA2"/>
-      <c r="ABB2"/>
-      <c r="ABC2"/>
-      <c r="ABD2"/>
-      <c r="ABE2"/>
-      <c r="ABF2"/>
-      <c r="ABG2"/>
-      <c r="ABH2"/>
-      <c r="ABI2"/>
-      <c r="ABJ2"/>
-      <c r="ABK2"/>
-      <c r="ABL2"/>
-      <c r="ABM2"/>
-      <c r="ABN2"/>
-      <c r="ABO2"/>
-      <c r="ABP2"/>
-      <c r="ABQ2"/>
-      <c r="ABR2"/>
-      <c r="ABS2"/>
-      <c r="ABT2"/>
-      <c r="ABU2"/>
-      <c r="ABV2"/>
-      <c r="ABW2"/>
-      <c r="ABX2"/>
-      <c r="ABY2"/>
-      <c r="ABZ2"/>
-      <c r="ACA2"/>
-      <c r="ACB2"/>
-      <c r="ACC2"/>
-      <c r="ACD2"/>
-      <c r="ACE2"/>
-      <c r="ACF2"/>
-      <c r="ACG2"/>
-      <c r="ACH2"/>
-      <c r="ACI2"/>
-      <c r="ACJ2"/>
-      <c r="ACK2"/>
-      <c r="ACL2"/>
-      <c r="ACM2"/>
-      <c r="ACN2"/>
-      <c r="ACO2"/>
-      <c r="ACP2"/>
-      <c r="ACQ2"/>
-      <c r="ACR2"/>
-      <c r="ACS2"/>
-      <c r="ACT2"/>
-      <c r="ACU2"/>
-      <c r="ACV2"/>
-      <c r="ACW2"/>
-      <c r="ACX2"/>
-      <c r="ACY2"/>
-      <c r="ACZ2"/>
-      <c r="ADA2"/>
-      <c r="ADB2"/>
-      <c r="ADC2"/>
-      <c r="ADD2"/>
-      <c r="ADE2"/>
-      <c r="ADF2"/>
-      <c r="ADG2"/>
-      <c r="ADH2"/>
-      <c r="ADI2"/>
-      <c r="ADJ2"/>
-      <c r="ADK2"/>
-      <c r="ADL2"/>
-      <c r="ADM2"/>
-      <c r="ADN2"/>
-      <c r="ADO2"/>
-      <c r="ADP2"/>
-      <c r="ADQ2"/>
-      <c r="ADR2"/>
-      <c r="ADS2"/>
-      <c r="ADT2"/>
-      <c r="ADU2"/>
-      <c r="ADV2"/>
-      <c r="ADW2"/>
-      <c r="ADX2"/>
-      <c r="ADY2"/>
-      <c r="ADZ2"/>
-      <c r="AEA2"/>
-      <c r="AEB2"/>
-      <c r="AEC2"/>
-      <c r="AED2"/>
-      <c r="AEE2"/>
-      <c r="AEF2"/>
-      <c r="AEG2"/>
-      <c r="AEH2"/>
-      <c r="AEI2"/>
-      <c r="AEJ2"/>
-      <c r="AEK2"/>
-      <c r="AEL2"/>
-      <c r="AEM2"/>
-      <c r="AEN2"/>
-      <c r="AEO2"/>
-      <c r="AEP2"/>
-      <c r="AEQ2"/>
-      <c r="AER2"/>
-      <c r="AES2"/>
-      <c r="AET2"/>
-      <c r="AEU2"/>
-      <c r="AEV2"/>
-      <c r="AEW2"/>
-      <c r="AEX2"/>
-      <c r="AEY2"/>
-      <c r="AEZ2"/>
-      <c r="AFA2"/>
-      <c r="AFB2"/>
-      <c r="AFC2"/>
-      <c r="AFD2"/>
-      <c r="AFE2"/>
-      <c r="AFF2"/>
-      <c r="AFG2"/>
-      <c r="AFH2"/>
-      <c r="AFI2"/>
-      <c r="AFJ2"/>
-      <c r="AFK2"/>
-      <c r="AFL2"/>
-      <c r="AFM2"/>
-      <c r="AFN2"/>
-      <c r="AFO2"/>
-      <c r="AFP2"/>
-      <c r="AFQ2"/>
-      <c r="AFR2"/>
-      <c r="AFS2"/>
-      <c r="AFT2"/>
-      <c r="AFU2"/>
-      <c r="AFV2"/>
-      <c r="AFW2"/>
-      <c r="AFX2"/>
-      <c r="AFY2"/>
-      <c r="AFZ2"/>
-      <c r="AGA2"/>
-      <c r="AGB2"/>
-      <c r="AGC2"/>
-      <c r="AGD2"/>
-      <c r="AGE2"/>
-      <c r="AGF2"/>
-      <c r="AGG2"/>
-      <c r="AGH2"/>
-      <c r="AGI2"/>
-      <c r="AGJ2"/>
-      <c r="AGK2"/>
-      <c r="AGL2"/>
-      <c r="AGM2"/>
-      <c r="AGN2"/>
-      <c r="AGO2"/>
-      <c r="AGP2"/>
-      <c r="AGQ2"/>
-      <c r="AGR2"/>
-      <c r="AGS2"/>
-      <c r="AGT2"/>
-      <c r="AGU2"/>
-      <c r="AGV2"/>
-      <c r="AGW2"/>
-      <c r="AGX2"/>
-      <c r="AGY2"/>
-      <c r="AGZ2"/>
-      <c r="AHA2"/>
-      <c r="AHB2"/>
-      <c r="AHC2"/>
-      <c r="AHD2"/>
-      <c r="AHE2"/>
-      <c r="AHF2"/>
-      <c r="AHG2"/>
-      <c r="AHH2"/>
-      <c r="AHI2"/>
-      <c r="AHJ2"/>
-      <c r="AHK2"/>
-      <c r="AHL2"/>
-      <c r="AHM2"/>
-      <c r="AHN2"/>
-      <c r="AHO2"/>
-      <c r="AHP2"/>
-      <c r="AHQ2"/>
-      <c r="AHR2"/>
-      <c r="AHS2"/>
-      <c r="AHT2"/>
-      <c r="AHU2"/>
-      <c r="AHV2"/>
-      <c r="AHW2"/>
-      <c r="AHX2"/>
-      <c r="AHY2"/>
-      <c r="AHZ2"/>
-      <c r="AIA2"/>
-      <c r="AIB2"/>
-      <c r="AIC2"/>
-      <c r="AID2"/>
-      <c r="AIE2"/>
-      <c r="AIF2"/>
-      <c r="AIG2"/>
-      <c r="AIH2"/>
-      <c r="AII2"/>
-      <c r="AIJ2"/>
-      <c r="AIK2"/>
-      <c r="AIL2"/>
-      <c r="AIM2"/>
-      <c r="AIN2"/>
-      <c r="AIO2"/>
-      <c r="AIP2"/>
-      <c r="AIQ2"/>
-      <c r="AIR2"/>
-      <c r="AIS2"/>
-      <c r="AIT2"/>
-      <c r="AIU2"/>
-      <c r="AIV2"/>
-      <c r="AIW2"/>
-      <c r="AIX2"/>
-      <c r="AIY2"/>
-      <c r="AIZ2"/>
-      <c r="AJA2"/>
-      <c r="AJB2"/>
-      <c r="AJC2"/>
-      <c r="AJD2"/>
-      <c r="AJE2"/>
-      <c r="AJF2"/>
-      <c r="AJG2"/>
-      <c r="AJH2"/>
-      <c r="AJI2"/>
-      <c r="AJJ2"/>
-      <c r="AJK2"/>
-      <c r="AJL2"/>
-      <c r="AJM2"/>
-      <c r="AJN2"/>
-      <c r="AJO2"/>
-      <c r="AJP2"/>
-      <c r="AJQ2"/>
-      <c r="AJR2"/>
-      <c r="AJS2"/>
-      <c r="AJT2"/>
-      <c r="AJU2"/>
-      <c r="AJV2"/>
-      <c r="AJW2"/>
-      <c r="AJX2"/>
-      <c r="AJY2"/>
-      <c r="AJZ2"/>
-      <c r="AKA2"/>
-      <c r="AKB2"/>
-      <c r="AKC2"/>
-      <c r="AKD2"/>
-      <c r="AKE2"/>
-      <c r="AKF2"/>
-      <c r="AKG2"/>
-      <c r="AKH2"/>
-      <c r="AKI2"/>
-      <c r="AKJ2"/>
-      <c r="AKK2"/>
-      <c r="AKL2"/>
-      <c r="AKM2"/>
-      <c r="AKN2"/>
-      <c r="AKO2"/>
-      <c r="AKP2"/>
-      <c r="AKQ2"/>
-      <c r="AKR2"/>
-      <c r="AKS2"/>
-      <c r="AKT2"/>
-      <c r="AKU2"/>
-      <c r="AKV2"/>
-      <c r="AKW2"/>
-      <c r="AKX2"/>
-      <c r="AKY2"/>
-      <c r="AKZ2"/>
-      <c r="ALA2"/>
-      <c r="ALB2"/>
-      <c r="ALC2"/>
-      <c r="ALD2"/>
-      <c r="ALE2"/>
-      <c r="ALF2"/>
-      <c r="ALG2"/>
-      <c r="ALH2"/>
-      <c r="ALI2"/>
-      <c r="ALJ2"/>
-      <c r="ALK2"/>
-      <c r="ALL2"/>
-      <c r="ALM2"/>
-      <c r="ALN2"/>
-      <c r="ALO2"/>
-      <c r="ALP2"/>
-      <c r="ALQ2"/>
-      <c r="ALR2"/>
-      <c r="ALS2"/>
-      <c r="ALT2"/>
-      <c r="ALU2"/>
-      <c r="ALV2"/>
-      <c r="ALW2"/>
-      <c r="ALX2"/>
-      <c r="ALY2"/>
-      <c r="ALZ2"/>
-      <c r="AMA2"/>
-      <c r="AMB2"/>
-      <c r="AMC2"/>
-      <c r="AMD2"/>
-      <c r="AME2"/>
-      <c r="AMF2"/>
-      <c r="AMG2"/>
-      <c r="AMH2"/>
-      <c r="AMI2"/>
-      <c r="AMJ2"/>
-      <c r="AMK2"/>
     </row>
     <row r="3" spans="1:1025" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
@@ -2247,13 +1294,13 @@
         <v>41</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>43</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>45</v>
@@ -2277,7 +1324,7 @@
       <c r="O3" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="P3" s="9" t="s">
+      <c r="P3" s="10" t="s">
         <v>52</v>
       </c>
       <c r="Q3" s="2"/>
@@ -2340,28 +1387,30 @@
       <c r="AL3" s="1"/>
       <c r="AM3" s="3"/>
     </row>
-    <row r="4" spans="1:1025" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:1025" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>39</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>40</v>
-      </c>
+        <v>192</v>
+      </c>
+      <c r="C4" s="1"/>
       <c r="D4" s="1" t="s">
         <v>41</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>42</v>
+        <v>198</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>43</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>44</v>
+        <v>194</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>45</v>
       </c>
+      <c r="I4" s="1"/>
       <c r="J4" s="1" t="s">
         <v>46</v>
       </c>
@@ -2383,6 +1432,8 @@
       <c r="P4" s="9" t="s">
         <v>52</v>
       </c>
+      <c r="Q4" s="2"/>
+      <c r="R4" s="3"/>
       <c r="S4" s="2">
         <v>150</v>
       </c>
@@ -2437,37 +1488,42 @@
       <c r="AJ4" s="1" t="s">
         <v>60</v>
       </c>
+      <c r="AK4" s="1"/>
+      <c r="AL4" s="1"/>
+      <c r="AM4" s="3"/>
     </row>
-    <row r="5" spans="1:1025" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:1025" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>39</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>40</v>
-      </c>
+        <v>192</v>
+      </c>
+      <c r="C5" s="1"/>
       <c r="D5" s="1" t="s">
         <v>41</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>61</v>
+        <v>199</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>43</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>62</v>
+        <v>195</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>63</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="I5" s="1"/>
       <c r="J5" s="1" t="s">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>65</v>
+        <v>47</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>66</v>
+        <v>48</v>
       </c>
       <c r="M5" s="1" t="s">
         <v>49</v>
@@ -2475,854 +1531,1991 @@
       <c r="N5" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="P5" s="9" t="s">
+      <c r="O5" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="P5" s="10" t="s">
         <v>52</v>
       </c>
+      <c r="Q5" s="2"/>
+      <c r="R5" s="3"/>
       <c r="S5" s="2">
-        <v>1500</v>
+        <v>150</v>
       </c>
       <c r="T5" s="3">
-        <v>42781</v>
+        <v>42951</v>
       </c>
       <c r="U5" s="1" t="s">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="V5" s="1" t="s">
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="W5" s="1" t="s">
-        <v>69</v>
+        <v>55</v>
       </c>
       <c r="X5" s="2">
-        <v>60</v>
+        <v>30.49</v>
       </c>
       <c r="Y5" s="3">
-        <v>38345</v>
+        <v>35993</v>
       </c>
       <c r="Z5" s="2">
-        <v>3510</v>
+        <v>6706.47</v>
       </c>
       <c r="AA5" s="4">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="AB5" s="2">
-        <v>2500</v>
+        <v>5150</v>
       </c>
       <c r="AC5" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AD5" s="2">
-        <v>1375</v>
+        <v>300</v>
       </c>
       <c r="AE5" s="4">
         <v>2</v>
+      </c>
+      <c r="AF5" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG5" s="1" t="s">
+        <v>57</v>
       </c>
       <c r="AH5" s="1" t="s">
         <v>58</v>
       </c>
       <c r="AI5" s="1" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="AJ5" s="1" t="s">
         <v>60</v>
       </c>
+      <c r="AK5" s="1"/>
+      <c r="AL5" s="1"/>
+      <c r="AM5" s="3"/>
     </row>
-    <row r="6" spans="1:1025" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:1025" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>39</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>71</v>
-      </c>
+        <v>192</v>
+      </c>
+      <c r="C6" s="1"/>
       <c r="D6" s="1" t="s">
         <v>41</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>72</v>
+        <v>200</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>73</v>
+        <v>43</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>74</v>
+        <v>195</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>75</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="I6" s="1"/>
       <c r="J6" s="1" t="s">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>65</v>
+        <v>47</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>76</v>
+        <v>48</v>
       </c>
       <c r="M6" s="1" t="s">
         <v>49</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="P6" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="O6" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="P6" s="10" t="s">
         <v>52</v>
       </c>
+      <c r="Q6" s="2"/>
+      <c r="R6" s="3"/>
       <c r="S6" s="2">
-        <v>1501</v>
+        <v>150</v>
       </c>
       <c r="T6" s="3">
-        <v>42782</v>
+        <v>42951</v>
       </c>
       <c r="U6" s="1" t="s">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="V6" s="1" t="s">
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="W6" s="1" t="s">
-        <v>69</v>
+        <v>55</v>
       </c>
       <c r="X6" s="2">
-        <v>61</v>
+        <v>30.49</v>
       </c>
       <c r="Y6" s="3">
-        <v>38346</v>
+        <v>35993</v>
       </c>
       <c r="Z6" s="2">
-        <v>3510</v>
+        <v>6706.47</v>
       </c>
       <c r="AA6" s="4">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="AB6" s="2">
-        <v>2500</v>
+        <v>5150</v>
       </c>
       <c r="AC6" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AD6" s="2">
-        <v>1375</v>
+        <v>300</v>
       </c>
       <c r="AE6" s="4">
         <v>2</v>
+      </c>
+      <c r="AF6" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG6" s="1" t="s">
+        <v>57</v>
       </c>
       <c r="AH6" s="1" t="s">
         <v>58</v>
       </c>
       <c r="AI6" s="1" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="AJ6" s="1" t="s">
         <v>60</v>
       </c>
+      <c r="AK6" s="1"/>
+      <c r="AL6" s="1"/>
+      <c r="AM6" s="3"/>
     </row>
-    <row r="7" spans="1:1025" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:1025" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>39</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>78</v>
-      </c>
+        <v>192</v>
+      </c>
+      <c r="C7" s="1"/>
       <c r="D7" s="1" t="s">
         <v>41</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>79</v>
+        <v>201</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>73</v>
+        <v>43</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>80</v>
+        <v>194</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>81</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="I7" s="1"/>
       <c r="J7" s="1" t="s">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>65</v>
+        <v>47</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>82</v>
+        <v>48</v>
       </c>
       <c r="M7" s="1" t="s">
         <v>49</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>83</v>
+        <v>50</v>
+      </c>
+      <c r="O7" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="P7" s="9" t="s">
         <v>52</v>
       </c>
+      <c r="Q7" s="2"/>
+      <c r="R7" s="3"/>
       <c r="S7" s="2">
-        <v>1502</v>
+        <v>150</v>
       </c>
       <c r="T7" s="3">
-        <v>42783</v>
+        <v>42951</v>
       </c>
       <c r="U7" s="1" t="s">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="V7" s="1" t="s">
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="W7" s="1" t="s">
-        <v>69</v>
+        <v>55</v>
       </c>
       <c r="X7" s="2">
-        <v>62</v>
+        <v>30.49</v>
       </c>
       <c r="Y7" s="3">
-        <v>38347</v>
+        <v>35993</v>
       </c>
       <c r="Z7" s="2">
-        <v>3510</v>
+        <v>6706.47</v>
       </c>
       <c r="AA7" s="4">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="AB7" s="2">
-        <v>2500</v>
+        <v>5150</v>
       </c>
       <c r="AC7" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AD7" s="2">
-        <v>1375</v>
+        <v>300</v>
       </c>
       <c r="AE7" s="4">
         <v>2</v>
+      </c>
+      <c r="AF7" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG7" s="1" t="s">
+        <v>57</v>
       </c>
       <c r="AH7" s="1" t="s">
         <v>58</v>
       </c>
       <c r="AI7" s="1" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="AJ7" s="1" t="s">
         <v>60</v>
       </c>
+      <c r="AK7" s="1"/>
+      <c r="AL7" s="1"/>
+      <c r="AM7" s="3"/>
     </row>
-    <row r="8" spans="1:1025" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:1025" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>39</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>84</v>
-      </c>
+        <v>192</v>
+      </c>
+      <c r="C8" s="1"/>
       <c r="D8" s="1" t="s">
         <v>41</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>85</v>
+        <v>202</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>43</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>86</v>
+        <v>195</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>87</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="I8" s="1"/>
       <c r="J8" s="1" t="s">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>65</v>
+        <v>47</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>88</v>
+        <v>48</v>
       </c>
       <c r="M8" s="1" t="s">
         <v>49</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="P8" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="O8" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="P8" s="10" t="s">
         <v>52</v>
       </c>
+      <c r="Q8" s="2"/>
+      <c r="R8" s="3"/>
       <c r="S8" s="2">
-        <v>1503</v>
+        <v>150</v>
       </c>
       <c r="T8" s="3">
-        <v>42784</v>
+        <v>42951</v>
       </c>
       <c r="U8" s="1" t="s">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="V8" s="1" t="s">
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="W8" s="1" t="s">
-        <v>69</v>
+        <v>55</v>
       </c>
       <c r="X8" s="2">
-        <v>63</v>
+        <v>30.49</v>
       </c>
       <c r="Y8" s="3">
-        <v>38348</v>
+        <v>35993</v>
       </c>
       <c r="Z8" s="2">
-        <v>3510</v>
+        <v>6706.47</v>
       </c>
       <c r="AA8" s="4">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="AB8" s="2">
-        <v>2500</v>
+        <v>5150</v>
       </c>
       <c r="AC8" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AD8" s="2">
-        <v>1375</v>
+        <v>300</v>
       </c>
       <c r="AE8" s="4">
         <v>2</v>
+      </c>
+      <c r="AF8" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG8" s="1" t="s">
+        <v>57</v>
       </c>
       <c r="AH8" s="1" t="s">
         <v>58</v>
       </c>
       <c r="AI8" s="1" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="AJ8" s="1" t="s">
         <v>60</v>
       </c>
+      <c r="AK8" s="1"/>
+      <c r="AL8" s="1"/>
+      <c r="AM8" s="3"/>
     </row>
-    <row r="9" spans="1:1025" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:1025" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>39</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>90</v>
-      </c>
+        <v>192</v>
+      </c>
+      <c r="C9" s="1"/>
       <c r="D9" s="1" t="s">
         <v>41</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>91</v>
+        <v>203</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>73</v>
+        <v>43</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>92</v>
+        <v>195</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>93</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="I9" s="1"/>
       <c r="J9" s="1" t="s">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>65</v>
+        <v>47</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>94</v>
+        <v>48</v>
       </c>
       <c r="M9" s="1" t="s">
         <v>49</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="P9" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="O9" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="P9" s="10" t="s">
         <v>52</v>
       </c>
+      <c r="Q9" s="2"/>
+      <c r="R9" s="3"/>
       <c r="S9" s="2">
-        <v>1504</v>
+        <v>150</v>
       </c>
       <c r="T9" s="3">
-        <v>42785</v>
+        <v>42951</v>
       </c>
       <c r="U9" s="1" t="s">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="V9" s="1" t="s">
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="W9" s="1" t="s">
-        <v>69</v>
+        <v>55</v>
       </c>
       <c r="X9" s="2">
-        <v>64</v>
+        <v>30.49</v>
       </c>
       <c r="Y9" s="3">
-        <v>38349</v>
+        <v>35993</v>
       </c>
       <c r="Z9" s="2">
-        <v>3510</v>
+        <v>6706.47</v>
       </c>
       <c r="AA9" s="4">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="AB9" s="2">
-        <v>2500</v>
+        <v>5150</v>
       </c>
       <c r="AC9" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AD9" s="2">
-        <v>1375</v>
+        <v>300</v>
       </c>
       <c r="AE9" s="4">
         <v>2</v>
+      </c>
+      <c r="AF9" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG9" s="1" t="s">
+        <v>57</v>
       </c>
       <c r="AH9" s="1" t="s">
         <v>58</v>
       </c>
       <c r="AI9" s="1" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="AJ9" s="1" t="s">
         <v>60</v>
       </c>
+      <c r="AK9" s="1"/>
+      <c r="AL9" s="1"/>
+      <c r="AM9" s="3"/>
     </row>
-    <row r="10" spans="1:1025" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:1025" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>39</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>96</v>
-      </c>
+        <v>192</v>
+      </c>
+      <c r="C10" s="1"/>
       <c r="D10" s="1" t="s">
         <v>41</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>97</v>
+        <v>204</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>43</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>98</v>
+        <v>194</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>99</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="I10" s="1"/>
       <c r="J10" s="1" t="s">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>65</v>
+        <v>47</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>100</v>
+        <v>48</v>
       </c>
       <c r="M10" s="1" t="s">
         <v>49</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>101</v>
+        <v>50</v>
+      </c>
+      <c r="O10" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="P10" s="9" t="s">
         <v>52</v>
       </c>
+      <c r="Q10" s="2"/>
+      <c r="R10" s="3"/>
       <c r="S10" s="2">
-        <v>1505</v>
+        <v>150</v>
       </c>
       <c r="T10" s="3">
-        <v>42786</v>
+        <v>42951</v>
       </c>
       <c r="U10" s="1" t="s">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="V10" s="1" t="s">
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="W10" s="1" t="s">
-        <v>69</v>
+        <v>55</v>
       </c>
       <c r="X10" s="2">
-        <v>65</v>
+        <v>30.49</v>
       </c>
       <c r="Y10" s="3">
-        <v>38350</v>
+        <v>35993</v>
       </c>
       <c r="Z10" s="2">
-        <v>3510</v>
+        <v>6706.47</v>
       </c>
       <c r="AA10" s="4">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="AB10" s="2">
-        <v>2500</v>
+        <v>5150</v>
       </c>
       <c r="AC10" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AD10" s="2">
-        <v>1375</v>
+        <v>300</v>
       </c>
       <c r="AE10" s="4">
         <v>2</v>
+      </c>
+      <c r="AF10" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG10" s="1" t="s">
+        <v>57</v>
       </c>
       <c r="AH10" s="1" t="s">
         <v>58</v>
       </c>
       <c r="AI10" s="1" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="AJ10" s="1" t="s">
         <v>60</v>
       </c>
+      <c r="AK10" s="1"/>
+      <c r="AL10" s="1"/>
+      <c r="AM10" s="3"/>
     </row>
-    <row r="11" spans="1:1025" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:1025" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>39</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>102</v>
-      </c>
+        <v>192</v>
+      </c>
+      <c r="C11" s="1"/>
       <c r="D11" s="1" t="s">
         <v>41</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>103</v>
+        <v>205</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>43</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>104</v>
+        <v>195</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>105</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="I11" s="1"/>
       <c r="J11" s="1" t="s">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>65</v>
+        <v>47</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>106</v>
+        <v>48</v>
       </c>
       <c r="M11" s="1" t="s">
         <v>49</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="P11" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="O11" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="P11" s="10" t="s">
         <v>52</v>
       </c>
+      <c r="Q11" s="2"/>
+      <c r="R11" s="3"/>
       <c r="S11" s="2">
-        <v>1506</v>
+        <v>150</v>
       </c>
       <c r="T11" s="3">
-        <v>42787</v>
+        <v>42951</v>
       </c>
       <c r="U11" s="1" t="s">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="V11" s="1" t="s">
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="W11" s="1" t="s">
-        <v>69</v>
+        <v>55</v>
       </c>
       <c r="X11" s="2">
-        <v>66</v>
+        <v>30.49</v>
       </c>
       <c r="Y11" s="3">
-        <v>38351</v>
+        <v>35993</v>
       </c>
       <c r="Z11" s="2">
-        <v>3510</v>
+        <v>6706.47</v>
       </c>
       <c r="AA11" s="4">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="AB11" s="2">
-        <v>2500</v>
+        <v>5150</v>
       </c>
       <c r="AC11" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AD11" s="2">
-        <v>1375</v>
+        <v>300</v>
       </c>
       <c r="AE11" s="4">
         <v>2</v>
+      </c>
+      <c r="AF11" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG11" s="1" t="s">
+        <v>57</v>
       </c>
       <c r="AH11" s="1" t="s">
         <v>58</v>
       </c>
       <c r="AI11" s="1" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="AJ11" s="1" t="s">
         <v>60</v>
       </c>
+      <c r="AK11" s="1"/>
+      <c r="AL11" s="1"/>
+      <c r="AM11" s="3"/>
     </row>
-    <row r="12" spans="1:1025" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:1025" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>39</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>108</v>
-      </c>
+        <v>192</v>
+      </c>
+      <c r="C12" s="1"/>
       <c r="D12" s="1" t="s">
         <v>41</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>109</v>
+        <v>206</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>43</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>110</v>
+        <v>195</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>111</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="I12" s="1"/>
       <c r="J12" s="1" t="s">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>65</v>
+        <v>47</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>112</v>
+        <v>48</v>
       </c>
       <c r="M12" s="1" t="s">
         <v>49</v>
       </c>
       <c r="N12" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="P12" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="O12" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="P12" s="10" t="s">
         <v>52</v>
       </c>
+      <c r="Q12" s="2"/>
+      <c r="R12" s="3"/>
       <c r="S12" s="2">
-        <v>1507</v>
+        <v>150</v>
       </c>
       <c r="T12" s="3">
-        <v>42788</v>
+        <v>42951</v>
       </c>
       <c r="U12" s="1" t="s">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="V12" s="1" t="s">
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="W12" s="1" t="s">
-        <v>69</v>
+        <v>55</v>
       </c>
       <c r="X12" s="2">
-        <v>67</v>
+        <v>30.49</v>
       </c>
       <c r="Y12" s="3">
-        <v>38352</v>
+        <v>35993</v>
       </c>
       <c r="Z12" s="2">
-        <v>3510</v>
-      </c>
-      <c r="AA12" s="4">
-        <v>5</v>
+        <v>6706.47</v>
+      </c>
+      <c r="AA12">
+        <v>18</v>
       </c>
       <c r="AB12" s="2">
-        <v>2500</v>
-      </c>
-      <c r="AC12" s="4">
-        <v>2</v>
+        <v>5150</v>
+      </c>
+      <c r="AC12">
+        <v>3</v>
       </c>
       <c r="AD12" s="2">
-        <v>1375</v>
-      </c>
-      <c r="AE12" s="4">
-        <v>2</v>
+        <v>300</v>
+      </c>
+      <c r="AE12">
+        <v>2</v>
+      </c>
+      <c r="AF12" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG12" s="1" t="s">
+        <v>57</v>
       </c>
       <c r="AH12" s="1" t="s">
         <v>58</v>
       </c>
       <c r="AI12" s="1" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="AJ12" s="1" t="s">
         <v>60</v>
       </c>
+      <c r="AK12" s="1"/>
+      <c r="AL12" s="1"/>
+      <c r="AM12" s="3"/>
+      <c r="AN12"/>
+      <c r="AO12"/>
+      <c r="AP12"/>
+      <c r="AQ12"/>
+      <c r="AR12"/>
+      <c r="AS12"/>
+      <c r="AT12"/>
+      <c r="AU12"/>
+      <c r="AV12"/>
+      <c r="AW12"/>
+      <c r="AX12"/>
+      <c r="AY12"/>
+      <c r="AZ12"/>
+      <c r="BA12"/>
+      <c r="BB12"/>
+      <c r="BC12"/>
+      <c r="BD12"/>
+      <c r="BE12"/>
+      <c r="BF12"/>
+      <c r="BG12"/>
+      <c r="BH12"/>
+      <c r="BI12"/>
+      <c r="BJ12"/>
+      <c r="BK12"/>
+      <c r="BL12"/>
+      <c r="BM12"/>
+      <c r="BN12"/>
+      <c r="BO12"/>
+      <c r="BP12"/>
+      <c r="BQ12"/>
+      <c r="BR12"/>
+      <c r="BS12"/>
+      <c r="BT12"/>
+      <c r="BU12"/>
+      <c r="BV12"/>
+      <c r="BW12"/>
+      <c r="BX12"/>
+      <c r="BY12"/>
+      <c r="BZ12"/>
+      <c r="CA12"/>
+      <c r="CB12"/>
+      <c r="CC12"/>
+      <c r="CD12"/>
+      <c r="CE12"/>
+      <c r="CF12"/>
+      <c r="CG12"/>
+      <c r="CH12"/>
+      <c r="CI12"/>
+      <c r="CJ12"/>
+      <c r="CK12"/>
+      <c r="CL12"/>
+      <c r="CM12"/>
+      <c r="CN12"/>
+      <c r="CO12"/>
+      <c r="CP12"/>
+      <c r="CQ12"/>
+      <c r="CR12"/>
+      <c r="CS12"/>
+      <c r="CT12"/>
+      <c r="CU12"/>
+      <c r="CV12"/>
+      <c r="CW12"/>
+      <c r="CX12"/>
+      <c r="CY12"/>
+      <c r="CZ12"/>
+      <c r="DA12"/>
+      <c r="DB12"/>
+      <c r="DC12"/>
+      <c r="DD12"/>
+      <c r="DE12"/>
+      <c r="DF12"/>
+      <c r="DG12"/>
+      <c r="DH12"/>
+      <c r="DI12"/>
+      <c r="DJ12"/>
+      <c r="DK12"/>
+      <c r="DL12"/>
+      <c r="DM12"/>
+      <c r="DN12"/>
+      <c r="DO12"/>
+      <c r="DP12"/>
+      <c r="DQ12"/>
+      <c r="DR12"/>
+      <c r="DS12"/>
+      <c r="DT12"/>
+      <c r="DU12"/>
+      <c r="DV12"/>
+      <c r="DW12"/>
+      <c r="DX12"/>
+      <c r="DY12"/>
+      <c r="DZ12"/>
+      <c r="EA12"/>
+      <c r="EB12"/>
+      <c r="EC12"/>
+      <c r="ED12"/>
+      <c r="EE12"/>
+      <c r="EF12"/>
+      <c r="EG12"/>
+      <c r="EH12"/>
+      <c r="EI12"/>
+      <c r="EJ12"/>
+      <c r="EK12"/>
+      <c r="EL12"/>
+      <c r="EM12"/>
+      <c r="EN12"/>
+      <c r="EO12"/>
+      <c r="EP12"/>
+      <c r="EQ12"/>
+      <c r="ER12"/>
+      <c r="ES12"/>
+      <c r="ET12"/>
+      <c r="EU12"/>
+      <c r="EV12"/>
+      <c r="EW12"/>
+      <c r="EX12"/>
+      <c r="EY12"/>
+      <c r="EZ12"/>
+      <c r="FA12"/>
+      <c r="FB12"/>
+      <c r="FC12"/>
+      <c r="FD12"/>
+      <c r="FE12"/>
+      <c r="FF12"/>
+      <c r="FG12"/>
+      <c r="FH12"/>
+      <c r="FI12"/>
+      <c r="FJ12"/>
+      <c r="FK12"/>
+      <c r="FL12"/>
+      <c r="FM12"/>
+      <c r="FN12"/>
+      <c r="FO12"/>
+      <c r="FP12"/>
+      <c r="FQ12"/>
+      <c r="FR12"/>
+      <c r="FS12"/>
+      <c r="FT12"/>
+      <c r="FU12"/>
+      <c r="FV12"/>
+      <c r="FW12"/>
+      <c r="FX12"/>
+      <c r="FY12"/>
+      <c r="FZ12"/>
+      <c r="GA12"/>
+      <c r="GB12"/>
+      <c r="GC12"/>
+      <c r="GD12"/>
+      <c r="GE12"/>
+      <c r="GF12"/>
+      <c r="GG12"/>
+      <c r="GH12"/>
+      <c r="GI12"/>
+      <c r="GJ12"/>
+      <c r="GK12"/>
+      <c r="GL12"/>
+      <c r="GM12"/>
+      <c r="GN12"/>
+      <c r="GO12"/>
+      <c r="GP12"/>
+      <c r="GQ12"/>
+      <c r="GR12"/>
+      <c r="GS12"/>
+      <c r="GT12"/>
+      <c r="GU12"/>
+      <c r="GV12"/>
+      <c r="GW12"/>
+      <c r="GX12"/>
+      <c r="GY12"/>
+      <c r="GZ12"/>
+      <c r="HA12"/>
+      <c r="HB12"/>
+      <c r="HC12"/>
+      <c r="HD12"/>
+      <c r="HE12"/>
+      <c r="HF12"/>
+      <c r="HG12"/>
+      <c r="HH12"/>
+      <c r="HI12"/>
+      <c r="HJ12"/>
+      <c r="HK12"/>
+      <c r="HL12"/>
+      <c r="HM12"/>
+      <c r="HN12"/>
+      <c r="HO12"/>
+      <c r="HP12"/>
+      <c r="HQ12"/>
+      <c r="HR12"/>
+      <c r="HS12"/>
+      <c r="HT12"/>
+      <c r="HU12"/>
+      <c r="HV12"/>
+      <c r="HW12"/>
+      <c r="HX12"/>
+      <c r="HY12"/>
+      <c r="HZ12"/>
+      <c r="IA12"/>
+      <c r="IB12"/>
+      <c r="IC12"/>
+      <c r="ID12"/>
+      <c r="IE12"/>
+      <c r="IF12"/>
+      <c r="IG12"/>
+      <c r="IH12"/>
+      <c r="II12"/>
+      <c r="IJ12"/>
+      <c r="IK12"/>
+      <c r="IL12"/>
+      <c r="IM12"/>
+      <c r="IN12"/>
+      <c r="IO12"/>
+      <c r="IP12"/>
+      <c r="IQ12"/>
+      <c r="IR12"/>
+      <c r="IS12"/>
+      <c r="IT12"/>
+      <c r="IU12"/>
+      <c r="IV12"/>
+      <c r="IW12"/>
+      <c r="IX12"/>
+      <c r="IY12"/>
+      <c r="IZ12"/>
+      <c r="JA12"/>
+      <c r="JB12"/>
+      <c r="JC12"/>
+      <c r="JD12"/>
+      <c r="JE12"/>
+      <c r="JF12"/>
+      <c r="JG12"/>
+      <c r="JH12"/>
+      <c r="JI12"/>
+      <c r="JJ12"/>
+      <c r="JK12"/>
+      <c r="JL12"/>
+      <c r="JM12"/>
+      <c r="JN12"/>
+      <c r="JO12"/>
+      <c r="JP12"/>
+      <c r="JQ12"/>
+      <c r="JR12"/>
+      <c r="JS12"/>
+      <c r="JT12"/>
+      <c r="JU12"/>
+      <c r="JV12"/>
+      <c r="JW12"/>
+      <c r="JX12"/>
+      <c r="JY12"/>
+      <c r="JZ12"/>
+      <c r="KA12"/>
+      <c r="KB12"/>
+      <c r="KC12"/>
+      <c r="KD12"/>
+      <c r="KE12"/>
+      <c r="KF12"/>
+      <c r="KG12"/>
+      <c r="KH12"/>
+      <c r="KI12"/>
+      <c r="KJ12"/>
+      <c r="KK12"/>
+      <c r="KL12"/>
+      <c r="KM12"/>
+      <c r="KN12"/>
+      <c r="KO12"/>
+      <c r="KP12"/>
+      <c r="KQ12"/>
+      <c r="KR12"/>
+      <c r="KS12"/>
+      <c r="KT12"/>
+      <c r="KU12"/>
+      <c r="KV12"/>
+      <c r="KW12"/>
+      <c r="KX12"/>
+      <c r="KY12"/>
+      <c r="KZ12"/>
+      <c r="LA12"/>
+      <c r="LB12"/>
+      <c r="LC12"/>
+      <c r="LD12"/>
+      <c r="LE12"/>
+      <c r="LF12"/>
+      <c r="LG12"/>
+      <c r="LH12"/>
+      <c r="LI12"/>
+      <c r="LJ12"/>
+      <c r="LK12"/>
+      <c r="LL12"/>
+      <c r="LM12"/>
+      <c r="LN12"/>
+      <c r="LO12"/>
+      <c r="LP12"/>
+      <c r="LQ12"/>
+      <c r="LR12"/>
+      <c r="LS12"/>
+      <c r="LT12"/>
+      <c r="LU12"/>
+      <c r="LV12"/>
+      <c r="LW12"/>
+      <c r="LX12"/>
+      <c r="LY12"/>
+      <c r="LZ12"/>
+      <c r="MA12"/>
+      <c r="MB12"/>
+      <c r="MC12"/>
+      <c r="MD12"/>
+      <c r="ME12"/>
+      <c r="MF12"/>
+      <c r="MG12"/>
+      <c r="MH12"/>
+      <c r="MI12"/>
+      <c r="MJ12"/>
+      <c r="MK12"/>
+      <c r="ML12"/>
+      <c r="MM12"/>
+      <c r="MN12"/>
+      <c r="MO12"/>
+      <c r="MP12"/>
+      <c r="MQ12"/>
+      <c r="MR12"/>
+      <c r="MS12"/>
+      <c r="MT12"/>
+      <c r="MU12"/>
+      <c r="MV12"/>
+      <c r="MW12"/>
+      <c r="MX12"/>
+      <c r="MY12"/>
+      <c r="MZ12"/>
+      <c r="NA12"/>
+      <c r="NB12"/>
+      <c r="NC12"/>
+      <c r="ND12"/>
+      <c r="NE12"/>
+      <c r="NF12"/>
+      <c r="NG12"/>
+      <c r="NH12"/>
+      <c r="NI12"/>
+      <c r="NJ12"/>
+      <c r="NK12"/>
+      <c r="NL12"/>
+      <c r="NM12"/>
+      <c r="NN12"/>
+      <c r="NO12"/>
+      <c r="NP12"/>
+      <c r="NQ12"/>
+      <c r="NR12"/>
+      <c r="NS12"/>
+      <c r="NT12"/>
+      <c r="NU12"/>
+      <c r="NV12"/>
+      <c r="NW12"/>
+      <c r="NX12"/>
+      <c r="NY12"/>
+      <c r="NZ12"/>
+      <c r="OA12"/>
+      <c r="OB12"/>
+      <c r="OC12"/>
+      <c r="OD12"/>
+      <c r="OE12"/>
+      <c r="OF12"/>
+      <c r="OG12"/>
+      <c r="OH12"/>
+      <c r="OI12"/>
+      <c r="OJ12"/>
+      <c r="OK12"/>
+      <c r="OL12"/>
+      <c r="OM12"/>
+      <c r="ON12"/>
+      <c r="OO12"/>
+      <c r="OP12"/>
+      <c r="OQ12"/>
+      <c r="OR12"/>
+      <c r="OS12"/>
+      <c r="OT12"/>
+      <c r="OU12"/>
+      <c r="OV12"/>
+      <c r="OW12"/>
+      <c r="OX12"/>
+      <c r="OY12"/>
+      <c r="OZ12"/>
+      <c r="PA12"/>
+      <c r="PB12"/>
+      <c r="PC12"/>
+      <c r="PD12"/>
+      <c r="PE12"/>
+      <c r="PF12"/>
+      <c r="PG12"/>
+      <c r="PH12"/>
+      <c r="PI12"/>
+      <c r="PJ12"/>
+      <c r="PK12"/>
+      <c r="PL12"/>
+      <c r="PM12"/>
+      <c r="PN12"/>
+      <c r="PO12"/>
+      <c r="PP12"/>
+      <c r="PQ12"/>
+      <c r="PR12"/>
+      <c r="PS12"/>
+      <c r="PT12"/>
+      <c r="PU12"/>
+      <c r="PV12"/>
+      <c r="PW12"/>
+      <c r="PX12"/>
+      <c r="PY12"/>
+      <c r="PZ12"/>
+      <c r="QA12"/>
+      <c r="QB12"/>
+      <c r="QC12"/>
+      <c r="QD12"/>
+      <c r="QE12"/>
+      <c r="QF12"/>
+      <c r="QG12"/>
+      <c r="QH12"/>
+      <c r="QI12"/>
+      <c r="QJ12"/>
+      <c r="QK12"/>
+      <c r="QL12"/>
+      <c r="QM12"/>
+      <c r="QN12"/>
+      <c r="QO12"/>
+      <c r="QP12"/>
+      <c r="QQ12"/>
+      <c r="QR12"/>
+      <c r="QS12"/>
+      <c r="QT12"/>
+      <c r="QU12"/>
+      <c r="QV12"/>
+      <c r="QW12"/>
+      <c r="QX12"/>
+      <c r="QY12"/>
+      <c r="QZ12"/>
+      <c r="RA12"/>
+      <c r="RB12"/>
+      <c r="RC12"/>
+      <c r="RD12"/>
+      <c r="RE12"/>
+      <c r="RF12"/>
+      <c r="RG12"/>
+      <c r="RH12"/>
+      <c r="RI12"/>
+      <c r="RJ12"/>
+      <c r="RK12"/>
+      <c r="RL12"/>
+      <c r="RM12"/>
+      <c r="RN12"/>
+      <c r="RO12"/>
+      <c r="RP12"/>
+      <c r="RQ12"/>
+      <c r="RR12"/>
+      <c r="RS12"/>
+      <c r="RT12"/>
+      <c r="RU12"/>
+      <c r="RV12"/>
+      <c r="RW12"/>
+      <c r="RX12"/>
+      <c r="RY12"/>
+      <c r="RZ12"/>
+      <c r="SA12"/>
+      <c r="SB12"/>
+      <c r="SC12"/>
+      <c r="SD12"/>
+      <c r="SE12"/>
+      <c r="SF12"/>
+      <c r="SG12"/>
+      <c r="SH12"/>
+      <c r="SI12"/>
+      <c r="SJ12"/>
+      <c r="SK12"/>
+      <c r="SL12"/>
+      <c r="SM12"/>
+      <c r="SN12"/>
+      <c r="SO12"/>
+      <c r="SP12"/>
+      <c r="SQ12"/>
+      <c r="SR12"/>
+      <c r="SS12"/>
+      <c r="ST12"/>
+      <c r="SU12"/>
+      <c r="SV12"/>
+      <c r="SW12"/>
+      <c r="SX12"/>
+      <c r="SY12"/>
+      <c r="SZ12"/>
+      <c r="TA12"/>
+      <c r="TB12"/>
+      <c r="TC12"/>
+      <c r="TD12"/>
+      <c r="TE12"/>
+      <c r="TF12"/>
+      <c r="TG12"/>
+      <c r="TH12"/>
+      <c r="TI12"/>
+      <c r="TJ12"/>
+      <c r="TK12"/>
+      <c r="TL12"/>
+      <c r="TM12"/>
+      <c r="TN12"/>
+      <c r="TO12"/>
+      <c r="TP12"/>
+      <c r="TQ12"/>
+      <c r="TR12"/>
+      <c r="TS12"/>
+      <c r="TT12"/>
+      <c r="TU12"/>
+      <c r="TV12"/>
+      <c r="TW12"/>
+      <c r="TX12"/>
+      <c r="TY12"/>
+      <c r="TZ12"/>
+      <c r="UA12"/>
+      <c r="UB12"/>
+      <c r="UC12"/>
+      <c r="UD12"/>
+      <c r="UE12"/>
+      <c r="UF12"/>
+      <c r="UG12"/>
+      <c r="UH12"/>
+      <c r="UI12"/>
+      <c r="UJ12"/>
+      <c r="UK12"/>
+      <c r="UL12"/>
+      <c r="UM12"/>
+      <c r="UN12"/>
+      <c r="UO12"/>
+      <c r="UP12"/>
+      <c r="UQ12"/>
+      <c r="UR12"/>
+      <c r="US12"/>
+      <c r="UT12"/>
+      <c r="UU12"/>
+      <c r="UV12"/>
+      <c r="UW12"/>
+      <c r="UX12"/>
+      <c r="UY12"/>
+      <c r="UZ12"/>
+      <c r="VA12"/>
+      <c r="VB12"/>
+      <c r="VC12"/>
+      <c r="VD12"/>
+      <c r="VE12"/>
+      <c r="VF12"/>
+      <c r="VG12"/>
+      <c r="VH12"/>
+      <c r="VI12"/>
+      <c r="VJ12"/>
+      <c r="VK12"/>
+      <c r="VL12"/>
+      <c r="VM12"/>
+      <c r="VN12"/>
+      <c r="VO12"/>
+      <c r="VP12"/>
+      <c r="VQ12"/>
+      <c r="VR12"/>
+      <c r="VS12"/>
+      <c r="VT12"/>
+      <c r="VU12"/>
+      <c r="VV12"/>
+      <c r="VW12"/>
+      <c r="VX12"/>
+      <c r="VY12"/>
+      <c r="VZ12"/>
+      <c r="WA12"/>
+      <c r="WB12"/>
+      <c r="WC12"/>
+      <c r="WD12"/>
+      <c r="WE12"/>
+      <c r="WF12"/>
+      <c r="WG12"/>
+      <c r="WH12"/>
+      <c r="WI12"/>
+      <c r="WJ12"/>
+      <c r="WK12"/>
+      <c r="WL12"/>
+      <c r="WM12"/>
+      <c r="WN12"/>
+      <c r="WO12"/>
+      <c r="WP12"/>
+      <c r="WQ12"/>
+      <c r="WR12"/>
+      <c r="WS12"/>
+      <c r="WT12"/>
+      <c r="WU12"/>
+      <c r="WV12"/>
+      <c r="WW12"/>
+      <c r="WX12"/>
+      <c r="WY12"/>
+      <c r="WZ12"/>
+      <c r="XA12"/>
+      <c r="XB12"/>
+      <c r="XC12"/>
+      <c r="XD12"/>
+      <c r="XE12"/>
+      <c r="XF12"/>
+      <c r="XG12"/>
+      <c r="XH12"/>
+      <c r="XI12"/>
+      <c r="XJ12"/>
+      <c r="XK12"/>
+      <c r="XL12"/>
+      <c r="XM12"/>
+      <c r="XN12"/>
+      <c r="XO12"/>
+      <c r="XP12"/>
+      <c r="XQ12"/>
+      <c r="XR12"/>
+      <c r="XS12"/>
+      <c r="XT12"/>
+      <c r="XU12"/>
+      <c r="XV12"/>
+      <c r="XW12"/>
+      <c r="XX12"/>
+      <c r="XY12"/>
+      <c r="XZ12"/>
+      <c r="YA12"/>
+      <c r="YB12"/>
+      <c r="YC12"/>
+      <c r="YD12"/>
+      <c r="YE12"/>
+      <c r="YF12"/>
+      <c r="YG12"/>
+      <c r="YH12"/>
+      <c r="YI12"/>
+      <c r="YJ12"/>
+      <c r="YK12"/>
+      <c r="YL12"/>
+      <c r="YM12"/>
+      <c r="YN12"/>
+      <c r="YO12"/>
+      <c r="YP12"/>
+      <c r="YQ12"/>
+      <c r="YR12"/>
+      <c r="YS12"/>
+      <c r="YT12"/>
+      <c r="YU12"/>
+      <c r="YV12"/>
+      <c r="YW12"/>
+      <c r="YX12"/>
+      <c r="YY12"/>
+      <c r="YZ12"/>
+      <c r="ZA12"/>
+      <c r="ZB12"/>
+      <c r="ZC12"/>
+      <c r="ZD12"/>
+      <c r="ZE12"/>
+      <c r="ZF12"/>
+      <c r="ZG12"/>
+      <c r="ZH12"/>
+      <c r="ZI12"/>
+      <c r="ZJ12"/>
+      <c r="ZK12"/>
+      <c r="ZL12"/>
+      <c r="ZM12"/>
+      <c r="ZN12"/>
+      <c r="ZO12"/>
+      <c r="ZP12"/>
+      <c r="ZQ12"/>
+      <c r="ZR12"/>
+      <c r="ZS12"/>
+      <c r="ZT12"/>
+      <c r="ZU12"/>
+      <c r="ZV12"/>
+      <c r="ZW12"/>
+      <c r="ZX12"/>
+      <c r="ZY12"/>
+      <c r="ZZ12"/>
+      <c r="AAA12"/>
+      <c r="AAB12"/>
+      <c r="AAC12"/>
+      <c r="AAD12"/>
+      <c r="AAE12"/>
+      <c r="AAF12"/>
+      <c r="AAG12"/>
+      <c r="AAH12"/>
+      <c r="AAI12"/>
+      <c r="AAJ12"/>
+      <c r="AAK12"/>
+      <c r="AAL12"/>
+      <c r="AAM12"/>
+      <c r="AAN12"/>
+      <c r="AAO12"/>
+      <c r="AAP12"/>
+      <c r="AAQ12"/>
+      <c r="AAR12"/>
+      <c r="AAS12"/>
+      <c r="AAT12"/>
+      <c r="AAU12"/>
+      <c r="AAV12"/>
+      <c r="AAW12"/>
+      <c r="AAX12"/>
+      <c r="AAY12"/>
+      <c r="AAZ12"/>
+      <c r="ABA12"/>
+      <c r="ABB12"/>
+      <c r="ABC12"/>
+      <c r="ABD12"/>
+      <c r="ABE12"/>
+      <c r="ABF12"/>
+      <c r="ABG12"/>
+      <c r="ABH12"/>
+      <c r="ABI12"/>
+      <c r="ABJ12"/>
+      <c r="ABK12"/>
+      <c r="ABL12"/>
+      <c r="ABM12"/>
+      <c r="ABN12"/>
+      <c r="ABO12"/>
+      <c r="ABP12"/>
+      <c r="ABQ12"/>
+      <c r="ABR12"/>
+      <c r="ABS12"/>
+      <c r="ABT12"/>
+      <c r="ABU12"/>
+      <c r="ABV12"/>
+      <c r="ABW12"/>
+      <c r="ABX12"/>
+      <c r="ABY12"/>
+      <c r="ABZ12"/>
+      <c r="ACA12"/>
+      <c r="ACB12"/>
+      <c r="ACC12"/>
+      <c r="ACD12"/>
+      <c r="ACE12"/>
+      <c r="ACF12"/>
+      <c r="ACG12"/>
+      <c r="ACH12"/>
+      <c r="ACI12"/>
+      <c r="ACJ12"/>
+      <c r="ACK12"/>
+      <c r="ACL12"/>
+      <c r="ACM12"/>
+      <c r="ACN12"/>
+      <c r="ACO12"/>
+      <c r="ACP12"/>
+      <c r="ACQ12"/>
+      <c r="ACR12"/>
+      <c r="ACS12"/>
+      <c r="ACT12"/>
+      <c r="ACU12"/>
+      <c r="ACV12"/>
+      <c r="ACW12"/>
+      <c r="ACX12"/>
+      <c r="ACY12"/>
+      <c r="ACZ12"/>
+      <c r="ADA12"/>
+      <c r="ADB12"/>
+      <c r="ADC12"/>
+      <c r="ADD12"/>
+      <c r="ADE12"/>
+      <c r="ADF12"/>
+      <c r="ADG12"/>
+      <c r="ADH12"/>
+      <c r="ADI12"/>
+      <c r="ADJ12"/>
+      <c r="ADK12"/>
+      <c r="ADL12"/>
+      <c r="ADM12"/>
+      <c r="ADN12"/>
+      <c r="ADO12"/>
+      <c r="ADP12"/>
+      <c r="ADQ12"/>
+      <c r="ADR12"/>
+      <c r="ADS12"/>
+      <c r="ADT12"/>
+      <c r="ADU12"/>
+      <c r="ADV12"/>
+      <c r="ADW12"/>
+      <c r="ADX12"/>
+      <c r="ADY12"/>
+      <c r="ADZ12"/>
+      <c r="AEA12"/>
+      <c r="AEB12"/>
+      <c r="AEC12"/>
+      <c r="AED12"/>
+      <c r="AEE12"/>
+      <c r="AEF12"/>
+      <c r="AEG12"/>
+      <c r="AEH12"/>
+      <c r="AEI12"/>
+      <c r="AEJ12"/>
+      <c r="AEK12"/>
+      <c r="AEL12"/>
+      <c r="AEM12"/>
+      <c r="AEN12"/>
+      <c r="AEO12"/>
+      <c r="AEP12"/>
+      <c r="AEQ12"/>
+      <c r="AER12"/>
+      <c r="AES12"/>
+      <c r="AET12"/>
+      <c r="AEU12"/>
+      <c r="AEV12"/>
+      <c r="AEW12"/>
+      <c r="AEX12"/>
+      <c r="AEY12"/>
+      <c r="AEZ12"/>
+      <c r="AFA12"/>
+      <c r="AFB12"/>
+      <c r="AFC12"/>
+      <c r="AFD12"/>
+      <c r="AFE12"/>
+      <c r="AFF12"/>
+      <c r="AFG12"/>
+      <c r="AFH12"/>
+      <c r="AFI12"/>
+      <c r="AFJ12"/>
+      <c r="AFK12"/>
+      <c r="AFL12"/>
+      <c r="AFM12"/>
+      <c r="AFN12"/>
+      <c r="AFO12"/>
+      <c r="AFP12"/>
+      <c r="AFQ12"/>
+      <c r="AFR12"/>
+      <c r="AFS12"/>
+      <c r="AFT12"/>
+      <c r="AFU12"/>
+      <c r="AFV12"/>
+      <c r="AFW12"/>
+      <c r="AFX12"/>
+      <c r="AFY12"/>
+      <c r="AFZ12"/>
+      <c r="AGA12"/>
+      <c r="AGB12"/>
+      <c r="AGC12"/>
+      <c r="AGD12"/>
+      <c r="AGE12"/>
+      <c r="AGF12"/>
+      <c r="AGG12"/>
+      <c r="AGH12"/>
+      <c r="AGI12"/>
+      <c r="AGJ12"/>
+      <c r="AGK12"/>
+      <c r="AGL12"/>
+      <c r="AGM12"/>
+      <c r="AGN12"/>
+      <c r="AGO12"/>
+      <c r="AGP12"/>
+      <c r="AGQ12"/>
+      <c r="AGR12"/>
+      <c r="AGS12"/>
+      <c r="AGT12"/>
+      <c r="AGU12"/>
+      <c r="AGV12"/>
+      <c r="AGW12"/>
+      <c r="AGX12"/>
+      <c r="AGY12"/>
+      <c r="AGZ12"/>
+      <c r="AHA12"/>
+      <c r="AHB12"/>
+      <c r="AHC12"/>
+      <c r="AHD12"/>
+      <c r="AHE12"/>
+      <c r="AHF12"/>
+      <c r="AHG12"/>
+      <c r="AHH12"/>
+      <c r="AHI12"/>
+      <c r="AHJ12"/>
+      <c r="AHK12"/>
+      <c r="AHL12"/>
+      <c r="AHM12"/>
+      <c r="AHN12"/>
+      <c r="AHO12"/>
+      <c r="AHP12"/>
+      <c r="AHQ12"/>
+      <c r="AHR12"/>
+      <c r="AHS12"/>
+      <c r="AHT12"/>
+      <c r="AHU12"/>
+      <c r="AHV12"/>
+      <c r="AHW12"/>
+      <c r="AHX12"/>
+      <c r="AHY12"/>
+      <c r="AHZ12"/>
+      <c r="AIA12"/>
+      <c r="AIB12"/>
+      <c r="AIC12"/>
+      <c r="AID12"/>
+      <c r="AIE12"/>
+      <c r="AIF12"/>
+      <c r="AIG12"/>
+      <c r="AIH12"/>
+      <c r="AII12"/>
+      <c r="AIJ12"/>
+      <c r="AIK12"/>
+      <c r="AIL12"/>
+      <c r="AIM12"/>
+      <c r="AIN12"/>
+      <c r="AIO12"/>
+      <c r="AIP12"/>
+      <c r="AIQ12"/>
+      <c r="AIR12"/>
+      <c r="AIS12"/>
+      <c r="AIT12"/>
+      <c r="AIU12"/>
+      <c r="AIV12"/>
+      <c r="AIW12"/>
+      <c r="AIX12"/>
+      <c r="AIY12"/>
+      <c r="AIZ12"/>
+      <c r="AJA12"/>
+      <c r="AJB12"/>
+      <c r="AJC12"/>
+      <c r="AJD12"/>
+      <c r="AJE12"/>
+      <c r="AJF12"/>
+      <c r="AJG12"/>
+      <c r="AJH12"/>
+      <c r="AJI12"/>
+      <c r="AJJ12"/>
+      <c r="AJK12"/>
+      <c r="AJL12"/>
+      <c r="AJM12"/>
+      <c r="AJN12"/>
+      <c r="AJO12"/>
+      <c r="AJP12"/>
+      <c r="AJQ12"/>
+      <c r="AJR12"/>
+      <c r="AJS12"/>
+      <c r="AJT12"/>
+      <c r="AJU12"/>
+      <c r="AJV12"/>
+      <c r="AJW12"/>
+      <c r="AJX12"/>
+      <c r="AJY12"/>
+      <c r="AJZ12"/>
+      <c r="AKA12"/>
+      <c r="AKB12"/>
+      <c r="AKC12"/>
+      <c r="AKD12"/>
+      <c r="AKE12"/>
+      <c r="AKF12"/>
+      <c r="AKG12"/>
+      <c r="AKH12"/>
+      <c r="AKI12"/>
+      <c r="AKJ12"/>
+      <c r="AKK12"/>
+      <c r="AKL12"/>
+      <c r="AKM12"/>
+      <c r="AKN12"/>
+      <c r="AKO12"/>
+      <c r="AKP12"/>
+      <c r="AKQ12"/>
+      <c r="AKR12"/>
+      <c r="AKS12"/>
+      <c r="AKT12"/>
+      <c r="AKU12"/>
+      <c r="AKV12"/>
+      <c r="AKW12"/>
+      <c r="AKX12"/>
+      <c r="AKY12"/>
+      <c r="AKZ12"/>
+      <c r="ALA12"/>
+      <c r="ALB12"/>
+      <c r="ALC12"/>
+      <c r="ALD12"/>
+      <c r="ALE12"/>
+      <c r="ALF12"/>
+      <c r="ALG12"/>
+      <c r="ALH12"/>
+      <c r="ALI12"/>
+      <c r="ALJ12"/>
+      <c r="ALK12"/>
+      <c r="ALL12"/>
+      <c r="ALM12"/>
+      <c r="ALN12"/>
+      <c r="ALO12"/>
+      <c r="ALP12"/>
+      <c r="ALQ12"/>
+      <c r="ALR12"/>
+      <c r="ALS12"/>
+      <c r="ALT12"/>
+      <c r="ALU12"/>
+      <c r="ALV12"/>
+      <c r="ALW12"/>
+      <c r="ALX12"/>
+      <c r="ALY12"/>
+      <c r="ALZ12"/>
+      <c r="AMA12"/>
+      <c r="AMB12"/>
+      <c r="AMC12"/>
+      <c r="AMD12"/>
+      <c r="AME12"/>
+      <c r="AMF12"/>
+      <c r="AMG12"/>
+      <c r="AMH12"/>
+      <c r="AMI12"/>
+      <c r="AMJ12"/>
+      <c r="AMK12"/>
     </row>
-    <row r="13" spans="1:1025" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:1025" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>39</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>114</v>
-      </c>
+        <v>192</v>
+      </c>
+      <c r="C13" s="1"/>
       <c r="D13" s="1" t="s">
         <v>41</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>115</v>
+        <v>193</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>73</v>
+        <v>43</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>116</v>
+        <v>194</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>117</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="I13" s="1"/>
       <c r="J13" s="1" t="s">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>65</v>
+        <v>47</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>118</v>
+        <v>48</v>
       </c>
       <c r="M13" s="1" t="s">
         <v>49</v>
       </c>
       <c r="N13" s="1" t="s">
-        <v>119</v>
+        <v>50</v>
+      </c>
+      <c r="O13" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="P13" s="9" t="s">
         <v>52</v>
       </c>
+      <c r="Q13" s="2"/>
+      <c r="R13" s="3"/>
       <c r="S13" s="2">
-        <v>1508</v>
+        <v>150</v>
       </c>
       <c r="T13" s="3">
-        <v>42789</v>
+        <v>42951</v>
       </c>
       <c r="U13" s="1" t="s">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="V13" s="1" t="s">
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="W13" s="1" t="s">
-        <v>69</v>
+        <v>55</v>
       </c>
       <c r="X13" s="2">
-        <v>68</v>
+        <v>30.49</v>
       </c>
       <c r="Y13" s="3">
-        <v>38353</v>
+        <v>35993</v>
       </c>
       <c r="Z13" s="2">
-        <v>3510</v>
+        <v>6706.47</v>
       </c>
       <c r="AA13" s="4">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="AB13" s="2">
-        <v>2500</v>
+        <v>5150</v>
       </c>
       <c r="AC13" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AD13" s="2">
-        <v>1375</v>
+        <v>300</v>
       </c>
       <c r="AE13" s="4">
         <v>2</v>
+      </c>
+      <c r="AF13" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG13" s="1" t="s">
+        <v>57</v>
       </c>
       <c r="AH13" s="1" t="s">
         <v>58</v>
       </c>
       <c r="AI13" s="1" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="AJ13" s="1" t="s">
         <v>60</v>
       </c>
+      <c r="AK13" s="1"/>
+      <c r="AL13" s="1"/>
+      <c r="AM13" s="3"/>
     </row>
     <row r="14" spans="1:1025" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>39</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>120</v>
+        <v>40</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>41</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>121</v>
+        <v>42</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>73</v>
+        <v>43</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>122</v>
+        <v>44</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>123</v>
+        <v>45</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>65</v>
+        <v>47</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>124</v>
+        <v>48</v>
       </c>
       <c r="M14" s="1" t="s">
         <v>49</v>
       </c>
       <c r="N14" s="1" t="s">
-        <v>125</v>
+        <v>50</v>
+      </c>
+      <c r="O14" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="P14" s="9" t="s">
         <v>52</v>
       </c>
       <c r="S14" s="2">
-        <v>1509</v>
+        <v>150</v>
       </c>
       <c r="T14" s="3">
-        <v>42790</v>
+        <v>42951</v>
       </c>
       <c r="U14" s="1" t="s">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="V14" s="1" t="s">
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="W14" s="1" t="s">
-        <v>69</v>
+        <v>55</v>
       </c>
       <c r="X14" s="2">
-        <v>69</v>
+        <v>30.49</v>
       </c>
       <c r="Y14" s="3">
-        <v>38354</v>
+        <v>35993</v>
       </c>
       <c r="Z14" s="2">
-        <v>3510</v>
+        <v>6706.47</v>
       </c>
       <c r="AA14" s="4">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="AB14" s="2">
-        <v>2500</v>
+        <v>5150</v>
       </c>
       <c r="AC14" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AD14" s="2">
-        <v>1375</v>
+        <v>300</v>
       </c>
       <c r="AE14" s="4">
         <v>2</v>
+      </c>
+      <c r="AF14" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG14" s="1" t="s">
+        <v>57</v>
       </c>
       <c r="AH14" s="1" t="s">
         <v>58</v>
       </c>
       <c r="AI14" s="1" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="AJ14" s="1" t="s">
         <v>60</v>
@@ -3333,22 +3526,22 @@
         <v>39</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>126</v>
+        <v>40</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>41</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>127</v>
+        <v>61</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>43</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>128</v>
+        <v>62</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>129</v>
+        <v>63</v>
       </c>
       <c r="J15" s="1" t="s">
         <v>64</v>
@@ -3357,22 +3550,22 @@
         <v>65</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>130</v>
+        <v>66</v>
       </c>
       <c r="M15" s="1" t="s">
         <v>49</v>
       </c>
       <c r="N15" s="1" t="s">
-        <v>131</v>
+        <v>50</v>
       </c>
       <c r="P15" s="9" t="s">
         <v>52</v>
       </c>
       <c r="S15" s="2">
-        <v>1510</v>
+        <v>1500</v>
       </c>
       <c r="T15" s="3">
-        <v>42791</v>
+        <v>42781</v>
       </c>
       <c r="U15" s="1" t="s">
         <v>67</v>
@@ -3384,10 +3577,10 @@
         <v>69</v>
       </c>
       <c r="X15" s="2">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="Y15" s="3">
-        <v>38355</v>
+        <v>38345</v>
       </c>
       <c r="Z15" s="2">
         <v>3510</v>
@@ -3422,22 +3615,22 @@
         <v>39</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>132</v>
+        <v>71</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>41</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>133</v>
+        <v>72</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>73</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>134</v>
+        <v>74</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>135</v>
+        <v>75</v>
       </c>
       <c r="J16" s="1" t="s">
         <v>64</v>
@@ -3446,22 +3639,22 @@
         <v>65</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>136</v>
+        <v>76</v>
       </c>
       <c r="M16" s="1" t="s">
         <v>49</v>
       </c>
       <c r="N16" s="1" t="s">
-        <v>137</v>
+        <v>77</v>
       </c>
       <c r="P16" s="9" t="s">
         <v>52</v>
       </c>
       <c r="S16" s="2">
-        <v>1511</v>
+        <v>1501</v>
       </c>
       <c r="T16" s="3">
-        <v>42792</v>
+        <v>42782</v>
       </c>
       <c r="U16" s="1" t="s">
         <v>67</v>
@@ -3473,10 +3666,10 @@
         <v>69</v>
       </c>
       <c r="X16" s="2">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="Y16" s="3">
-        <v>38356</v>
+        <v>38346</v>
       </c>
       <c r="Z16" s="2">
         <v>3510</v>
@@ -3511,22 +3704,22 @@
         <v>39</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>138</v>
+        <v>78</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>41</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>139</v>
+        <v>79</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>73</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>140</v>
+        <v>80</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>141</v>
+        <v>81</v>
       </c>
       <c r="J17" s="1" t="s">
         <v>64</v>
@@ -3535,22 +3728,22 @@
         <v>65</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>142</v>
+        <v>82</v>
       </c>
       <c r="M17" s="1" t="s">
         <v>49</v>
       </c>
       <c r="N17" s="1" t="s">
-        <v>143</v>
+        <v>83</v>
       </c>
       <c r="P17" s="9" t="s">
         <v>52</v>
       </c>
       <c r="S17" s="2">
-        <v>1512</v>
+        <v>1502</v>
       </c>
       <c r="T17" s="3">
-        <v>42793</v>
+        <v>42783</v>
       </c>
       <c r="U17" s="1" t="s">
         <v>67</v>
@@ -3562,10 +3755,10 @@
         <v>69</v>
       </c>
       <c r="X17" s="2">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="Y17" s="3">
-        <v>38357</v>
+        <v>38347</v>
       </c>
       <c r="Z17" s="2">
         <v>3510</v>
@@ -3600,22 +3793,22 @@
         <v>39</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>144</v>
+        <v>84</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>41</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>145</v>
+        <v>85</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>43</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>146</v>
+        <v>86</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>147</v>
+        <v>87</v>
       </c>
       <c r="J18" s="1" t="s">
         <v>64</v>
@@ -3624,22 +3817,22 @@
         <v>65</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>148</v>
+        <v>88</v>
       </c>
       <c r="M18" s="1" t="s">
         <v>49</v>
       </c>
       <c r="N18" s="1" t="s">
-        <v>149</v>
+        <v>89</v>
       </c>
       <c r="P18" s="9" t="s">
         <v>52</v>
       </c>
       <c r="S18" s="2">
-        <v>1513</v>
+        <v>1503</v>
       </c>
       <c r="T18" s="3">
-        <v>42794</v>
+        <v>42784</v>
       </c>
       <c r="U18" s="1" t="s">
         <v>67</v>
@@ -3651,10 +3844,10 @@
         <v>69</v>
       </c>
       <c r="X18" s="2">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="Y18" s="3">
-        <v>38358</v>
+        <v>38348</v>
       </c>
       <c r="Z18" s="2">
         <v>3510</v>
@@ -3689,22 +3882,22 @@
         <v>39</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>150</v>
+        <v>90</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>41</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>151</v>
+        <v>91</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>43</v>
+        <v>73</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>152</v>
+        <v>92</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>153</v>
+        <v>93</v>
       </c>
       <c r="J19" s="1" t="s">
         <v>64</v>
@@ -3713,22 +3906,22 @@
         <v>65</v>
       </c>
       <c r="L19" s="1" t="s">
-        <v>154</v>
+        <v>94</v>
       </c>
       <c r="M19" s="1" t="s">
         <v>49</v>
       </c>
       <c r="N19" s="1" t="s">
-        <v>155</v>
+        <v>95</v>
       </c>
       <c r="P19" s="9" t="s">
         <v>52</v>
       </c>
       <c r="S19" s="2">
-        <v>1514</v>
+        <v>1504</v>
       </c>
       <c r="T19" s="3">
-        <v>42795</v>
+        <v>42785</v>
       </c>
       <c r="U19" s="1" t="s">
         <v>67</v>
@@ -3740,10 +3933,10 @@
         <v>69</v>
       </c>
       <c r="X19" s="2">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="Y19" s="3">
-        <v>38359</v>
+        <v>38349</v>
       </c>
       <c r="Z19" s="2">
         <v>3510</v>
@@ -3778,22 +3971,22 @@
         <v>39</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>156</v>
+        <v>96</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>41</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>157</v>
+        <v>97</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>43</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>158</v>
+        <v>98</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>159</v>
+        <v>99</v>
       </c>
       <c r="J20" s="1" t="s">
         <v>64</v>
@@ -3802,22 +3995,22 @@
         <v>65</v>
       </c>
       <c r="L20" s="1" t="s">
-        <v>160</v>
+        <v>100</v>
       </c>
       <c r="M20" s="1" t="s">
         <v>49</v>
       </c>
       <c r="N20" s="1" t="s">
-        <v>161</v>
+        <v>101</v>
       </c>
       <c r="P20" s="9" t="s">
         <v>52</v>
       </c>
       <c r="S20" s="2">
-        <v>1515</v>
+        <v>1505</v>
       </c>
       <c r="T20" s="3">
-        <v>42796</v>
+        <v>42786</v>
       </c>
       <c r="U20" s="1" t="s">
         <v>67</v>
@@ -3829,10 +4022,10 @@
         <v>69</v>
       </c>
       <c r="X20" s="2">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="Y20" s="3">
-        <v>38360</v>
+        <v>38350</v>
       </c>
       <c r="Z20" s="2">
         <v>3510</v>
@@ -3867,22 +4060,22 @@
         <v>39</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>162</v>
+        <v>102</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>41</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>163</v>
+        <v>103</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>43</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>164</v>
+        <v>104</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>165</v>
+        <v>105</v>
       </c>
       <c r="J21" s="1" t="s">
         <v>64</v>
@@ -3891,22 +4084,22 @@
         <v>65</v>
       </c>
       <c r="L21" s="1" t="s">
-        <v>166</v>
+        <v>106</v>
       </c>
       <c r="M21" s="1" t="s">
         <v>49</v>
       </c>
       <c r="N21" s="1" t="s">
-        <v>167</v>
+        <v>107</v>
       </c>
       <c r="P21" s="9" t="s">
         <v>52</v>
       </c>
       <c r="S21" s="2">
-        <v>1516</v>
+        <v>1506</v>
       </c>
       <c r="T21" s="3">
-        <v>42797</v>
+        <v>42787</v>
       </c>
       <c r="U21" s="1" t="s">
         <v>67</v>
@@ -3918,10 +4111,10 @@
         <v>69</v>
       </c>
       <c r="X21" s="2">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="Y21" s="3">
-        <v>38361</v>
+        <v>38351</v>
       </c>
       <c r="Z21" s="2">
         <v>3510</v>
@@ -3956,22 +4149,22 @@
         <v>39</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>168</v>
+        <v>108</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>41</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>169</v>
+        <v>109</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>43</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>170</v>
+        <v>110</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>171</v>
+        <v>111</v>
       </c>
       <c r="J22" s="1" t="s">
         <v>64</v>
@@ -3980,22 +4173,22 @@
         <v>65</v>
       </c>
       <c r="L22" s="1" t="s">
-        <v>172</v>
+        <v>112</v>
       </c>
       <c r="M22" s="1" t="s">
         <v>49</v>
       </c>
       <c r="N22" s="1" t="s">
-        <v>173</v>
+        <v>113</v>
       </c>
       <c r="P22" s="9" t="s">
         <v>52</v>
       </c>
       <c r="S22" s="2">
-        <v>1517</v>
+        <v>1507</v>
       </c>
       <c r="T22" s="3">
-        <v>42798</v>
+        <v>42788</v>
       </c>
       <c r="U22" s="1" t="s">
         <v>67</v>
@@ -4007,10 +4200,10 @@
         <v>69</v>
       </c>
       <c r="X22" s="2">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="Y22" s="3">
-        <v>38362</v>
+        <v>38352</v>
       </c>
       <c r="Z22" s="2">
         <v>3510</v>
@@ -4045,22 +4238,22 @@
         <v>39</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>174</v>
+        <v>114</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>41</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>175</v>
+        <v>115</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>73</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>176</v>
+        <v>116</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>177</v>
+        <v>117</v>
       </c>
       <c r="J23" s="1" t="s">
         <v>64</v>
@@ -4069,22 +4262,22 @@
         <v>65</v>
       </c>
       <c r="L23" s="1" t="s">
-        <v>178</v>
+        <v>118</v>
       </c>
       <c r="M23" s="1" t="s">
         <v>49</v>
       </c>
       <c r="N23" s="1" t="s">
-        <v>179</v>
+        <v>119</v>
       </c>
       <c r="P23" s="9" t="s">
         <v>52</v>
       </c>
       <c r="S23" s="2">
-        <v>1518</v>
+        <v>1508</v>
       </c>
       <c r="T23" s="3">
-        <v>42799</v>
+        <v>42789</v>
       </c>
       <c r="U23" s="1" t="s">
         <v>67</v>
@@ -4096,10 +4289,10 @@
         <v>69</v>
       </c>
       <c r="X23" s="2">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="Y23" s="3">
-        <v>38363</v>
+        <v>38353</v>
       </c>
       <c r="Z23" s="2">
         <v>3510</v>
@@ -4134,22 +4327,22 @@
         <v>39</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>180</v>
+        <v>120</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>41</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>181</v>
+        <v>121</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>43</v>
+        <v>73</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>182</v>
+        <v>122</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>183</v>
+        <v>123</v>
       </c>
       <c r="J24" s="1" t="s">
         <v>64</v>
@@ -4158,22 +4351,22 @@
         <v>65</v>
       </c>
       <c r="L24" s="1" t="s">
-        <v>184</v>
+        <v>124</v>
       </c>
       <c r="M24" s="1" t="s">
         <v>49</v>
       </c>
       <c r="N24" s="1" t="s">
-        <v>185</v>
+        <v>125</v>
       </c>
       <c r="P24" s="9" t="s">
         <v>52</v>
       </c>
       <c r="S24" s="2">
-        <v>1519</v>
+        <v>1509</v>
       </c>
       <c r="T24" s="3">
-        <v>42800</v>
+        <v>42790</v>
       </c>
       <c r="U24" s="1" t="s">
         <v>67</v>
@@ -4185,10 +4378,10 @@
         <v>69</v>
       </c>
       <c r="X24" s="2">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="Y24" s="3">
-        <v>38364</v>
+        <v>38354</v>
       </c>
       <c r="Z24" s="2">
         <v>3510</v>
@@ -4223,22 +4416,22 @@
         <v>39</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>186</v>
+        <v>126</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>41</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>187</v>
+        <v>127</v>
       </c>
       <c r="F25" s="1" t="s">
         <v>43</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>188</v>
+        <v>128</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>189</v>
+        <v>129</v>
       </c>
       <c r="J25" s="1" t="s">
         <v>64</v>
@@ -4247,22 +4440,22 @@
         <v>65</v>
       </c>
       <c r="L25" s="1" t="s">
-        <v>190</v>
+        <v>130</v>
       </c>
       <c r="M25" s="1" t="s">
         <v>49</v>
       </c>
       <c r="N25" s="1" t="s">
-        <v>191</v>
+        <v>131</v>
       </c>
       <c r="P25" s="9" t="s">
         <v>52</v>
       </c>
       <c r="S25" s="2">
-        <v>1520</v>
+        <v>1510</v>
       </c>
       <c r="T25" s="3">
-        <v>42801</v>
+        <v>42791</v>
       </c>
       <c r="U25" s="1" t="s">
         <v>67</v>
@@ -4274,10 +4467,10 @@
         <v>69</v>
       </c>
       <c r="X25" s="2">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="Y25" s="3">
-        <v>38365</v>
+        <v>38355</v>
       </c>
       <c r="Z25" s="2">
         <v>3510</v>
@@ -4304,36 +4497,936 @@
         <v>70</v>
       </c>
       <c r="AJ25" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="26" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="K26" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="L26" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="M26" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="N26" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="P26" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="S26" s="2">
+        <v>1511</v>
+      </c>
+      <c r="T26" s="3">
+        <v>42792</v>
+      </c>
+      <c r="U26" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="V26" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="W26" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="X26" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y26" s="3">
+        <v>38356</v>
+      </c>
+      <c r="Z26" s="2">
+        <v>3510</v>
+      </c>
+      <c r="AA26" s="4">
+        <v>5</v>
+      </c>
+      <c r="AB26" s="2">
+        <v>2500</v>
+      </c>
+      <c r="AC26" s="4">
+        <v>2</v>
+      </c>
+      <c r="AD26" s="2">
+        <v>1375</v>
+      </c>
+      <c r="AE26" s="4">
+        <v>2</v>
+      </c>
+      <c r="AH26" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AI26" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AJ26" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="27" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="K27" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="L27" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="M27" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="N27" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="P27" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="S27" s="2">
+        <v>1512</v>
+      </c>
+      <c r="T27" s="3">
+        <v>42793</v>
+      </c>
+      <c r="U27" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="V27" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="W27" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="X27" s="2">
+        <v>72</v>
+      </c>
+      <c r="Y27" s="3">
+        <v>38357</v>
+      </c>
+      <c r="Z27" s="2">
+        <v>3510</v>
+      </c>
+      <c r="AA27" s="4">
+        <v>5</v>
+      </c>
+      <c r="AB27" s="2">
+        <v>2500</v>
+      </c>
+      <c r="AC27" s="4">
+        <v>2</v>
+      </c>
+      <c r="AD27" s="2">
+        <v>1375</v>
+      </c>
+      <c r="AE27" s="4">
+        <v>2</v>
+      </c>
+      <c r="AH27" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AI27" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AJ27" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="28" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A28" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="J28" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="K28" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="L28" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="M28" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="N28" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="P28" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="S28" s="2">
+        <v>1513</v>
+      </c>
+      <c r="T28" s="3">
+        <v>42794</v>
+      </c>
+      <c r="U28" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="V28" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="W28" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="X28" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y28" s="3">
+        <v>38358</v>
+      </c>
+      <c r="Z28" s="2">
+        <v>3510</v>
+      </c>
+      <c r="AA28" s="4">
+        <v>5</v>
+      </c>
+      <c r="AB28" s="2">
+        <v>2500</v>
+      </c>
+      <c r="AC28" s="4">
+        <v>2</v>
+      </c>
+      <c r="AD28" s="2">
+        <v>1375</v>
+      </c>
+      <c r="AE28" s="4">
+        <v>2</v>
+      </c>
+      <c r="AH28" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AI28" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AJ28" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="29" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A29" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="J29" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="K29" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="L29" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="M29" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="N29" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="P29" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="S29" s="2">
+        <v>1514</v>
+      </c>
+      <c r="T29" s="3">
+        <v>42795</v>
+      </c>
+      <c r="U29" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="V29" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="W29" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="X29" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y29" s="3">
+        <v>38359</v>
+      </c>
+      <c r="Z29" s="2">
+        <v>3510</v>
+      </c>
+      <c r="AA29" s="4">
+        <v>5</v>
+      </c>
+      <c r="AB29" s="2">
+        <v>2500</v>
+      </c>
+      <c r="AC29" s="4">
+        <v>2</v>
+      </c>
+      <c r="AD29" s="2">
+        <v>1375</v>
+      </c>
+      <c r="AE29" s="4">
+        <v>2</v>
+      </c>
+      <c r="AH29" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AI29" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AJ29" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="30" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A30" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="J30" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="K30" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="L30" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="M30" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="N30" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="P30" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="S30" s="2">
+        <v>1515</v>
+      </c>
+      <c r="T30" s="3">
+        <v>42796</v>
+      </c>
+      <c r="U30" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="V30" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="W30" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="X30" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y30" s="3">
+        <v>38360</v>
+      </c>
+      <c r="Z30" s="2">
+        <v>3510</v>
+      </c>
+      <c r="AA30" s="4">
+        <v>5</v>
+      </c>
+      <c r="AB30" s="2">
+        <v>2500</v>
+      </c>
+      <c r="AC30" s="4">
+        <v>2</v>
+      </c>
+      <c r="AD30" s="2">
+        <v>1375</v>
+      </c>
+      <c r="AE30" s="4">
+        <v>2</v>
+      </c>
+      <c r="AH30" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AI30" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AJ30" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="31" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A31" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="J31" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="K31" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="L31" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="M31" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="N31" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="P31" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="S31" s="2">
+        <v>1516</v>
+      </c>
+      <c r="T31" s="3">
+        <v>42797</v>
+      </c>
+      <c r="U31" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="V31" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="W31" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="X31" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y31" s="3">
+        <v>38361</v>
+      </c>
+      <c r="Z31" s="2">
+        <v>3510</v>
+      </c>
+      <c r="AA31" s="4">
+        <v>5</v>
+      </c>
+      <c r="AB31" s="2">
+        <v>2500</v>
+      </c>
+      <c r="AC31" s="4">
+        <v>2</v>
+      </c>
+      <c r="AD31" s="2">
+        <v>1375</v>
+      </c>
+      <c r="AE31" s="4">
+        <v>2</v>
+      </c>
+      <c r="AH31" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AI31" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AJ31" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="32" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A32" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="J32" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="K32" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="L32" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="M32" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="N32" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="P32" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="S32" s="2">
+        <v>1517</v>
+      </c>
+      <c r="T32" s="3">
+        <v>42798</v>
+      </c>
+      <c r="U32" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="V32" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="W32" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="X32" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y32" s="3">
+        <v>38362</v>
+      </c>
+      <c r="Z32" s="2">
+        <v>3510</v>
+      </c>
+      <c r="AA32" s="4">
+        <v>5</v>
+      </c>
+      <c r="AB32" s="2">
+        <v>2500</v>
+      </c>
+      <c r="AC32" s="4">
+        <v>2</v>
+      </c>
+      <c r="AD32" s="2">
+        <v>1375</v>
+      </c>
+      <c r="AE32" s="4">
+        <v>2</v>
+      </c>
+      <c r="AH32" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AI32" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AJ32" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="33" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A33" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="J33" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="K33" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="L33" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="M33" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="N33" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="P33" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="S33" s="2">
+        <v>1518</v>
+      </c>
+      <c r="T33" s="3">
+        <v>42799</v>
+      </c>
+      <c r="U33" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="V33" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="W33" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="X33" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y33" s="3">
+        <v>38363</v>
+      </c>
+      <c r="Z33" s="2">
+        <v>3510</v>
+      </c>
+      <c r="AA33" s="4">
+        <v>5</v>
+      </c>
+      <c r="AB33" s="2">
+        <v>2500</v>
+      </c>
+      <c r="AC33" s="4">
+        <v>2</v>
+      </c>
+      <c r="AD33" s="2">
+        <v>1375</v>
+      </c>
+      <c r="AE33" s="4">
+        <v>2</v>
+      </c>
+      <c r="AH33" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AI33" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AJ33" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="34" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A34" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="J34" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="K34" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="L34" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="M34" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="N34" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="P34" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="S34" s="2">
+        <v>1519</v>
+      </c>
+      <c r="T34" s="3">
+        <v>42800</v>
+      </c>
+      <c r="U34" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="V34" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="W34" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="X34" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y34" s="3">
+        <v>38364</v>
+      </c>
+      <c r="Z34" s="2">
+        <v>3510</v>
+      </c>
+      <c r="AA34" s="4">
+        <v>5</v>
+      </c>
+      <c r="AB34" s="2">
+        <v>2500</v>
+      </c>
+      <c r="AC34" s="4">
+        <v>2</v>
+      </c>
+      <c r="AD34" s="2">
+        <v>1375</v>
+      </c>
+      <c r="AE34" s="4">
+        <v>2</v>
+      </c>
+      <c r="AH34" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AI34" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AJ34" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="35" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A35" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="J35" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="K35" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="L35" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="M35" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="N35" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="P35" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="S35" s="2">
+        <v>1520</v>
+      </c>
+      <c r="T35" s="3">
+        <v>42801</v>
+      </c>
+      <c r="U35" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="V35" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="W35" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="X35" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y35" s="3">
+        <v>38365</v>
+      </c>
+      <c r="Z35" s="2">
+        <v>3510</v>
+      </c>
+      <c r="AA35" s="4">
+        <v>5</v>
+      </c>
+      <c r="AB35" s="2">
+        <v>2500</v>
+      </c>
+      <c r="AC35" s="4">
+        <v>2</v>
+      </c>
+      <c r="AD35" s="2">
+        <v>1375</v>
+      </c>
+      <c r="AE35" s="4">
+        <v>2</v>
+      </c>
+      <c r="AH35" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AI35" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AJ35" s="1" t="s">
         <v>60</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:AK1"/>
   <hyperlinks>
-    <hyperlink ref="P4" r:id="rId1"/>
-    <hyperlink ref="P5" r:id="rId2"/>
-    <hyperlink ref="P6" r:id="rId3"/>
-    <hyperlink ref="P7" r:id="rId4"/>
-    <hyperlink ref="P8" r:id="rId5"/>
-    <hyperlink ref="P9" r:id="rId6"/>
-    <hyperlink ref="P10" r:id="rId7"/>
-    <hyperlink ref="P11" r:id="rId8"/>
-    <hyperlink ref="P12" r:id="rId9"/>
-    <hyperlink ref="P13" r:id="rId10"/>
-    <hyperlink ref="P14" r:id="rId11"/>
-    <hyperlink ref="P15" r:id="rId12"/>
-    <hyperlink ref="P16" r:id="rId13"/>
-    <hyperlink ref="P17" r:id="rId14"/>
-    <hyperlink ref="P18" r:id="rId15"/>
-    <hyperlink ref="P19" r:id="rId16"/>
-    <hyperlink ref="P20" r:id="rId17"/>
-    <hyperlink ref="P21" r:id="rId18"/>
-    <hyperlink ref="P22" r:id="rId19"/>
-    <hyperlink ref="P23" r:id="rId20"/>
-    <hyperlink ref="P24" r:id="rId21"/>
-    <hyperlink ref="P25" r:id="rId22"/>
-    <hyperlink ref="P3" r:id="rId23"/>
-    <hyperlink ref="P2" r:id="rId24"/>
+    <hyperlink ref="P14" r:id="rId1"/>
+    <hyperlink ref="P15" r:id="rId2"/>
+    <hyperlink ref="P16" r:id="rId3"/>
+    <hyperlink ref="P17" r:id="rId4"/>
+    <hyperlink ref="P18" r:id="rId5"/>
+    <hyperlink ref="P19" r:id="rId6"/>
+    <hyperlink ref="P20" r:id="rId7"/>
+    <hyperlink ref="P21" r:id="rId8"/>
+    <hyperlink ref="P22" r:id="rId9"/>
+    <hyperlink ref="P23" r:id="rId10"/>
+    <hyperlink ref="P24" r:id="rId11"/>
+    <hyperlink ref="P25" r:id="rId12"/>
+    <hyperlink ref="P26" r:id="rId13"/>
+    <hyperlink ref="P27" r:id="rId14"/>
+    <hyperlink ref="P28" r:id="rId15"/>
+    <hyperlink ref="P29" r:id="rId16"/>
+    <hyperlink ref="P30" r:id="rId17"/>
+    <hyperlink ref="P31" r:id="rId18"/>
+    <hyperlink ref="P32" r:id="rId19"/>
+    <hyperlink ref="P33" r:id="rId20"/>
+    <hyperlink ref="P34" r:id="rId21"/>
+    <hyperlink ref="P35" r:id="rId22"/>
+    <hyperlink ref="P13" r:id="rId23"/>
+    <hyperlink ref="P12" r:id="rId24"/>
+    <hyperlink ref="P11" r:id="rId25"/>
+    <hyperlink ref="P10" r:id="rId26"/>
+    <hyperlink ref="P9" r:id="rId27"/>
+    <hyperlink ref="P8" r:id="rId28"/>
+    <hyperlink ref="P7" r:id="rId29"/>
+    <hyperlink ref="P6" r:id="rId30"/>
+    <hyperlink ref="P5" r:id="rId31"/>
+    <hyperlink ref="P4" r:id="rId32"/>
+    <hyperlink ref="P3" r:id="rId33"/>
+    <hyperlink ref="P2" r:id="rId34"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>

--- a/Exple-mouvements-BDD-Grands-Mécènes2.xlsx
+++ b/Exple-mouvements-BDD-Grands-Mécènes2.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="724" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="758" uniqueCount="213">
   <si>
     <t>Code délégué</t>
   </si>
@@ -659,6 +659,24 @@
   </si>
   <si>
     <t>01611245</t>
+  </si>
+  <si>
+    <t>Petit donateur</t>
+  </si>
+  <si>
+    <t>Moyen donateur</t>
+  </si>
+  <si>
+    <t>donateur nul</t>
+  </si>
+  <si>
+    <t>Atos</t>
+  </si>
+  <si>
+    <t>Amadeus</t>
+  </si>
+  <si>
+    <t>Monext</t>
   </si>
 </sst>
 </file>
@@ -1028,7 +1046,7 @@
       <pane xSplit="5" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E16" sqref="E16"/>
+      <selection pane="bottomRight" activeCell="I39" sqref="I39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1200,7 +1218,9 @@
       <c r="H2" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="I2" s="1"/>
+      <c r="I2" s="1" t="s">
+        <v>210</v>
+      </c>
       <c r="J2" s="1" t="s">
         <v>46</v>
       </c>
@@ -1291,7 +1311,7 @@
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1" t="s">
-        <v>41</v>
+        <v>207</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>197</v>
@@ -1305,7 +1325,9 @@
       <c r="H3" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="I3" s="1"/>
+      <c r="I3" s="1" t="s">
+        <v>210</v>
+      </c>
       <c r="J3" s="1" t="s">
         <v>46</v>
       </c>
@@ -1396,7 +1418,7 @@
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1" t="s">
-        <v>41</v>
+        <v>208</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>198</v>
@@ -1410,7 +1432,9 @@
       <c r="H4" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="I4" s="1"/>
+      <c r="I4" s="1" t="s">
+        <v>211</v>
+      </c>
       <c r="J4" s="1" t="s">
         <v>46</v>
       </c>
@@ -1501,7 +1525,7 @@
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1" t="s">
-        <v>41</v>
+        <v>209</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>199</v>
@@ -1515,7 +1539,9 @@
       <c r="H5" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="I5" s="1"/>
+      <c r="I5" s="1" t="s">
+        <v>211</v>
+      </c>
       <c r="J5" s="1" t="s">
         <v>46</v>
       </c>
@@ -1620,7 +1646,9 @@
       <c r="H6" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="I6" s="1"/>
+      <c r="I6" s="1" t="s">
+        <v>211</v>
+      </c>
       <c r="J6" s="1" t="s">
         <v>46</v>
       </c>
@@ -1711,7 +1739,7 @@
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1" t="s">
-        <v>41</v>
+        <v>207</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>201</v>
@@ -1725,7 +1753,9 @@
       <c r="H7" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="I7" s="1"/>
+      <c r="I7" s="1" t="s">
+        <v>211</v>
+      </c>
       <c r="J7" s="1" t="s">
         <v>46</v>
       </c>
@@ -1816,7 +1846,7 @@
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1" t="s">
-        <v>41</v>
+        <v>208</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>202</v>
@@ -1830,7 +1860,9 @@
       <c r="H8" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="I8" s="1"/>
+      <c r="I8" s="1" t="s">
+        <v>211</v>
+      </c>
       <c r="J8" s="1" t="s">
         <v>46</v>
       </c>
@@ -1921,7 +1953,7 @@
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1" t="s">
-        <v>41</v>
+        <v>209</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>203</v>
@@ -1935,7 +1967,9 @@
       <c r="H9" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="I9" s="1"/>
+      <c r="I9" s="1" t="s">
+        <v>211</v>
+      </c>
       <c r="J9" s="1" t="s">
         <v>46</v>
       </c>
@@ -2040,7 +2074,9 @@
       <c r="H10" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="I10" s="1"/>
+      <c r="I10" s="1" t="s">
+        <v>212</v>
+      </c>
       <c r="J10" s="1" t="s">
         <v>46</v>
       </c>
@@ -2131,7 +2167,7 @@
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1" t="s">
-        <v>41</v>
+        <v>207</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>205</v>
@@ -2145,7 +2181,9 @@
       <c r="H11" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="I11" s="1"/>
+      <c r="I11" s="1" t="s">
+        <v>212</v>
+      </c>
       <c r="J11" s="1" t="s">
         <v>46</v>
       </c>
@@ -2236,7 +2274,7 @@
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1" t="s">
-        <v>41</v>
+        <v>208</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>206</v>
@@ -2250,7 +2288,9 @@
       <c r="H12" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="I12" s="1"/>
+      <c r="I12" s="1" t="s">
+        <v>212</v>
+      </c>
       <c r="J12" s="1" t="s">
         <v>46</v>
       </c>
@@ -3327,7 +3367,7 @@
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1" t="s">
-        <v>41</v>
+        <v>209</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>193</v>
@@ -3341,7 +3381,9 @@
       <c r="H13" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="I13" s="1"/>
+      <c r="I13" s="1" t="s">
+        <v>212</v>
+      </c>
       <c r="J13" s="1" t="s">
         <v>46</v>
       </c>
@@ -3445,6 +3487,9 @@
       <c r="H14" s="1" t="s">
         <v>45</v>
       </c>
+      <c r="I14" s="1" t="s">
+        <v>212</v>
+      </c>
       <c r="J14" s="1" t="s">
         <v>46</v>
       </c>
@@ -3529,7 +3574,7 @@
         <v>40</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>41</v>
+        <v>207</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>61</v>
@@ -3542,6 +3587,9 @@
       </c>
       <c r="H15" s="1" t="s">
         <v>63</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>212</v>
       </c>
       <c r="J15" s="1" t="s">
         <v>64</v>
@@ -3618,7 +3666,7 @@
         <v>71</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>41</v>
+        <v>208</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>72</v>
@@ -3631,6 +3679,9 @@
       </c>
       <c r="H16" s="1" t="s">
         <v>75</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>212</v>
       </c>
       <c r="J16" s="1" t="s">
         <v>64</v>
@@ -3707,7 +3758,7 @@
         <v>78</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>41</v>
+        <v>209</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>79</v>
@@ -3720,6 +3771,9 @@
       </c>
       <c r="H17" s="1" t="s">
         <v>81</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>212</v>
       </c>
       <c r="J17" s="1" t="s">
         <v>64</v>
@@ -3810,6 +3864,9 @@
       <c r="H18" s="1" t="s">
         <v>87</v>
       </c>
+      <c r="I18" s="1" t="s">
+        <v>212</v>
+      </c>
       <c r="J18" s="1" t="s">
         <v>64</v>
       </c>
@@ -3885,7 +3942,7 @@
         <v>90</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>41</v>
+        <v>207</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>91</v>
@@ -3898,6 +3955,9 @@
       </c>
       <c r="H19" s="1" t="s">
         <v>93</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>212</v>
       </c>
       <c r="J19" s="1" t="s">
         <v>64</v>
@@ -3974,7 +4034,7 @@
         <v>96</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>41</v>
+        <v>208</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>97</v>
@@ -3987,6 +4047,9 @@
       </c>
       <c r="H20" s="1" t="s">
         <v>99</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>210</v>
       </c>
       <c r="J20" s="1" t="s">
         <v>64</v>
@@ -4063,7 +4126,7 @@
         <v>102</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>41</v>
+        <v>209</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>103</v>
@@ -4076,6 +4139,9 @@
       </c>
       <c r="H21" s="1" t="s">
         <v>105</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>210</v>
       </c>
       <c r="J21" s="1" t="s">
         <v>64</v>
@@ -4166,6 +4232,9 @@
       <c r="H22" s="1" t="s">
         <v>111</v>
       </c>
+      <c r="I22" s="1" t="s">
+        <v>210</v>
+      </c>
       <c r="J22" s="1" t="s">
         <v>64</v>
       </c>
@@ -4241,7 +4310,7 @@
         <v>114</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>41</v>
+        <v>207</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>115</v>
@@ -4254,6 +4323,9 @@
       </c>
       <c r="H23" s="1" t="s">
         <v>117</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>210</v>
       </c>
       <c r="J23" s="1" t="s">
         <v>64</v>
@@ -4330,7 +4402,7 @@
         <v>120</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>41</v>
+        <v>208</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>121</v>
@@ -4343,6 +4415,9 @@
       </c>
       <c r="H24" s="1" t="s">
         <v>123</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>210</v>
       </c>
       <c r="J24" s="1" t="s">
         <v>64</v>
@@ -4419,7 +4494,7 @@
         <v>126</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>41</v>
+        <v>209</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>127</v>
@@ -4432,6 +4507,9 @@
       </c>
       <c r="H25" s="1" t="s">
         <v>129</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>210</v>
       </c>
       <c r="J25" s="1" t="s">
         <v>64</v>
@@ -4522,6 +4600,9 @@
       <c r="H26" s="1" t="s">
         <v>135</v>
       </c>
+      <c r="I26" s="1" t="s">
+        <v>210</v>
+      </c>
       <c r="J26" s="1" t="s">
         <v>64</v>
       </c>
@@ -4597,7 +4678,7 @@
         <v>138</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>41</v>
+        <v>207</v>
       </c>
       <c r="E27" s="1" t="s">
         <v>139</v>
@@ -4610,6 +4691,9 @@
       </c>
       <c r="H27" s="1" t="s">
         <v>141</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>211</v>
       </c>
       <c r="J27" s="1" t="s">
         <v>64</v>
@@ -4686,7 +4770,7 @@
         <v>144</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>41</v>
+        <v>208</v>
       </c>
       <c r="E28" s="1" t="s">
         <v>145</v>
@@ -4699,6 +4783,9 @@
       </c>
       <c r="H28" s="1" t="s">
         <v>147</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>211</v>
       </c>
       <c r="J28" s="1" t="s">
         <v>64</v>
@@ -4775,7 +4862,7 @@
         <v>150</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>41</v>
+        <v>209</v>
       </c>
       <c r="E29" s="1" t="s">
         <v>151</v>
@@ -4788,6 +4875,9 @@
       </c>
       <c r="H29" s="1" t="s">
         <v>153</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>211</v>
       </c>
       <c r="J29" s="1" t="s">
         <v>64</v>
@@ -4878,6 +4968,9 @@
       <c r="H30" s="1" t="s">
         <v>159</v>
       </c>
+      <c r="I30" s="1" t="s">
+        <v>211</v>
+      </c>
       <c r="J30" s="1" t="s">
         <v>64</v>
       </c>
@@ -4953,7 +5046,7 @@
         <v>162</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>41</v>
+        <v>207</v>
       </c>
       <c r="E31" s="1" t="s">
         <v>163</v>
@@ -4966,6 +5059,9 @@
       </c>
       <c r="H31" s="1" t="s">
         <v>165</v>
+      </c>
+      <c r="I31" s="1" t="s">
+        <v>211</v>
       </c>
       <c r="J31" s="1" t="s">
         <v>64</v>
@@ -5042,7 +5138,7 @@
         <v>168</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>41</v>
+        <v>208</v>
       </c>
       <c r="E32" s="1" t="s">
         <v>169</v>
@@ -5055,6 +5151,9 @@
       </c>
       <c r="H32" s="1" t="s">
         <v>171</v>
+      </c>
+      <c r="I32" s="1" t="s">
+        <v>211</v>
       </c>
       <c r="J32" s="1" t="s">
         <v>64</v>
@@ -5131,7 +5230,7 @@
         <v>174</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>41</v>
+        <v>209</v>
       </c>
       <c r="E33" s="1" t="s">
         <v>175</v>
@@ -5144,6 +5243,9 @@
       </c>
       <c r="H33" s="1" t="s">
         <v>177</v>
+      </c>
+      <c r="I33" s="1" t="s">
+        <v>211</v>
       </c>
       <c r="J33" s="1" t="s">
         <v>64</v>
@@ -5234,6 +5336,9 @@
       <c r="H34" s="1" t="s">
         <v>183</v>
       </c>
+      <c r="I34" s="1" t="s">
+        <v>211</v>
+      </c>
       <c r="J34" s="1" t="s">
         <v>64</v>
       </c>
@@ -5322,6 +5427,9 @@
       </c>
       <c r="H35" s="1" t="s">
         <v>189</v>
+      </c>
+      <c r="I35" s="1" t="s">
+        <v>211</v>
       </c>
       <c r="J35" s="1" t="s">
         <v>64</v>
